--- a/Latency.xlsx
+++ b/Latency.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clunch/sandbox/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8140008_{6A390CF1-59C6-1547-8074-6A97C2A2AC55}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9B820A45-E6A1-2E43-8A36-AC5B68CF8E9A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33340" yWindow="6920" windowWidth="33280" windowHeight="20580"/>
+    <workbookView xWindow="33340" yWindow="6860" windowWidth="33280" windowHeight="20580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wait Times" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="448">
   <si>
     <t>Team</t>
   </si>
@@ -164,12 +164,6 @@
     <t>Litter chemical properties</t>
   </si>
   <si>
-    <t>lig_externalSummary_pub</t>
-  </si>
-  <si>
-    <t>External-Summary</t>
-  </si>
-  <si>
     <t>ltr_litterCarbonNitrogen_pub</t>
   </si>
   <si>
@@ -281,18 +275,9 @@
     <t>cfc_chlorophyll_pub</t>
   </si>
   <si>
-    <t>cfc_chlorophyllParameters_pub</t>
-  </si>
-  <si>
-    <t>cfc_chlorophyllSummary_pub</t>
-  </si>
-  <si>
     <t>cfc_elements_pub</t>
   </si>
   <si>
-    <t>cfc_elementsSummary_pub</t>
-  </si>
-  <si>
     <t>cfc_fieldData_pub</t>
   </si>
   <si>
@@ -446,18 +431,12 @@
     <t>spc_biogeochem_pub</t>
   </si>
   <si>
-    <t>spc_externalLabSummary_pub</t>
-  </si>
-  <si>
     <t>NEON.DOM.SITE.DP1.10078.001</t>
   </si>
   <si>
     <t>Soil chemical properties (Distributed periodic)</t>
   </si>
   <si>
-    <t>bgc_CNiso_externalSummary_pub</t>
-  </si>
-  <si>
     <t>sls_soilChemistry_pub</t>
   </si>
   <si>
@@ -488,9 +467,6 @@
     <t>ntr_externalLab_pub</t>
   </si>
   <si>
-    <t>ntr_externalSummary_pub</t>
-  </si>
-  <si>
     <t>ntr_internalLab_pub</t>
   </si>
   <si>
@@ -506,9 +482,6 @@
     <t>sme_batchResults_pub</t>
   </si>
   <si>
-    <t>sme_labSummary_pub</t>
-  </si>
-  <si>
     <t>sme_microbialBiomass_pub</t>
   </si>
   <si>
@@ -518,9 +491,6 @@
     <t>mcc_soilTaxonTable_pub</t>
   </si>
   <si>
-    <t>mcc_taxonTableLabSummary_pub</t>
-  </si>
-  <si>
     <t>NEON.DOM.SITE.DP1.10109.001</t>
   </si>
   <si>
@@ -533,9 +503,6 @@
     <t>mga_soilGroupAbundances_pub</t>
   </si>
   <si>
-    <t>mga_labSummary_pub</t>
-  </si>
-  <si>
     <t>NEON.DOM.SITE.DP1.10108.001</t>
   </si>
   <si>
@@ -842,9 +809,6 @@
     <t>swc_externalLabData_pub</t>
   </si>
   <si>
-    <t>swc_externalLabSummaryData_pub</t>
-  </si>
-  <si>
     <t>swc_fieldData_pub</t>
   </si>
   <si>
@@ -872,9 +836,6 @@
     <t>sdg_externalLabData_pub</t>
   </si>
   <si>
-    <t>sdg_externalLabSummaryData_pub</t>
-  </si>
-  <si>
     <t>sdg_fieldData_pub</t>
   </si>
   <si>
@@ -992,9 +953,6 @@
     <t>alg_biomass_pub</t>
   </si>
   <si>
-    <t>alg_biovolumes_pub</t>
-  </si>
-  <si>
     <t>alg_fieldData_pub</t>
   </si>
   <si>
@@ -1100,9 +1058,6 @@
     <t>asc_externalLabData_pub</t>
   </si>
   <si>
-    <t>asc_externalLabSummary_pub</t>
-  </si>
-  <si>
     <t>asc_fieldDataPoint_pub</t>
   </si>
   <si>
@@ -1145,12 +1100,6 @@
     <t>asi_externalLabH2OIsotopes_pub</t>
   </si>
   <si>
-    <t>asi_externalLabPOMSummaryData_pub</t>
-  </si>
-  <si>
-    <t>asi_externalLabSummaryData_pub</t>
-  </si>
-  <si>
     <t>asi_fieldData_pub</t>
   </si>
   <si>
@@ -1217,9 +1166,6 @@
     <t>Surface water microbe cell count</t>
   </si>
   <si>
-    <t>amc_cellCountLabSummary_pub</t>
-  </si>
-  <si>
     <t>amc_cellCounts_pub</t>
   </si>
   <si>
@@ -1385,9 +1331,6 @@
     <t>DD</t>
   </si>
   <si>
-    <t>Field data only; latency allows time for field ecologists to QA data</t>
-  </si>
-  <si>
     <t>Field data and domain lab data only; latency allows time for sample processing (e.g., drying and weighing) and data QA</t>
   </si>
   <si>
@@ -1419,12 +1362,15 @@
   </si>
   <si>
     <t>Surface water microbe community composition</t>
+  </si>
+  <si>
+    <t>Field data only; latency allows time for field ecologists to collect all data in a bout and QA data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2258,11 +2204,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I277"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I260"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2281,25 +2227,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="C1" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="D1" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="G1" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="I1" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2325,7 +2271,7 @@
         <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2351,7 +2297,7 @@
         <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2377,7 +2323,7 @@
         <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2403,7 +2349,7 @@
         <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2429,7 +2375,7 @@
         <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2455,7 +2401,7 @@
         <v>105</v>
       </c>
       <c r="I7" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2481,7 +2427,7 @@
         <v>105</v>
       </c>
       <c r="I8" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2507,7 +2453,7 @@
         <v>30</v>
       </c>
       <c r="I9" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2533,7 +2479,7 @@
         <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2559,7 +2505,7 @@
         <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2585,7 +2531,7 @@
         <v>614</v>
       </c>
       <c r="I12" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2611,7 +2557,7 @@
         <v>614</v>
       </c>
       <c r="I13" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2637,7 +2583,7 @@
         <v>614</v>
       </c>
       <c r="I14" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2663,7 +2609,7 @@
         <v>614</v>
       </c>
       <c r="I15" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2689,7 +2635,7 @@
         <v>330</v>
       </c>
       <c r="I16" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2715,7 +2661,7 @@
         <v>600</v>
       </c>
       <c r="I17" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2741,7 +2687,7 @@
         <v>600</v>
       </c>
       <c r="I18" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2767,7 +2713,7 @@
         <v>75</v>
       </c>
       <c r="I19" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2793,7 +2739,7 @@
         <v>330</v>
       </c>
       <c r="I20" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2819,7 +2765,7 @@
         <v>330</v>
       </c>
       <c r="I21" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2845,7 +2791,7 @@
         <v>60</v>
       </c>
       <c r="I22" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2871,7 +2817,7 @@
         <v>60</v>
       </c>
       <c r="I23" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2888,16 +2834,16 @@
         <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
         <v>7</v>
       </c>
       <c r="G24">
-        <v>14</v>
+        <v>270</v>
       </c>
       <c r="I24" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2911,7 +2857,7 @@
         <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
         <v>6</v>
@@ -2920,10 +2866,10 @@
         <v>7</v>
       </c>
       <c r="G25">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="I25" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2931,13 +2877,13 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E26" t="s">
         <v>6</v>
@@ -2946,10 +2892,10 @@
         <v>7</v>
       </c>
       <c r="G26">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="I26" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2957,25 +2903,25 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="F27">
+        <v>45</v>
       </c>
       <c r="G27">
-        <v>270</v>
+        <v>60</v>
       </c>
       <c r="I27" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2983,16 +2929,16 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" t="s">
         <v>55</v>
       </c>
-      <c r="D28" t="s">
-        <v>56</v>
-      </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F28">
         <v>45</v>
@@ -3001,7 +2947,7 @@
         <v>60</v>
       </c>
       <c r="I28" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -3009,16 +2955,16 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F29">
         <v>45</v>
@@ -3027,7 +2973,7 @@
         <v>60</v>
       </c>
       <c r="I29" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -3035,25 +2981,25 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F30">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="G30">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I30" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -3061,25 +3007,25 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
       </c>
       <c r="G31">
-        <v>30</v>
+        <v>255</v>
       </c>
       <c r="I31" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -3087,13 +3033,13 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" t="s">
         <v>61</v>
-      </c>
-      <c r="D32" t="s">
-        <v>62</v>
       </c>
       <c r="E32" t="s">
         <v>6</v>
@@ -3105,7 +3051,7 @@
         <v>255</v>
       </c>
       <c r="I32" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -3113,13 +3059,13 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E33" t="s">
         <v>6</v>
@@ -3131,7 +3077,7 @@
         <v>255</v>
       </c>
       <c r="I33" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -3139,13 +3085,13 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E34" t="s">
         <v>6</v>
@@ -3157,7 +3103,7 @@
         <v>255</v>
       </c>
       <c r="I34" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -3165,13 +3111,13 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E35" t="s">
         <v>6</v>
@@ -3180,10 +3126,10 @@
         <v>7</v>
       </c>
       <c r="G35">
-        <v>255</v>
+        <v>360</v>
       </c>
       <c r="I35" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -3191,13 +3137,13 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" t="s">
         <v>67</v>
-      </c>
-      <c r="D36" t="s">
-        <v>68</v>
       </c>
       <c r="E36" t="s">
         <v>6</v>
@@ -3209,7 +3155,7 @@
         <v>360</v>
       </c>
       <c r="I36" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -3217,13 +3163,13 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E37" t="s">
         <v>6</v>
@@ -3232,10 +3178,10 @@
         <v>7</v>
       </c>
       <c r="G37">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="I37" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -3243,14 +3189,14 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" t="s">
         <v>71</v>
       </c>
-      <c r="D38" t="s">
-        <v>72</v>
-      </c>
       <c r="E38" t="s">
         <v>6</v>
       </c>
@@ -3258,10 +3204,10 @@
         <v>7</v>
       </c>
       <c r="G38">
-        <v>240</v>
+        <v>420</v>
       </c>
       <c r="I38" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -3269,13 +3215,13 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E39" t="s">
         <v>6</v>
@@ -3284,10 +3230,10 @@
         <v>7</v>
       </c>
       <c r="G39">
-        <v>420</v>
+        <v>240</v>
       </c>
       <c r="I39" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -3295,13 +3241,13 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E40" t="s">
         <v>6</v>
@@ -3313,7 +3259,7 @@
         <v>240</v>
       </c>
       <c r="I40" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -3321,13 +3267,13 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E41" t="s">
         <v>6</v>
@@ -3339,7 +3285,7 @@
         <v>240</v>
       </c>
       <c r="I41" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -3347,25 +3293,25 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C42" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F42">
+        <v>14</v>
       </c>
       <c r="G42">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="I42" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -3373,25 +3319,25 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D43" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E43" t="s">
         <v>14</v>
       </c>
       <c r="F43">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="G43">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="I43" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -3399,25 +3345,25 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E44" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44">
-        <v>75</v>
+        <v>6</v>
+      </c>
+      <c r="F44" t="s">
+        <v>7</v>
       </c>
       <c r="G44">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="I44" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -3425,25 +3371,25 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" t="s">
         <v>82</v>
       </c>
-      <c r="D45" t="s">
-        <v>83</v>
-      </c>
       <c r="E45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F45" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="F45">
+        <v>45</v>
       </c>
       <c r="G45">
-        <v>270</v>
+        <v>60</v>
       </c>
       <c r="I45" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -3451,25 +3397,25 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E46" t="s">
-        <v>35</v>
-      </c>
-      <c r="F46">
-        <v>45</v>
+        <v>6</v>
+      </c>
+      <c r="F46" t="s">
+        <v>7</v>
       </c>
       <c r="G46">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I46" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -3477,13 +3423,13 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E47" t="s">
         <v>6</v>
@@ -3492,10 +3438,10 @@
         <v>7</v>
       </c>
       <c r="G47">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="I47" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -3503,25 +3449,25 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E48" t="s">
-        <v>48</v>
-      </c>
-      <c r="F48" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F48">
+        <v>30</v>
       </c>
       <c r="G48">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="I48" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -3529,25 +3475,25 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E49" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="F49" t="s">
         <v>7</v>
       </c>
       <c r="G49">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="I49" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -3555,25 +3501,25 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E50" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="F50">
+        <v>45</v>
       </c>
       <c r="G50">
-        <v>270</v>
+        <v>60</v>
       </c>
       <c r="I50" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -3581,25 +3527,25 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C51" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D51" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E51" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="F51" t="s">
         <v>7</v>
       </c>
       <c r="G51">
-        <v>14</v>
+        <v>270</v>
       </c>
       <c r="I51" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -3607,25 +3553,25 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C52" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D52" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E52" t="s">
         <v>14</v>
       </c>
       <c r="F52">
+        <v>14</v>
+      </c>
+      <c r="G52">
         <v>30</v>
       </c>
-      <c r="G52">
-        <v>45</v>
-      </c>
       <c r="I52" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -3633,25 +3579,25 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C53" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D53" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F53">
+        <v>14</v>
       </c>
       <c r="G53">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="I53" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -3659,25 +3605,25 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C54" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D54" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E54" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F54">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="G54">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I54" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -3685,25 +3631,25 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D55" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E55" t="s">
-        <v>6</v>
-      </c>
-      <c r="F55" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F55">
+        <v>120</v>
       </c>
       <c r="G55">
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="I55" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -3717,19 +3663,19 @@
         <v>97</v>
       </c>
       <c r="D56" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E56" t="s">
         <v>14</v>
       </c>
       <c r="F56">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="G56">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="I56" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -3743,7 +3689,7 @@
         <v>97</v>
       </c>
       <c r="D57" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E57" t="s">
         <v>14</v>
@@ -3755,7 +3701,7 @@
         <v>30</v>
       </c>
       <c r="I57" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -3769,7 +3715,7 @@
         <v>97</v>
       </c>
       <c r="D58" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E58" t="s">
         <v>14</v>
@@ -3781,7 +3727,7 @@
         <v>30</v>
       </c>
       <c r="I58" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -3789,25 +3735,25 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C59" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D59" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E59" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59">
-        <v>120</v>
+        <v>6</v>
+      </c>
+      <c r="F59" t="s">
+        <v>7</v>
       </c>
       <c r="G59">
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="I59" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -3815,25 +3761,25 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C60" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D60" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E60" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60">
-        <v>120</v>
+        <v>6</v>
+      </c>
+      <c r="F60" t="s">
+        <v>7</v>
       </c>
       <c r="G60">
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="I60" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -3841,25 +3787,25 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C61" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E61" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61">
-        <v>14</v>
-      </c>
-      <c r="G61">
-        <v>30</v>
+        <v>6</v>
+      </c>
+      <c r="F61" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" t="s">
+        <v>7</v>
       </c>
       <c r="I61" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -3867,25 +3813,25 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C62" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D62" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E62" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62">
-        <v>14</v>
-      </c>
-      <c r="G62">
-        <v>30</v>
+        <v>6</v>
+      </c>
+      <c r="F62" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62" t="s">
+        <v>7</v>
       </c>
       <c r="I62" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -3893,13 +3839,13 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C63" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D63" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E63" t="s">
         <v>6</v>
@@ -3907,11 +3853,11 @@
       <c r="F63" t="s">
         <v>7</v>
       </c>
-      <c r="G63">
-        <v>270</v>
+      <c r="G63" t="s">
+        <v>7</v>
       </c>
       <c r="I63" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -3919,25 +3865,25 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C64" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D64" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E64" t="s">
-        <v>6</v>
-      </c>
-      <c r="F64" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="F64">
+        <v>45</v>
       </c>
       <c r="G64">
-        <v>270</v>
+        <v>60</v>
       </c>
       <c r="I64" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -3951,19 +3897,19 @@
         <v>114</v>
       </c>
       <c r="D65" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E65" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65" t="s">
-        <v>7</v>
-      </c>
-      <c r="G65" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="F65">
+        <v>45</v>
+      </c>
+      <c r="G65">
+        <v>60</v>
       </c>
       <c r="I65" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -3977,19 +3923,19 @@
         <v>114</v>
       </c>
       <c r="D66" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E66" t="s">
-        <v>6</v>
-      </c>
-      <c r="F66" t="s">
-        <v>7</v>
-      </c>
-      <c r="G66" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F66">
+        <v>45</v>
+      </c>
+      <c r="G66">
+        <v>60</v>
       </c>
       <c r="I66" t="s">
-        <v>460</v>
+        <v>434</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -4003,19 +3949,19 @@
         <v>114</v>
       </c>
       <c r="D67" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E67" t="s">
-        <v>6</v>
-      </c>
-      <c r="F67" t="s">
-        <v>7</v>
-      </c>
-      <c r="G67" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="F67">
+        <v>45</v>
+      </c>
+      <c r="G67">
+        <v>60</v>
       </c>
       <c r="I67" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -4023,25 +3969,25 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C68" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D68" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E68" t="s">
-        <v>35</v>
-      </c>
-      <c r="F68">
-        <v>45</v>
+        <v>6</v>
+      </c>
+      <c r="F68" t="s">
+        <v>7</v>
       </c>
       <c r="G68">
-        <v>60</v>
+        <v>270</v>
       </c>
       <c r="I68" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -4049,25 +3995,25 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C69" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D69" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E69" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F69">
+        <v>30</v>
+      </c>
+      <c r="G69">
         <v>45</v>
       </c>
-      <c r="G69">
-        <v>60</v>
-      </c>
       <c r="I69" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -4075,25 +4021,25 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C70" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D70" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E70" t="s">
         <v>14</v>
       </c>
       <c r="F70">
+        <v>30</v>
+      </c>
+      <c r="G70">
         <v>45</v>
       </c>
-      <c r="G70">
-        <v>60</v>
-      </c>
       <c r="I70" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -4101,25 +4047,25 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C71" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D71" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E71" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F71">
+        <v>30</v>
+      </c>
+      <c r="G71">
         <v>45</v>
       </c>
-      <c r="G71">
-        <v>60</v>
-      </c>
       <c r="I71" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -4127,13 +4073,13 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C72" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D72" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E72" t="s">
         <v>6</v>
@@ -4142,10 +4088,10 @@
         <v>7</v>
       </c>
       <c r="G72">
-        <v>270</v>
+        <v>375</v>
       </c>
       <c r="I72" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -4159,19 +4105,19 @@
         <v>128</v>
       </c>
       <c r="D73" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E73" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73">
-        <v>30</v>
+        <v>6</v>
+      </c>
+      <c r="F73" t="s">
+        <v>7</v>
       </c>
       <c r="G73">
-        <v>45</v>
+        <v>375</v>
       </c>
       <c r="I73" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -4185,19 +4131,19 @@
         <v>128</v>
       </c>
       <c r="D74" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E74" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74">
-        <v>30</v>
+        <v>6</v>
+      </c>
+      <c r="F74" t="s">
+        <v>7</v>
       </c>
       <c r="G74">
-        <v>45</v>
+        <v>375</v>
       </c>
       <c r="I74" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -4211,19 +4157,19 @@
         <v>128</v>
       </c>
       <c r="D75" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E75" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75">
-        <v>30</v>
+        <v>6</v>
+      </c>
+      <c r="F75" t="s">
+        <v>7</v>
       </c>
       <c r="G75">
-        <v>45</v>
+        <v>375</v>
       </c>
       <c r="I75" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -4231,13 +4177,13 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C76" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D76" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E76" t="s">
         <v>6</v>
@@ -4245,11 +4191,11 @@
       <c r="F76" t="s">
         <v>7</v>
       </c>
-      <c r="G76">
-        <v>375</v>
+      <c r="G76" t="s">
+        <v>7</v>
       </c>
       <c r="I76" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -4257,13 +4203,13 @@
         <v>2</v>
       </c>
       <c r="B77" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C77" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D77" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E77" t="s">
         <v>6</v>
@@ -4272,10 +4218,10 @@
         <v>7</v>
       </c>
       <c r="G77">
-        <v>375</v>
+        <v>270</v>
       </c>
       <c r="I77" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -4283,13 +4229,13 @@
         <v>2</v>
       </c>
       <c r="B78" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C78" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D78" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E78" t="s">
         <v>6</v>
@@ -4297,11 +4243,11 @@
       <c r="F78" t="s">
         <v>7</v>
       </c>
-      <c r="G78">
-        <v>375</v>
+      <c r="G78" t="s">
+        <v>7</v>
       </c>
       <c r="I78" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -4309,13 +4255,13 @@
         <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C79" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D79" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E79" t="s">
         <v>6</v>
@@ -4323,11 +4269,11 @@
       <c r="F79" t="s">
         <v>7</v>
       </c>
-      <c r="G79">
-        <v>375</v>
+      <c r="G79" t="s">
+        <v>7</v>
       </c>
       <c r="I79" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -4335,13 +4281,13 @@
         <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C80" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D80" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E80" t="s">
         <v>6</v>
@@ -4353,7 +4299,7 @@
         <v>7</v>
       </c>
       <c r="I80" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -4361,16 +4307,16 @@
         <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C81" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D81" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E81" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="F81" t="s">
         <v>7</v>
@@ -4379,7 +4325,7 @@
         <v>7</v>
       </c>
       <c r="I81" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -4387,25 +4333,25 @@
         <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C82" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D82" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E82" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="F82" t="s">
         <v>7</v>
       </c>
       <c r="G82">
-        <v>14</v>
+        <v>270</v>
       </c>
       <c r="I82" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -4413,25 +4359,25 @@
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C83" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D83" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E83" t="s">
-        <v>6</v>
-      </c>
-      <c r="F83" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="F83">
+        <v>45</v>
       </c>
       <c r="G83">
-        <v>270</v>
+        <v>60</v>
       </c>
       <c r="I83" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -4439,25 +4385,25 @@
         <v>2</v>
       </c>
       <c r="B84" t="s">
+        <v>145</v>
+      </c>
+      <c r="C84" t="s">
         <v>146</v>
       </c>
-      <c r="C84" t="s">
-        <v>147</v>
-      </c>
       <c r="D84" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E84" t="s">
-        <v>6</v>
-      </c>
-      <c r="F84" t="s">
-        <v>7</v>
-      </c>
-      <c r="G84" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="F84">
+        <v>45</v>
+      </c>
+      <c r="G84">
+        <v>60</v>
       </c>
       <c r="I84" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -4465,13 +4411,13 @@
         <v>2</v>
       </c>
       <c r="B85" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C85" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D85" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E85" t="s">
         <v>6</v>
@@ -4479,11 +4425,11 @@
       <c r="F85" t="s">
         <v>7</v>
       </c>
-      <c r="G85" t="s">
-        <v>7</v>
+      <c r="G85">
+        <v>14</v>
       </c>
       <c r="I85" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -4491,13 +4437,13 @@
         <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C86" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D86" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E86" t="s">
         <v>6</v>
@@ -4505,11 +4451,11 @@
       <c r="F86" t="s">
         <v>7</v>
       </c>
-      <c r="G86" t="s">
-        <v>7</v>
+      <c r="G86">
+        <v>240</v>
       </c>
       <c r="I86" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -4517,13 +4463,13 @@
         <v>2</v>
       </c>
       <c r="B87" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C87" t="s">
-        <v>147</v>
+        <v>443</v>
       </c>
       <c r="D87" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E87" t="s">
         <v>6</v>
@@ -4531,11 +4477,11 @@
       <c r="F87" t="s">
         <v>7</v>
       </c>
-      <c r="G87" t="s">
-        <v>7</v>
+      <c r="G87">
+        <v>240</v>
       </c>
       <c r="I87" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -4543,13 +4489,13 @@
         <v>2</v>
       </c>
       <c r="B88" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C88" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D88" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E88" t="s">
         <v>6</v>
@@ -4558,10 +4504,10 @@
         <v>7</v>
       </c>
       <c r="G88">
-        <v>270</v>
+        <v>14</v>
       </c>
       <c r="I88" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -4569,25 +4515,25 @@
         <v>2</v>
       </c>
       <c r="B89" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C89" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D89" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E89" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="F89" t="s">
         <v>7</v>
       </c>
       <c r="G89">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="I89" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -4595,25 +4541,25 @@
         <v>2</v>
       </c>
       <c r="B90" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C90" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D90" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E90" t="s">
-        <v>35</v>
-      </c>
-      <c r="F90">
-        <v>45</v>
+        <v>6</v>
+      </c>
+      <c r="F90" t="s">
+        <v>7</v>
       </c>
       <c r="G90">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="I90" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -4621,25 +4567,25 @@
         <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C91" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D91" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E91" t="s">
-        <v>35</v>
-      </c>
-      <c r="F91">
-        <v>45</v>
+        <v>6</v>
+      </c>
+      <c r="F91" t="s">
+        <v>7</v>
       </c>
       <c r="G91">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="I91" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -4647,13 +4593,13 @@
         <v>2</v>
       </c>
       <c r="B92" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C92" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D92" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E92" t="s">
         <v>6</v>
@@ -4662,10 +4608,10 @@
         <v>7</v>
       </c>
       <c r="G92">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="I92" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -4673,25 +4619,25 @@
         <v>2</v>
       </c>
       <c r="B93" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C93" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D93" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E93" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="F93" t="s">
         <v>7</v>
       </c>
       <c r="G93">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="I93" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -4699,13 +4645,13 @@
         <v>2</v>
       </c>
       <c r="B94" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C94" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D94" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E94" t="s">
         <v>6</v>
@@ -4717,7 +4663,7 @@
         <v>240</v>
       </c>
       <c r="I94" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -4725,13 +4671,13 @@
         <v>2</v>
       </c>
       <c r="B95" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C95" t="s">
-        <v>462</v>
+        <v>168</v>
       </c>
       <c r="D95" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E95" t="s">
         <v>6</v>
@@ -4743,7 +4689,7 @@
         <v>240</v>
       </c>
       <c r="I95" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -4751,25 +4697,25 @@
         <v>2</v>
       </c>
       <c r="B96" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C96" t="s">
-        <v>462</v>
+        <v>168</v>
       </c>
       <c r="D96" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E96" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="F96" t="s">
         <v>7</v>
       </c>
       <c r="G96">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="I96" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -4777,13 +4723,13 @@
         <v>2</v>
       </c>
       <c r="B97" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C97" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D97" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E97" t="s">
         <v>6</v>
@@ -4791,11 +4737,11 @@
       <c r="F97" t="s">
         <v>7</v>
       </c>
-      <c r="G97">
-        <v>14</v>
+      <c r="G97" t="s">
+        <v>7</v>
       </c>
       <c r="I97" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -4803,13 +4749,13 @@
         <v>2</v>
       </c>
       <c r="B98" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C98" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D98" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E98" t="s">
         <v>6</v>
@@ -4817,11 +4763,11 @@
       <c r="F98" t="s">
         <v>7</v>
       </c>
-      <c r="G98">
-        <v>240</v>
+      <c r="G98" t="s">
+        <v>7</v>
       </c>
       <c r="I98" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -4829,25 +4775,25 @@
         <v>2</v>
       </c>
       <c r="B99" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C99" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D99" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E99" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="F99" t="s">
         <v>7</v>
       </c>
-      <c r="G99">
-        <v>14</v>
+      <c r="G99" t="s">
+        <v>7</v>
       </c>
       <c r="I99" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -4861,7 +4807,7 @@
         <v>172</v>
       </c>
       <c r="D100" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E100" t="s">
         <v>6</v>
@@ -4869,11 +4815,11 @@
       <c r="F100" t="s">
         <v>7</v>
       </c>
-      <c r="G100">
-        <v>240</v>
+      <c r="G100" t="s">
+        <v>7</v>
       </c>
       <c r="I100" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -4881,25 +4827,25 @@
         <v>2</v>
       </c>
       <c r="B101" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C101" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D101" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E101" t="s">
-        <v>6</v>
-      </c>
-      <c r="F101" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="F101">
+        <v>45</v>
       </c>
       <c r="G101">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="I101" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -4907,25 +4853,25 @@
         <v>2</v>
       </c>
       <c r="B102" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C102" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D102" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E102" t="s">
-        <v>6</v>
-      </c>
-      <c r="F102" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="F102">
+        <v>30</v>
       </c>
       <c r="G102">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="I102" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -4933,25 +4879,25 @@
         <v>2</v>
       </c>
       <c r="B103" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C103" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D103" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E103" t="s">
-        <v>6</v>
-      </c>
-      <c r="F103" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F103">
+        <v>30</v>
       </c>
       <c r="G103">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="I103" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -4959,25 +4905,25 @@
         <v>2</v>
       </c>
       <c r="B104" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C104" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D104" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E104" t="s">
-        <v>6</v>
-      </c>
-      <c r="F104" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="F104">
+        <v>45</v>
       </c>
       <c r="G104">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="I104" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -4985,25 +4931,25 @@
         <v>2</v>
       </c>
       <c r="B105" t="s">
+        <v>177</v>
+      </c>
+      <c r="C105" t="s">
         <v>178</v>
       </c>
-      <c r="C105" t="s">
-        <v>179</v>
-      </c>
       <c r="D105" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E105" t="s">
-        <v>6</v>
-      </c>
-      <c r="F105" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="F105">
+        <v>45</v>
       </c>
       <c r="G105">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="I105" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -5011,13 +4957,13 @@
         <v>2</v>
       </c>
       <c r="B106" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C106" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D106" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E106" t="s">
         <v>6</v>
@@ -5025,11 +4971,11 @@
       <c r="F106" t="s">
         <v>7</v>
       </c>
-      <c r="G106">
-        <v>240</v>
+      <c r="G106" t="s">
+        <v>7</v>
       </c>
       <c r="I106" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -5037,13 +4983,13 @@
         <v>2</v>
       </c>
       <c r="B107" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C107" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D107" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E107" t="s">
         <v>6</v>
@@ -5055,7 +5001,7 @@
         <v>7</v>
       </c>
       <c r="I107" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -5063,13 +5009,13 @@
         <v>2</v>
       </c>
       <c r="B108" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C108" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D108" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E108" t="s">
         <v>6</v>
@@ -5081,7 +5027,7 @@
         <v>7</v>
       </c>
       <c r="I108" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -5089,13 +5035,13 @@
         <v>2</v>
       </c>
       <c r="B109" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C109" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D109" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E109" t="s">
         <v>6</v>
@@ -5107,7 +5053,7 @@
         <v>7</v>
       </c>
       <c r="I109" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
@@ -5115,13 +5061,13 @@
         <v>2</v>
       </c>
       <c r="B110" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C110" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D110" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E110" t="s">
         <v>6</v>
@@ -5133,7 +5079,7 @@
         <v>7</v>
       </c>
       <c r="I110" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
@@ -5141,25 +5087,25 @@
         <v>2</v>
       </c>
       <c r="B111" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C111" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D111" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E111" t="s">
-        <v>35</v>
-      </c>
-      <c r="F111">
-        <v>45</v>
+        <v>6</v>
+      </c>
+      <c r="F111" t="s">
+        <v>7</v>
       </c>
       <c r="G111">
-        <v>60</v>
+        <v>270</v>
       </c>
       <c r="I111" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -5167,25 +5113,25 @@
         <v>2</v>
       </c>
       <c r="B112" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C112" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D112" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E112" t="s">
-        <v>35</v>
-      </c>
-      <c r="F112">
-        <v>30</v>
+        <v>6</v>
+      </c>
+      <c r="F112" t="s">
+        <v>7</v>
       </c>
       <c r="G112">
-        <v>45</v>
+        <v>390</v>
       </c>
       <c r="I112" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
@@ -5193,25 +5139,25 @@
         <v>2</v>
       </c>
       <c r="B113" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C113" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D113" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E113" t="s">
-        <v>14</v>
-      </c>
-      <c r="F113">
-        <v>30</v>
+        <v>6</v>
+      </c>
+      <c r="F113" t="s">
+        <v>7</v>
       </c>
       <c r="G113">
-        <v>45</v>
+        <v>390</v>
       </c>
       <c r="I113" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
@@ -5219,25 +5165,25 @@
         <v>2</v>
       </c>
       <c r="B114" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="C114" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="D114" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="E114" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F114">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="G114">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I114" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
@@ -5245,25 +5191,25 @@
         <v>2</v>
       </c>
       <c r="B115" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="C115" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="D115" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E115" t="s">
-        <v>35</v>
-      </c>
-      <c r="F115">
-        <v>45</v>
+        <v>6</v>
+      </c>
+      <c r="F115" t="s">
+        <v>7</v>
       </c>
       <c r="G115">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="I115" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
@@ -5271,13 +5217,13 @@
         <v>2</v>
       </c>
       <c r="B116" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C116" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D116" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E116" t="s">
         <v>6</v>
@@ -5285,11 +5231,11 @@
       <c r="F116" t="s">
         <v>7</v>
       </c>
-      <c r="G116" t="s">
-        <v>7</v>
+      <c r="G116">
+        <v>300</v>
       </c>
       <c r="I116" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
@@ -5297,25 +5243,25 @@
         <v>2</v>
       </c>
       <c r="B117" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C117" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D117" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E117" t="s">
-        <v>6</v>
-      </c>
-      <c r="F117" t="s">
-        <v>7</v>
-      </c>
-      <c r="G117" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F117">
+        <v>75</v>
+      </c>
+      <c r="G117">
+        <v>90</v>
       </c>
       <c r="I117" t="s">
-        <v>460</v>
+        <v>434</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
@@ -5323,25 +5269,25 @@
         <v>2</v>
       </c>
       <c r="B118" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C118" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D118" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="E118" t="s">
-        <v>6</v>
-      </c>
-      <c r="F118" t="s">
-        <v>7</v>
-      </c>
-      <c r="G118" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F118">
+        <v>75</v>
+      </c>
+      <c r="G118">
+        <v>90</v>
       </c>
       <c r="I118" t="s">
-        <v>460</v>
+        <v>434</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
@@ -5349,25 +5295,25 @@
         <v>2</v>
       </c>
       <c r="B119" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C119" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D119" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E119" t="s">
-        <v>6</v>
-      </c>
-      <c r="F119" t="s">
-        <v>7</v>
-      </c>
-      <c r="G119" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F119">
+        <v>270</v>
+      </c>
+      <c r="G119">
+        <v>300</v>
       </c>
       <c r="I119" t="s">
-        <v>460</v>
+        <v>434</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
@@ -5375,39 +5321,39 @@
         <v>2</v>
       </c>
       <c r="B120" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C120" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D120" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="E120" t="s">
-        <v>6</v>
-      </c>
-      <c r="F120" t="s">
-        <v>7</v>
-      </c>
-      <c r="G120" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F120">
+        <v>75</v>
+      </c>
+      <c r="G120">
+        <v>90</v>
       </c>
       <c r="I120" t="s">
-        <v>460</v>
+        <v>434</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="B121" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C121" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D121" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="E121" t="s">
         <v>6</v>
@@ -5416,102 +5362,102 @@
         <v>7</v>
       </c>
       <c r="G121">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="I121" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="B122" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C122" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="D122" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="E122" t="s">
-        <v>6</v>
-      </c>
-      <c r="F122" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="F122">
+        <v>45</v>
       </c>
       <c r="G122">
-        <v>390</v>
+        <v>60</v>
       </c>
       <c r="I122" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="B123" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C123" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="D123" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E123" t="s">
-        <v>6</v>
-      </c>
-      <c r="F123" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F123">
+        <v>45</v>
       </c>
       <c r="G123">
-        <v>390</v>
+        <v>60</v>
       </c>
       <c r="I123" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="B124" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C124" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D124" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E124" t="s">
-        <v>14</v>
-      </c>
-      <c r="F124">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="F124" t="s">
+        <v>7</v>
       </c>
       <c r="G124">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="I124" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="B125" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C125" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D125" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E125" t="s">
         <v>6</v>
@@ -5520,362 +5466,362 @@
         <v>7</v>
       </c>
       <c r="G125">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="I125" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="B126" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="C126" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="D126" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="E126" t="s">
-        <v>6</v>
-      </c>
-      <c r="F126" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="F126">
+        <v>360</v>
       </c>
       <c r="G126">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="I126" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="B127" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C127" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D127" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E127" t="s">
         <v>14</v>
       </c>
       <c r="F127">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="G127">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="I127" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="B128" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C128" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D128" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E128" t="s">
         <v>14</v>
       </c>
       <c r="F128">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="G128">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="I128" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="B129" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C129" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D129" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E129" t="s">
-        <v>14</v>
-      </c>
-      <c r="F129">
-        <v>270</v>
+        <v>6</v>
+      </c>
+      <c r="F129" t="s">
+        <v>7</v>
       </c>
       <c r="G129">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="I129" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>2</v>
+        <v>209</v>
       </c>
       <c r="B130" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C130" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D130" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E130" t="s">
-        <v>14</v>
-      </c>
-      <c r="F130">
-        <v>75</v>
+        <v>6</v>
+      </c>
+      <c r="F130" t="s">
+        <v>7</v>
       </c>
       <c r="G130">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="I130" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>209</v>
+      </c>
+      <c r="B131" t="s">
+        <v>219</v>
+      </c>
+      <c r="C131" t="s">
         <v>220</v>
       </c>
-      <c r="B131" t="s">
-        <v>221</v>
-      </c>
-      <c r="C131" t="s">
-        <v>222</v>
-      </c>
       <c r="D131" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E131" t="s">
-        <v>6</v>
-      </c>
-      <c r="F131" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="F131">
+        <v>14</v>
       </c>
       <c r="G131">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="I131" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>209</v>
+      </c>
+      <c r="B132" t="s">
+        <v>219</v>
+      </c>
+      <c r="C132" t="s">
         <v>220</v>
       </c>
-      <c r="B132" t="s">
-        <v>224</v>
-      </c>
-      <c r="C132" t="s">
-        <v>225</v>
-      </c>
       <c r="D132" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E132" t="s">
-        <v>35</v>
-      </c>
-      <c r="F132">
-        <v>45</v>
+        <v>6</v>
+      </c>
+      <c r="F132" t="s">
+        <v>7</v>
       </c>
       <c r="G132">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="I132" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>209</v>
+      </c>
+      <c r="B133" t="s">
+        <v>219</v>
+      </c>
+      <c r="C133" t="s">
         <v>220</v>
       </c>
-      <c r="B133" t="s">
-        <v>224</v>
-      </c>
-      <c r="C133" t="s">
-        <v>225</v>
-      </c>
       <c r="D133" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E133" t="s">
-        <v>14</v>
-      </c>
-      <c r="F133">
-        <v>45</v>
+        <v>6</v>
+      </c>
+      <c r="F133" t="s">
+        <v>7</v>
       </c>
       <c r="G133">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="I133" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B134" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C134" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D134" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E134" t="s">
-        <v>6</v>
-      </c>
-      <c r="F134" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F134">
+        <v>42</v>
       </c>
       <c r="G134">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="I134" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B135" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C135" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D135" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E135" t="s">
-        <v>6</v>
-      </c>
-      <c r="F135" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F135">
+        <v>42</v>
       </c>
       <c r="G135">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="I135" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B136" t="s">
+        <v>229</v>
+      </c>
+      <c r="C136" t="s">
         <v>230</v>
       </c>
-      <c r="C136" t="s">
-        <v>231</v>
-      </c>
       <c r="D136" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E136" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F136">
-        <v>360</v>
+        <v>42</v>
       </c>
       <c r="G136">
-        <v>390</v>
+        <v>60</v>
       </c>
       <c r="I136" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B137" t="s">
+        <v>229</v>
+      </c>
+      <c r="C137" t="s">
         <v>230</v>
       </c>
-      <c r="C137" t="s">
-        <v>231</v>
-      </c>
       <c r="D137" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E137" t="s">
-        <v>14</v>
-      </c>
-      <c r="F137">
-        <v>45</v>
+        <v>445</v>
+      </c>
+      <c r="F137" t="s">
+        <v>7</v>
       </c>
       <c r="G137">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="I137" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B138" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C138" t="s">
-        <v>231</v>
+        <v>444</v>
       </c>
       <c r="D138" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E138" t="s">
-        <v>14</v>
-      </c>
-      <c r="F138">
-        <v>45</v>
+        <v>6</v>
+      </c>
+      <c r="F138" t="s">
+        <v>7</v>
       </c>
       <c r="G138">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="I138" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B139" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="C139" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D139" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E139" t="s">
         <v>6</v>
@@ -5887,73 +5833,73 @@
         <v>240</v>
       </c>
       <c r="I139" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B140" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C140" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="D140" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E140" t="s">
-        <v>6</v>
-      </c>
-      <c r="F140" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F140">
+        <v>45</v>
       </c>
       <c r="G140">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="I140" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B141" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C141" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="D141" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E141" t="s">
-        <v>35</v>
-      </c>
-      <c r="F141">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="F141" t="s">
+        <v>7</v>
       </c>
       <c r="G141">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="I141" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B142" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C142" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="D142" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="E142" t="s">
         <v>6</v>
@@ -5965,21 +5911,21 @@
         <v>240</v>
       </c>
       <c r="I142" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B143" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C143" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="D143" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E143" t="s">
         <v>6</v>
@@ -5991,12 +5937,12 @@
         <v>240</v>
       </c>
       <c r="I143" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B144" t="s">
         <v>240</v>
@@ -6005,24 +5951,24 @@
         <v>241</v>
       </c>
       <c r="D144" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E144" t="s">
-        <v>14</v>
-      </c>
-      <c r="F144">
-        <v>42</v>
+        <v>6</v>
+      </c>
+      <c r="F144" t="s">
+        <v>7</v>
       </c>
       <c r="G144">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="I144" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B145" t="s">
         <v>240</v>
@@ -6031,85 +5977,85 @@
         <v>241</v>
       </c>
       <c r="D145" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E145" t="s">
-        <v>14</v>
-      </c>
-      <c r="F145">
-        <v>42</v>
+        <v>6</v>
+      </c>
+      <c r="F145" t="s">
+        <v>7</v>
       </c>
       <c r="G145">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="I145" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B146" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C146" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D146" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E146" t="s">
         <v>14</v>
       </c>
       <c r="F146">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G146">
         <v>60</v>
       </c>
       <c r="I146" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B147" t="s">
+        <v>248</v>
+      </c>
+      <c r="C147" t="s">
+        <v>249</v>
+      </c>
+      <c r="D147" t="s">
+        <v>250</v>
+      </c>
+      <c r="E147" t="s">
+        <v>6</v>
+      </c>
+      <c r="F147" t="s">
+        <v>7</v>
+      </c>
+      <c r="G147">
         <v>240</v>
       </c>
-      <c r="C147" t="s">
-        <v>241</v>
-      </c>
-      <c r="D147" t="s">
-        <v>245</v>
-      </c>
-      <c r="E147" t="s">
-        <v>464</v>
-      </c>
-      <c r="F147" t="s">
-        <v>7</v>
-      </c>
-      <c r="G147">
-        <v>180</v>
-      </c>
       <c r="I147" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B148" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C148" t="s">
-        <v>463</v>
+        <v>249</v>
       </c>
       <c r="D148" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E148" t="s">
         <v>6</v>
@@ -6121,151 +6067,151 @@
         <v>240</v>
       </c>
       <c r="I148" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B149" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C149" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D149" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E149" t="s">
-        <v>6</v>
-      </c>
-      <c r="F149" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="F149">
+        <v>28</v>
       </c>
       <c r="G149">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="I149" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B150" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C150" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D150" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E150" t="s">
-        <v>14</v>
-      </c>
-      <c r="F150">
-        <v>45</v>
+        <v>6</v>
+      </c>
+      <c r="F150" t="s">
+        <v>7</v>
       </c>
       <c r="G150">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="I150" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B151" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C151" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D151" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E151" t="s">
-        <v>6</v>
-      </c>
-      <c r="F151" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F151">
+        <v>14</v>
       </c>
       <c r="G151">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="I151" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B152" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C152" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D152" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E152" t="s">
-        <v>6</v>
-      </c>
-      <c r="F152" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F152">
+        <v>14</v>
       </c>
       <c r="G152">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="I152" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B153" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C153" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D153" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E153" t="s">
-        <v>6</v>
-      </c>
-      <c r="F153" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="F153">
+        <v>28</v>
       </c>
       <c r="G153">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="I153" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B154" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C154" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D154" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E154" t="s">
         <v>6</v>
@@ -6274,180 +6220,180 @@
         <v>7</v>
       </c>
       <c r="G154">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="I154" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B155" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C155" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D155" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E155" t="s">
-        <v>6</v>
-      </c>
-      <c r="F155" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F155">
+        <v>14</v>
       </c>
       <c r="G155">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="I155" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B156" t="s">
+        <v>258</v>
+      </c>
+      <c r="C156" t="s">
         <v>259</v>
       </c>
-      <c r="C156" t="s">
-        <v>260</v>
-      </c>
       <c r="D156" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="E156" t="s">
         <v>14</v>
       </c>
       <c r="F156">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="G156">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I156" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B157" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C157" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D157" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="E157" t="s">
-        <v>6</v>
-      </c>
-      <c r="F157" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F157">
+        <v>14</v>
       </c>
       <c r="G157">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="I157" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B158" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C158" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D158" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E158" t="s">
-        <v>6</v>
-      </c>
-      <c r="F158" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F158">
+        <v>14</v>
       </c>
       <c r="G158">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="I158" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B159" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C159" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D159" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E159" t="s">
-        <v>35</v>
-      </c>
-      <c r="F159">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="F159" t="s">
+        <v>7</v>
       </c>
       <c r="G159">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I159" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B160" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C160" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D160" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="E160" t="s">
-        <v>6</v>
-      </c>
-      <c r="F160" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F160">
+        <v>14</v>
       </c>
       <c r="G160">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="I160" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B161" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C161" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D161" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E161" t="s">
         <v>14</v>
@@ -6459,21 +6405,21 @@
         <v>30</v>
       </c>
       <c r="I161" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B162" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C162" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D162" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E162" t="s">
         <v>14</v>
@@ -6485,203 +6431,203 @@
         <v>30</v>
       </c>
       <c r="I162" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B163" t="s">
+        <v>268</v>
+      </c>
+      <c r="C163" t="s">
         <v>269</v>
       </c>
-      <c r="C163" t="s">
-        <v>270</v>
-      </c>
       <c r="D163" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E163" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F163">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G163">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I163" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B164" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C164" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D164" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E164" t="s">
-        <v>6</v>
-      </c>
-      <c r="F164" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F164">
+        <v>30</v>
       </c>
       <c r="G164">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="I164" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B165" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C165" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D165" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E165" t="s">
-        <v>48</v>
-      </c>
-      <c r="F165" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F165">
+        <v>30</v>
       </c>
       <c r="G165">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="I165" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B166" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C166" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D166" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E166" t="s">
         <v>14</v>
       </c>
       <c r="F166">
-        <v>14</v>
+        <v>360</v>
       </c>
       <c r="G166">
-        <v>30</v>
+        <v>390</v>
       </c>
       <c r="I166" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B167" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C167" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D167" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="E167" t="s">
         <v>14</v>
       </c>
       <c r="F167">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G167">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I167" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B168" t="s">
+        <v>275</v>
+      </c>
+      <c r="C168" t="s">
         <v>276</v>
       </c>
-      <c r="C168" t="s">
-        <v>277</v>
-      </c>
       <c r="D168" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E168" t="s">
         <v>14</v>
       </c>
       <c r="F168">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G168">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I168" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B169" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C169" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D169" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E169" t="s">
-        <v>14</v>
-      </c>
-      <c r="F169">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="F169" t="s">
+        <v>7</v>
       </c>
       <c r="G169">
-        <v>30</v>
+        <v>390</v>
       </c>
       <c r="I169" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B170" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C170" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D170" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E170" t="s">
         <v>6</v>
@@ -6690,76 +6636,76 @@
         <v>7</v>
       </c>
       <c r="G170">
-        <v>120</v>
+        <v>390</v>
       </c>
       <c r="I170" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B171" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C171" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D171" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E171" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="F171" t="s">
         <v>7</v>
       </c>
       <c r="G171">
-        <v>14</v>
+        <v>390</v>
       </c>
       <c r="I171" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B172" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C172" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D172" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E172" t="s">
-        <v>14</v>
-      </c>
-      <c r="F172">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="F172" t="s">
+        <v>7</v>
       </c>
       <c r="G172">
-        <v>30</v>
+        <v>390</v>
       </c>
       <c r="I172" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B173" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="C173" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="D173" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E173" t="s">
         <v>14</v>
@@ -6771,21 +6717,21 @@
         <v>30</v>
       </c>
       <c r="I173" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B174" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="C174" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="D174" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="E174" t="s">
         <v>14</v>
@@ -6797,21 +6743,21 @@
         <v>30</v>
       </c>
       <c r="I174" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B175" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="C175" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="D175" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="E175" t="s">
         <v>14</v>
@@ -6823,151 +6769,151 @@
         <v>30</v>
       </c>
       <c r="I175" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B176" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C176" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D176" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E176" t="s">
-        <v>14</v>
-      </c>
-      <c r="F176">
-        <v>30</v>
+        <v>6</v>
+      </c>
+      <c r="F176" t="s">
+        <v>7</v>
       </c>
       <c r="G176">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="I176" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B177" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C177" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D177" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E177" t="s">
-        <v>14</v>
-      </c>
-      <c r="F177">
-        <v>30</v>
+        <v>6</v>
+      </c>
+      <c r="F177" t="s">
+        <v>7</v>
       </c>
       <c r="G177">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="I177" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B178" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C178" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D178" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E178" t="s">
-        <v>14</v>
-      </c>
-      <c r="F178">
-        <v>360</v>
+        <v>6</v>
+      </c>
+      <c r="F178" t="s">
+        <v>7</v>
       </c>
       <c r="G178">
-        <v>390</v>
+        <v>240</v>
       </c>
       <c r="I178" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B179" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="C179" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="D179" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="E179" t="s">
-        <v>14</v>
-      </c>
-      <c r="F179">
-        <v>30</v>
+        <v>6</v>
+      </c>
+      <c r="F179" t="s">
+        <v>7</v>
       </c>
       <c r="G179">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="I179" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B180" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="C180" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="D180" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="E180" t="s">
-        <v>14</v>
-      </c>
-      <c r="F180">
-        <v>30</v>
+        <v>6</v>
+      </c>
+      <c r="F180" t="s">
+        <v>7</v>
       </c>
       <c r="G180">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="I180" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B181" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C181" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D181" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="E181" t="s">
         <v>6</v>
@@ -6976,24 +6922,24 @@
         <v>7</v>
       </c>
       <c r="G181">
-        <v>390</v>
+        <v>240</v>
       </c>
       <c r="I181" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B182" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C182" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="D182" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="E182" t="s">
         <v>6</v>
@@ -7002,232 +6948,232 @@
         <v>7</v>
       </c>
       <c r="G182">
-        <v>390</v>
+        <v>180</v>
       </c>
       <c r="I182" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B183" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C183" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="D183" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E183" t="s">
-        <v>6</v>
-      </c>
-      <c r="F183" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="F183">
+        <v>45</v>
       </c>
       <c r="G183">
-        <v>390</v>
+        <v>60</v>
       </c>
       <c r="I183" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B184" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="C184" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="D184" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="E184" t="s">
-        <v>6</v>
-      </c>
-      <c r="F184" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="F184">
+        <v>45</v>
       </c>
       <c r="G184">
-        <v>390</v>
+        <v>60</v>
       </c>
       <c r="I184" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B185" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C185" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="D185" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E185" t="s">
         <v>14</v>
       </c>
       <c r="F185">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="G185">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I185" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B186" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C186" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D186" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="E186" t="s">
-        <v>14</v>
-      </c>
-      <c r="F186">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="F186" t="s">
+        <v>7</v>
       </c>
       <c r="G186">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="I186" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B187" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C187" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D187" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E187" t="s">
-        <v>14</v>
-      </c>
-      <c r="F187">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="F187" t="s">
+        <v>7</v>
       </c>
       <c r="G187">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="I187" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B188" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="C188" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D188" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E188" t="s">
-        <v>6</v>
-      </c>
-      <c r="F188" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F188">
+        <v>14</v>
       </c>
       <c r="G188">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="I188" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B189" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="C189" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D189" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="E189" t="s">
-        <v>6</v>
-      </c>
-      <c r="F189" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F189">
+        <v>14</v>
       </c>
       <c r="G189">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="I189" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B190" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="C190" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D190" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="E190" t="s">
-        <v>6</v>
-      </c>
-      <c r="F190" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F190">
+        <v>14</v>
       </c>
       <c r="G190">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="I190" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B191" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C191" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D191" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="E191" t="s">
         <v>6</v>
@@ -7236,24 +7182,24 @@
         <v>7</v>
       </c>
       <c r="G191">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="I191" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B192" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C192" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D192" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="E192" t="s">
         <v>6</v>
@@ -7262,232 +7208,232 @@
         <v>7</v>
       </c>
       <c r="G192">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="I192" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B193" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C193" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D193" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="E193" t="s">
-        <v>6</v>
-      </c>
-      <c r="F193" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F193">
+        <v>14</v>
       </c>
       <c r="G193">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="I193" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B194" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C194" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D194" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E194" t="s">
-        <v>6</v>
-      </c>
-      <c r="F194" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F194">
+        <v>14</v>
       </c>
       <c r="G194">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="I194" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B195" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C195" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D195" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E195" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F195">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="G195">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I195" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B196" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C196" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D196" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E196" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F196">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="G196">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I196" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B197" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C197" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D197" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="E197" t="s">
-        <v>6</v>
-      </c>
-      <c r="F197" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F197">
+        <v>14</v>
       </c>
       <c r="G197">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="I197" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B198" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C198" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="D198" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="E198" t="s">
         <v>14</v>
       </c>
       <c r="F198">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="G198">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I198" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B199" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="C199" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="D199" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E199" t="s">
-        <v>6</v>
-      </c>
-      <c r="F199" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F199">
+        <v>14</v>
       </c>
       <c r="G199">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="I199" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B200" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="C200" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="D200" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E200" t="s">
-        <v>6</v>
-      </c>
-      <c r="F200" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F200">
+        <v>14</v>
       </c>
       <c r="G200">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="I200" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B201" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C201" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D201" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="E201" t="s">
         <v>14</v>
@@ -7499,47 +7445,47 @@
         <v>30</v>
       </c>
       <c r="I201" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B202" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C202" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D202" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="E202" t="s">
-        <v>14</v>
-      </c>
-      <c r="F202">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="F202" t="s">
+        <v>7</v>
       </c>
       <c r="G202">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="I202" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B203" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C203" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D203" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="E203" t="s">
         <v>14</v>
@@ -7551,73 +7497,73 @@
         <v>30</v>
       </c>
       <c r="I203" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B204" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C204" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D204" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="E204" t="s">
-        <v>6</v>
-      </c>
-      <c r="F204" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F204">
+        <v>14</v>
       </c>
       <c r="G204">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="I204" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B205" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C205" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D205" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="E205" t="s">
-        <v>6</v>
-      </c>
-      <c r="F205" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F205">
+        <v>14</v>
       </c>
       <c r="G205">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="I205" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="C206" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="D206" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="E206" t="s">
         <v>14</v>
@@ -7629,47 +7575,47 @@
         <v>30</v>
       </c>
       <c r="I206" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B207" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="C207" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="D207" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="E207" t="s">
-        <v>14</v>
-      </c>
-      <c r="F207">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="F207" t="s">
+        <v>7</v>
       </c>
       <c r="G207">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="I207" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B208" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="C208" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="D208" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="E208" t="s">
         <v>14</v>
@@ -7681,21 +7627,21 @@
         <v>30</v>
       </c>
       <c r="I208" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B209" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="C209" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="D209" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="E209" t="s">
         <v>14</v>
@@ -7707,21 +7653,21 @@
         <v>30</v>
       </c>
       <c r="I209" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C210" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D210" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="E210" t="s">
         <v>14</v>
@@ -7733,73 +7679,73 @@
         <v>30</v>
       </c>
       <c r="I210" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C211" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="D211" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="E211" t="s">
-        <v>14</v>
-      </c>
-      <c r="F211">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="F211" t="s">
+        <v>7</v>
       </c>
       <c r="G211">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="I211" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B212" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C212" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D212" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="E212" t="s">
-        <v>14</v>
-      </c>
-      <c r="F212">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="F212" t="s">
+        <v>7</v>
       </c>
       <c r="G212">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="I212" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B213" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C213" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D213" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="E213" t="s">
         <v>14</v>
@@ -7811,21 +7757,21 @@
         <v>30</v>
       </c>
       <c r="I213" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B214" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C214" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D214" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="E214" t="s">
         <v>14</v>
@@ -7837,21 +7783,21 @@
         <v>30</v>
       </c>
       <c r="I214" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B215" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="C215" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="D215" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="E215" t="s">
         <v>6</v>
@@ -7863,21 +7809,21 @@
         <v>120</v>
       </c>
       <c r="I215" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B216" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="C216" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="D216" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="E216" t="s">
         <v>14</v>
@@ -7889,21 +7835,21 @@
         <v>30</v>
       </c>
       <c r="I216" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B217" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="C217" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="D217" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="E217" t="s">
         <v>14</v>
@@ -7915,310 +7861,310 @@
         <v>30</v>
       </c>
       <c r="I217" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B218" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="C218" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="D218" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="E218" t="s">
-        <v>14</v>
-      </c>
-      <c r="F218">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="F218" t="s">
+        <v>7</v>
       </c>
       <c r="G218">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="I218" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B219" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="C219" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="D219" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="E219" t="s">
         <v>14</v>
       </c>
-      <c r="F219">
-        <v>14</v>
+      <c r="F219" t="s">
+        <v>7</v>
       </c>
       <c r="G219">
         <v>30</v>
       </c>
       <c r="I219" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B220" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C220" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D220" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="E220" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F220" t="s">
         <v>7</v>
       </c>
       <c r="G220">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="I220" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B221" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C221" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D221" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="E221" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="F221" t="s">
         <v>7</v>
       </c>
       <c r="G221">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="I221" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B222" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="C222" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="D222" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="E222" t="s">
         <v>14</v>
       </c>
       <c r="F222">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="G222">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I222" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B223" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="C223" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="D223" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="E223" t="s">
         <v>14</v>
       </c>
       <c r="F223">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="G223">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I223" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B224" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="C224" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="D224" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="E224" t="s">
         <v>14</v>
       </c>
       <c r="F224">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="G224">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I224" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B225" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C225" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D225" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="E225" t="s">
-        <v>6</v>
-      </c>
-      <c r="F225" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F225">
+        <v>45</v>
       </c>
       <c r="G225">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="I225" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B226" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C226" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D226" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="E226" t="s">
-        <v>6</v>
-      </c>
-      <c r="F226" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F226">
+        <v>45</v>
       </c>
       <c r="G226">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="I226" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B227" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C227" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D227" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E227" t="s">
         <v>14</v>
       </c>
       <c r="F227">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="G227">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I227" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B228" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C228" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D228" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="E228" t="s">
-        <v>14</v>
-      </c>
-      <c r="F228">
-        <v>14</v>
+        <v>445</v>
+      </c>
+      <c r="F228" t="s">
+        <v>7</v>
       </c>
       <c r="G228">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="I228" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B229" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C229" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D229" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E229" t="s">
-        <v>6</v>
+        <v>445</v>
       </c>
       <c r="F229" t="s">
         <v>7</v>
@@ -8227,99 +8173,99 @@
         <v>120</v>
       </c>
       <c r="I229" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B230" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C230" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D230" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E230" t="s">
-        <v>48</v>
+        <v>445</v>
       </c>
       <c r="F230" t="s">
         <v>7</v>
       </c>
       <c r="G230">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="I230" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B231" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C231" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D231" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E231" t="s">
-        <v>48</v>
+        <v>445</v>
       </c>
       <c r="F231" t="s">
         <v>7</v>
       </c>
       <c r="G231">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="I231" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B232" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C232" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="D232" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="E232" t="s">
-        <v>14</v>
-      </c>
-      <c r="F232">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="F232" t="s">
+        <v>7</v>
       </c>
       <c r="G232">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="I232" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B233" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C233" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="D233" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="E233" t="s">
         <v>14</v>
@@ -8331,411 +8277,411 @@
         <v>30</v>
       </c>
       <c r="I233" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B234" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C234" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="D234" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="E234" t="s">
-        <v>6</v>
-      </c>
-      <c r="F234" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F234">
+        <v>14</v>
       </c>
       <c r="G234">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="I234" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B235" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C235" t="s">
-        <v>380</v>
+        <v>446</v>
       </c>
       <c r="D235" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E235" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F235" t="s">
         <v>7</v>
       </c>
       <c r="G235">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="I235" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B236" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="C236" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="D236" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="E236" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F236" t="s">
         <v>7</v>
       </c>
       <c r="G236">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="I236" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B237" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="C237" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="D237" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="E237" t="s">
         <v>14</v>
       </c>
-      <c r="F237" t="s">
-        <v>7</v>
+      <c r="F237">
+        <v>14</v>
       </c>
       <c r="G237">
         <v>30</v>
       </c>
       <c r="I237" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B238" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C238" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D238" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="E238" t="s">
-        <v>14</v>
-      </c>
-      <c r="F238">
-        <v>45</v>
+        <v>6</v>
+      </c>
+      <c r="F238" t="s">
+        <v>7</v>
       </c>
       <c r="G238">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="I238" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B239" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C239" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D239" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="E239" t="s">
-        <v>14</v>
-      </c>
-      <c r="F239">
-        <v>45</v>
+        <v>6</v>
+      </c>
+      <c r="F239" t="s">
+        <v>7</v>
       </c>
       <c r="G239">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="I239" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B240" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C240" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D240" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="E240" t="s">
-        <v>14</v>
-      </c>
-      <c r="F240">
-        <v>45</v>
+        <v>6</v>
+      </c>
+      <c r="F240" t="s">
+        <v>7</v>
       </c>
       <c r="G240">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="I240" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B241" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C241" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D241" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="E241" t="s">
-        <v>14</v>
-      </c>
-      <c r="F241">
-        <v>45</v>
+        <v>6</v>
+      </c>
+      <c r="F241" t="s">
+        <v>7</v>
       </c>
       <c r="G241">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="I241" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B242" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C242" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D242" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="E242" t="s">
-        <v>14</v>
-      </c>
-      <c r="F242">
-        <v>45</v>
+        <v>6</v>
+      </c>
+      <c r="F242" t="s">
+        <v>7</v>
       </c>
       <c r="G242">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="I242" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B243" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="C243" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="D243" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="E243" t="s">
-        <v>14</v>
-      </c>
-      <c r="F243">
-        <v>45</v>
+        <v>6</v>
+      </c>
+      <c r="F243" t="s">
+        <v>7</v>
       </c>
       <c r="G243">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="I243" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B244" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="C244" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="D244" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="E244" t="s">
-        <v>464</v>
+        <v>6</v>
       </c>
       <c r="F244" t="s">
         <v>7</v>
       </c>
       <c r="G244">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="I244" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B245" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="C245" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="D245" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="E245" t="s">
-        <v>464</v>
-      </c>
-      <c r="F245" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F245">
+        <v>14</v>
       </c>
       <c r="G245">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="I245" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B246" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="C246" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="D246" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="E246" t="s">
-        <v>464</v>
+        <v>6</v>
       </c>
       <c r="F246" t="s">
         <v>7</v>
       </c>
       <c r="G246">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="I246" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B247" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="C247" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="D247" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="E247" t="s">
-        <v>464</v>
+        <v>6</v>
       </c>
       <c r="F247" t="s">
         <v>7</v>
       </c>
       <c r="G247">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="I247" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B248" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C248" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D248" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="E248" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="F248" t="s">
         <v>7</v>
       </c>
       <c r="G248">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="I248" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B249" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="C249" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="D249" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E249" t="s">
         <v>6</v>
@@ -8744,232 +8690,232 @@
         <v>7</v>
       </c>
       <c r="G249">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="I249" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B250" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="C250" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="D250" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="E250" t="s">
-        <v>14</v>
-      </c>
-      <c r="F250">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="F250" t="s">
+        <v>7</v>
       </c>
       <c r="G250">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="I250" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B251" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="C251" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="D251" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="E251" t="s">
-        <v>14</v>
-      </c>
-      <c r="F251">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="F251" t="s">
+        <v>7</v>
       </c>
       <c r="G251">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="I251" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>220</v>
+        <v>411</v>
       </c>
       <c r="B252" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="C252" t="s">
-        <v>465</v>
+        <v>413</v>
       </c>
       <c r="D252" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="E252" t="s">
-        <v>6</v>
-      </c>
-      <c r="F252" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F252">
+        <v>14</v>
       </c>
       <c r="G252">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="I252" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>220</v>
+        <v>411</v>
       </c>
       <c r="B253" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="C253" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="D253" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="E253" t="s">
-        <v>6</v>
-      </c>
-      <c r="F253" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F253">
+        <v>14</v>
       </c>
       <c r="G253">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="I253" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>220</v>
+        <v>411</v>
       </c>
       <c r="B254" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="C254" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="D254" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="E254" t="s">
-        <v>14</v>
-      </c>
-      <c r="F254">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="F254" t="s">
+        <v>7</v>
       </c>
       <c r="G254">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="I254" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>220</v>
+        <v>411</v>
       </c>
       <c r="B255" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="C255" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="D255" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="E255" t="s">
-        <v>6</v>
-      </c>
-      <c r="F255" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F255">
+        <v>14</v>
       </c>
       <c r="G255">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="I255" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>220</v>
+        <v>411</v>
       </c>
       <c r="B256" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="C256" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="D256" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="E256" t="s">
-        <v>6</v>
-      </c>
-      <c r="F256" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F256">
+        <v>14</v>
       </c>
       <c r="G256">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="I256" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>220</v>
+        <v>411</v>
       </c>
       <c r="B257" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="C257" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="D257" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="E257" t="s">
-        <v>6</v>
-      </c>
-      <c r="F257" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F257">
+        <v>14</v>
       </c>
       <c r="G257">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="I257" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>220</v>
+        <v>411</v>
       </c>
       <c r="B258" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="C258" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="D258" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="E258" t="s">
         <v>6</v>
@@ -8978,50 +8924,50 @@
         <v>7</v>
       </c>
       <c r="G258">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="I258" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>220</v>
+        <v>411</v>
       </c>
       <c r="B259" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="C259" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="D259" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="E259" t="s">
-        <v>6</v>
-      </c>
-      <c r="F259" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F259">
+        <v>14</v>
       </c>
       <c r="G259">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="I259" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>220</v>
+        <v>411</v>
       </c>
       <c r="B260" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="C260" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="D260" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="E260" t="s">
         <v>6</v>
@@ -9030,452 +8976,10 @@
         <v>7</v>
       </c>
       <c r="G260">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="I260" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
-        <v>220</v>
-      </c>
-      <c r="B261" t="s">
-        <v>414</v>
-      </c>
-      <c r="C261" t="s">
-        <v>415</v>
-      </c>
-      <c r="D261" t="s">
-        <v>417</v>
-      </c>
-      <c r="E261" t="s">
-        <v>6</v>
-      </c>
-      <c r="F261" t="s">
-        <v>7</v>
-      </c>
-      <c r="G261">
-        <v>240</v>
-      </c>
-      <c r="I261" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
-        <v>220</v>
-      </c>
-      <c r="B262" t="s">
-        <v>418</v>
-      </c>
-      <c r="C262" t="s">
-        <v>419</v>
-      </c>
-      <c r="D262" t="s">
-        <v>420</v>
-      </c>
-      <c r="E262" t="s">
-        <v>14</v>
-      </c>
-      <c r="F262">
-        <v>14</v>
-      </c>
-      <c r="G262">
-        <v>30</v>
-      </c>
-      <c r="I262" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
-        <v>220</v>
-      </c>
-      <c r="B263" t="s">
-        <v>418</v>
-      </c>
-      <c r="C263" t="s">
-        <v>419</v>
-      </c>
-      <c r="D263" t="s">
-        <v>421</v>
-      </c>
-      <c r="E263" t="s">
-        <v>6</v>
-      </c>
-      <c r="F263" t="s">
-        <v>7</v>
-      </c>
-      <c r="G263">
-        <v>240</v>
-      </c>
-      <c r="I263" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
-        <v>220</v>
-      </c>
-      <c r="B264" t="s">
-        <v>418</v>
-      </c>
-      <c r="C264" t="s">
-        <v>419</v>
-      </c>
-      <c r="D264" t="s">
-        <v>422</v>
-      </c>
-      <c r="E264" t="s">
-        <v>6</v>
-      </c>
-      <c r="F264" t="s">
-        <v>7</v>
-      </c>
-      <c r="G264">
-        <v>240</v>
-      </c>
-      <c r="I264" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
-        <v>220</v>
-      </c>
-      <c r="B265" t="s">
-        <v>418</v>
-      </c>
-      <c r="C265" t="s">
-        <v>419</v>
-      </c>
-      <c r="D265" t="s">
-        <v>423</v>
-      </c>
-      <c r="E265" t="s">
-        <v>6</v>
-      </c>
-      <c r="F265" t="s">
-        <v>7</v>
-      </c>
-      <c r="G265">
-        <v>240</v>
-      </c>
-      <c r="I265" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
-        <v>220</v>
-      </c>
-      <c r="B266" t="s">
-        <v>424</v>
-      </c>
-      <c r="C266" t="s">
-        <v>425</v>
-      </c>
-      <c r="D266" t="s">
-        <v>426</v>
-      </c>
-      <c r="E266" t="s">
-        <v>6</v>
-      </c>
-      <c r="F266" t="s">
-        <v>7</v>
-      </c>
-      <c r="G266">
-        <v>240</v>
-      </c>
-      <c r="I266" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
-        <v>220</v>
-      </c>
-      <c r="B267" t="s">
-        <v>424</v>
-      </c>
-      <c r="C267" t="s">
-        <v>425</v>
-      </c>
-      <c r="D267" t="s">
-        <v>427</v>
-      </c>
-      <c r="E267" t="s">
-        <v>6</v>
-      </c>
-      <c r="F267" t="s">
-        <v>7</v>
-      </c>
-      <c r="G267">
-        <v>240</v>
-      </c>
-      <c r="I267" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
-        <v>220</v>
-      </c>
-      <c r="B268" t="s">
-        <v>424</v>
-      </c>
-      <c r="C268" t="s">
-        <v>425</v>
-      </c>
-      <c r="D268" t="s">
-        <v>428</v>
-      </c>
-      <c r="E268" t="s">
-        <v>6</v>
-      </c>
-      <c r="F268" t="s">
-        <v>7</v>
-      </c>
-      <c r="G268">
-        <v>240</v>
-      </c>
-      <c r="I268" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
-        <v>429</v>
-      </c>
-      <c r="B269" t="s">
-        <v>430</v>
-      </c>
-      <c r="C269" t="s">
-        <v>431</v>
-      </c>
-      <c r="D269" t="s">
-        <v>432</v>
-      </c>
-      <c r="E269" t="s">
-        <v>14</v>
-      </c>
-      <c r="F269">
-        <v>14</v>
-      </c>
-      <c r="G269">
-        <v>30</v>
-      </c>
-      <c r="I269" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
-        <v>429</v>
-      </c>
-      <c r="B270" t="s">
-        <v>430</v>
-      </c>
-      <c r="C270" t="s">
-        <v>431</v>
-      </c>
-      <c r="D270" t="s">
-        <v>433</v>
-      </c>
-      <c r="E270" t="s">
-        <v>14</v>
-      </c>
-      <c r="F270">
-        <v>14</v>
-      </c>
-      <c r="G270">
-        <v>30</v>
-      </c>
-      <c r="I270" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
-        <v>429</v>
-      </c>
-      <c r="B271" t="s">
-        <v>430</v>
-      </c>
-      <c r="C271" t="s">
-        <v>431</v>
-      </c>
-      <c r="D271" t="s">
-        <v>434</v>
-      </c>
-      <c r="E271" t="s">
-        <v>6</v>
-      </c>
-      <c r="F271" t="s">
-        <v>7</v>
-      </c>
-      <c r="G271">
-        <v>120</v>
-      </c>
-      <c r="I271" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
-        <v>429</v>
-      </c>
-      <c r="B272" t="s">
-        <v>435</v>
-      </c>
-      <c r="C272" t="s">
-        <v>436</v>
-      </c>
-      <c r="D272" t="s">
         <v>437</v>
-      </c>
-      <c r="E272" t="s">
-        <v>14</v>
-      </c>
-      <c r="F272">
-        <v>14</v>
-      </c>
-      <c r="G272">
-        <v>30</v>
-      </c>
-      <c r="I272" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
-        <v>429</v>
-      </c>
-      <c r="B273" t="s">
-        <v>435</v>
-      </c>
-      <c r="C273" t="s">
-        <v>436</v>
-      </c>
-      <c r="D273" t="s">
-        <v>438</v>
-      </c>
-      <c r="E273" t="s">
-        <v>14</v>
-      </c>
-      <c r="F273">
-        <v>14</v>
-      </c>
-      <c r="G273">
-        <v>30</v>
-      </c>
-      <c r="I273" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
-        <v>429</v>
-      </c>
-      <c r="B274" t="s">
-        <v>435</v>
-      </c>
-      <c r="C274" t="s">
-        <v>436</v>
-      </c>
-      <c r="D274" t="s">
-        <v>439</v>
-      </c>
-      <c r="E274" t="s">
-        <v>14</v>
-      </c>
-      <c r="F274">
-        <v>14</v>
-      </c>
-      <c r="G274">
-        <v>30</v>
-      </c>
-      <c r="I274" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
-        <v>429</v>
-      </c>
-      <c r="B275" t="s">
-        <v>435</v>
-      </c>
-      <c r="C275" t="s">
-        <v>436</v>
-      </c>
-      <c r="D275" t="s">
-        <v>440</v>
-      </c>
-      <c r="E275" t="s">
-        <v>6</v>
-      </c>
-      <c r="F275" t="s">
-        <v>7</v>
-      </c>
-      <c r="G275">
-        <v>90</v>
-      </c>
-      <c r="I275" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
-        <v>429</v>
-      </c>
-      <c r="B276" t="s">
-        <v>441</v>
-      </c>
-      <c r="C276" t="s">
-        <v>442</v>
-      </c>
-      <c r="D276" t="s">
-        <v>443</v>
-      </c>
-      <c r="E276" t="s">
-        <v>14</v>
-      </c>
-      <c r="F276">
-        <v>14</v>
-      </c>
-      <c r="G276">
-        <v>30</v>
-      </c>
-      <c r="I276" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A277" t="s">
-        <v>429</v>
-      </c>
-      <c r="B277" t="s">
-        <v>441</v>
-      </c>
-      <c r="C277" t="s">
-        <v>442</v>
-      </c>
-      <c r="D277" t="s">
-        <v>444</v>
-      </c>
-      <c r="E277" t="s">
-        <v>6</v>
-      </c>
-      <c r="F277" t="s">
-        <v>7</v>
-      </c>
-      <c r="G277">
-        <v>90</v>
-      </c>
-      <c r="I277" t="s">
-        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -9484,11 +8988,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9499,47 +9003,47 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="B2" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="B3" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="B4" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="B5" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="B6" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>

--- a/Latency.xlsx
+++ b/Latency.xlsx
@@ -5,23 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clunch/sandbox/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kthibault/Documents/GitHub/sandbox/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9B820A45-E6A1-2E43-8A36-AC5B68CF8E9A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AA4CB8F3-4FC0-F64B-8658-DE06F1A7BC25}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33340" yWindow="6860" windowWidth="33280" windowHeight="20580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="460" windowWidth="35600" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wait Times" sheetId="1" r:id="rId1"/>
     <sheet name="Legend" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Wait Times'!$A$1:$I$260</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="463">
   <si>
     <t>Team</t>
   </si>
@@ -1365,13 +1368,58 @@
   </si>
   <si>
     <t>Field data only; latency allows time for field ecologists to collect all data in a bout and QA data</t>
+  </si>
+  <si>
+    <t>Legacy ingest status (%)</t>
+  </si>
+  <si>
+    <t>Legacy delay driver</t>
+  </si>
+  <si>
+    <t>contracting</t>
+  </si>
+  <si>
+    <t>external lab processing</t>
+  </si>
+  <si>
+    <t>Vendor identified; contracting process prolonged</t>
+  </si>
+  <si>
+    <t>science resources</t>
+  </si>
+  <si>
+    <t>Waiting on HQ Scientist availability to ingest final error corrected records</t>
+  </si>
+  <si>
+    <t>U WY lab not returning data on time; samples backlogged</t>
+  </si>
+  <si>
+    <t>Expected Legacy Ingest Completion</t>
+  </si>
+  <si>
+    <t>field science resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waiting for field staff to conduct protocol again  to resolve errors </t>
+  </si>
+  <si>
+    <t>Legacy Data notes</t>
+  </si>
+  <si>
+    <t>Waiting on HQ Scientist availability to correct sampleID errors that allow for data ingest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waiting for field staff to conduct protocol again to efficiently resolve errors </t>
+  </si>
+  <si>
+    <t>Waiting on HQ Scientist availability to conduct QA and upload 2017 data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1502,6 +1550,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1848,8 +1903,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2205,24 +2265,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I260"/>
+  <dimension ref="A1:M260"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="G44" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" customWidth="1"/>
+    <col min="4" max="4" width="33.5" customWidth="1"/>
     <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" customWidth="1"/>
     <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2247,8 +2310,20 @@
       <c r="I1" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2273,8 +2348,17 @@
       <c r="I2" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>100</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2299,8 +2383,17 @@
       <c r="I3" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2325,8 +2418,17 @@
       <c r="I4" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>100</v>
+      </c>
+      <c r="K4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2351,8 +2453,17 @@
       <c r="I5" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>100</v>
+      </c>
+      <c r="K5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2377,8 +2488,17 @@
       <c r="I6" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -2403,8 +2523,17 @@
       <c r="I7" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -2429,8 +2558,17 @@
       <c r="I8" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2455,8 +2593,17 @@
       <c r="I9" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>90</v>
+      </c>
+      <c r="K9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2481,8 +2628,17 @@
       <c r="I10" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -2507,8 +2663,17 @@
       <c r="I11" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>100</v>
+      </c>
+      <c r="K11" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2533,8 +2698,20 @@
       <c r="I12" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>12</v>
+      </c>
+      <c r="K12" t="s">
+        <v>450</v>
+      </c>
+      <c r="L12" s="2">
+        <v>43374</v>
+      </c>
+      <c r="M12" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2559,8 +2736,20 @@
       <c r="I13" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <v>12</v>
+      </c>
+      <c r="K13" t="s">
+        <v>450</v>
+      </c>
+      <c r="L13" s="2">
+        <v>43374</v>
+      </c>
+      <c r="M13" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -2585,8 +2774,20 @@
       <c r="I14" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>12</v>
+      </c>
+      <c r="K14" t="s">
+        <v>450</v>
+      </c>
+      <c r="L14" s="2">
+        <v>43374</v>
+      </c>
+      <c r="M14" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2611,8 +2812,20 @@
       <c r="I15" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <v>12</v>
+      </c>
+      <c r="K15" t="s">
+        <v>450</v>
+      </c>
+      <c r="L15" s="2">
+        <v>43374</v>
+      </c>
+      <c r="M15" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2637,8 +2850,17 @@
       <c r="I16" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <v>100</v>
+      </c>
+      <c r="K16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2663,8 +2885,20 @@
       <c r="I17" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <v>80</v>
+      </c>
+      <c r="K17" t="s">
+        <v>450</v>
+      </c>
+      <c r="L17" s="2">
+        <v>43374</v>
+      </c>
+      <c r="M17" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2689,8 +2923,20 @@
       <c r="I18" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <v>80</v>
+      </c>
+      <c r="K18" t="s">
+        <v>450</v>
+      </c>
+      <c r="L18" s="2">
+        <v>43374</v>
+      </c>
+      <c r="M18" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -2715,8 +2961,17 @@
       <c r="I19" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <v>100</v>
+      </c>
+      <c r="K19" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -2741,8 +2996,17 @@
       <c r="I20" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <v>100</v>
+      </c>
+      <c r="K20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -2767,8 +3031,17 @@
       <c r="I21" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <v>100</v>
+      </c>
+      <c r="K21" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -2793,8 +3066,20 @@
       <c r="I22" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <v>95</v>
+      </c>
+      <c r="K22" t="s">
+        <v>453</v>
+      </c>
+      <c r="L22" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M22" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -2819,8 +3104,20 @@
       <c r="I23" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <v>95</v>
+      </c>
+      <c r="K23" t="s">
+        <v>453</v>
+      </c>
+      <c r="L23" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M23" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -2845,8 +3142,20 @@
       <c r="I24" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24">
+        <v>60</v>
+      </c>
+      <c r="K24" t="s">
+        <v>451</v>
+      </c>
+      <c r="L24" s="2">
+        <v>43344</v>
+      </c>
+      <c r="M24" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -2871,8 +3180,17 @@
       <c r="I25" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25">
+        <v>100</v>
+      </c>
+      <c r="K25" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -2897,8 +3215,20 @@
       <c r="I26" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26">
+        <v>30</v>
+      </c>
+      <c r="K26" t="s">
+        <v>451</v>
+      </c>
+      <c r="L26" s="2">
+        <v>43344</v>
+      </c>
+      <c r="M26" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -2923,8 +3253,17 @@
       <c r="I27" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27">
+        <v>100</v>
+      </c>
+      <c r="K27" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -2949,8 +3288,17 @@
       <c r="I28" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28">
+        <v>100</v>
+      </c>
+      <c r="K28" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -2975,8 +3323,17 @@
       <c r="I29" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <v>100</v>
+      </c>
+      <c r="K29" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -3001,8 +3358,17 @@
       <c r="I30" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <v>100</v>
+      </c>
+      <c r="K30" t="s">
+        <v>7</v>
+      </c>
+      <c r="L30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -3027,8 +3393,20 @@
       <c r="I31" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31">
+        <v>7</v>
+      </c>
+      <c r="K31" t="s">
+        <v>450</v>
+      </c>
+      <c r="L31" s="2">
+        <v>43374</v>
+      </c>
+      <c r="M31" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -3053,8 +3431,20 @@
       <c r="I32" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32">
+        <v>7</v>
+      </c>
+      <c r="K32" t="s">
+        <v>450</v>
+      </c>
+      <c r="L32" s="2">
+        <v>43374</v>
+      </c>
+      <c r="M32" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -3079,8 +3469,20 @@
       <c r="I33" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33">
+        <v>7</v>
+      </c>
+      <c r="K33" t="s">
+        <v>450</v>
+      </c>
+      <c r="L33" s="2">
+        <v>43374</v>
+      </c>
+      <c r="M33" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -3105,8 +3507,20 @@
       <c r="I34" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34">
+        <v>7</v>
+      </c>
+      <c r="K34" t="s">
+        <v>450</v>
+      </c>
+      <c r="L34" s="2">
+        <v>43374</v>
+      </c>
+      <c r="M34" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -3131,8 +3545,20 @@
       <c r="I35" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35">
+        <v>6</v>
+      </c>
+      <c r="K35" t="s">
+        <v>450</v>
+      </c>
+      <c r="L35" s="2">
+        <v>43435</v>
+      </c>
+      <c r="M35" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -3157,8 +3583,20 @@
       <c r="I36" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36">
+        <v>6</v>
+      </c>
+      <c r="K36" t="s">
+        <v>450</v>
+      </c>
+      <c r="L36" s="2">
+        <v>43435</v>
+      </c>
+      <c r="M36" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -3183,8 +3621,20 @@
       <c r="I37" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37">
+        <v>70</v>
+      </c>
+      <c r="K37" t="s">
+        <v>453</v>
+      </c>
+      <c r="L37" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -3209,8 +3659,20 @@
       <c r="I38" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38">
+        <v>7</v>
+      </c>
+      <c r="K38" t="s">
+        <v>450</v>
+      </c>
+      <c r="L38" s="2">
+        <v>43435</v>
+      </c>
+      <c r="M38" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -3235,8 +3697,20 @@
       <c r="I39" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39">
+        <v>70</v>
+      </c>
+      <c r="K39" t="s">
+        <v>453</v>
+      </c>
+      <c r="L39" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -3261,8 +3735,20 @@
       <c r="I40" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J40">
+        <v>70</v>
+      </c>
+      <c r="K40" t="s">
+        <v>453</v>
+      </c>
+      <c r="L40" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -3287,8 +3773,14 @@
       <c r="I41" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J41">
+        <v>100</v>
+      </c>
+      <c r="K41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -3313,8 +3805,14 @@
       <c r="I42" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J42">
+        <v>100</v>
+      </c>
+      <c r="K42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -3339,8 +3837,20 @@
       <c r="I43" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43">
+        <v>90</v>
+      </c>
+      <c r="K43" t="s">
+        <v>457</v>
+      </c>
+      <c r="L43" s="2">
+        <v>43435</v>
+      </c>
+      <c r="M43" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -3365,8 +3875,14 @@
       <c r="I44" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J44">
+        <v>100</v>
+      </c>
+      <c r="K44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -3391,8 +3907,14 @@
       <c r="I45" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J45">
+        <v>100</v>
+      </c>
+      <c r="K45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -3417,8 +3939,14 @@
       <c r="I46" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46">
+        <v>100</v>
+      </c>
+      <c r="K46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -3443,8 +3971,14 @@
       <c r="I47" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J47">
+        <v>100</v>
+      </c>
+      <c r="K47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -3469,8 +4003,14 @@
       <c r="I48" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J48">
+        <v>100</v>
+      </c>
+      <c r="K48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -3495,8 +4035,14 @@
       <c r="I49" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J49">
+        <v>100</v>
+      </c>
+      <c r="K49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -3521,8 +4067,14 @@
       <c r="I50" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J50">
+        <v>100</v>
+      </c>
+      <c r="K50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -3547,8 +4099,20 @@
       <c r="I51" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J51">
+        <v>75</v>
+      </c>
+      <c r="K51" t="s">
+        <v>451</v>
+      </c>
+      <c r="L51" s="2">
+        <v>43344</v>
+      </c>
+      <c r="M51" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -3573,8 +4137,14 @@
       <c r="I52" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J52">
+        <v>100</v>
+      </c>
+      <c r="K52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -3599,8 +4169,14 @@
       <c r="I53" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J53">
+        <v>100</v>
+      </c>
+      <c r="K53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>2</v>
       </c>
@@ -3625,8 +4201,14 @@
       <c r="I54" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J54">
+        <v>100</v>
+      </c>
+      <c r="K54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -3651,8 +4233,14 @@
       <c r="I55" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J55">
+        <v>100</v>
+      </c>
+      <c r="K55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -3677,8 +4265,14 @@
       <c r="I56" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J56">
+        <v>100</v>
+      </c>
+      <c r="K56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -3703,8 +4297,14 @@
       <c r="I57" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J57">
+        <v>100</v>
+      </c>
+      <c r="K57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -3729,8 +4329,14 @@
       <c r="I58" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J58">
+        <v>100</v>
+      </c>
+      <c r="K58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>2</v>
       </c>
@@ -3755,8 +4361,20 @@
       <c r="I59" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J59">
+        <v>60</v>
+      </c>
+      <c r="K59" t="s">
+        <v>453</v>
+      </c>
+      <c r="L59" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M59" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -3781,8 +4399,20 @@
       <c r="I60" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J60">
+        <v>50</v>
+      </c>
+      <c r="K60" t="s">
+        <v>451</v>
+      </c>
+      <c r="L60" s="2">
+        <v>43344</v>
+      </c>
+      <c r="M60" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -3808,7 +4438,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -3834,7 +4464,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -3860,7 +4490,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -3886,7 +4516,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -3912,7 +4542,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -3938,7 +4568,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -3964,7 +4594,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -3990,7 +4620,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -4015,8 +4645,14 @@
       <c r="I69" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J69">
+        <v>100</v>
+      </c>
+      <c r="K69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -4041,8 +4677,14 @@
       <c r="I70" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J70">
+        <v>100</v>
+      </c>
+      <c r="K70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -4067,8 +4709,14 @@
       <c r="I71" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J71">
+        <v>100</v>
+      </c>
+      <c r="K71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -4094,7 +4742,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>2</v>
       </c>
@@ -4120,7 +4768,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -4146,7 +4794,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>2</v>
       </c>
@@ -4172,7 +4820,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -4198,7 +4846,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>2</v>
       </c>
@@ -4224,7 +4872,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>2</v>
       </c>
@@ -4250,7 +4898,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -4276,7 +4924,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -5134,7 +5782,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>2</v>
       </c>
@@ -5160,7 +5808,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>2</v>
       </c>
@@ -5186,7 +5834,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>2</v>
       </c>
@@ -5212,7 +5860,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>2</v>
       </c>
@@ -5238,7 +5886,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>2</v>
       </c>
@@ -5263,8 +5911,20 @@
       <c r="I117" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J117">
+        <v>90</v>
+      </c>
+      <c r="K117" t="s">
+        <v>457</v>
+      </c>
+      <c r="L117" s="2">
+        <v>43435</v>
+      </c>
+      <c r="M117" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>2</v>
       </c>
@@ -5289,8 +5949,20 @@
       <c r="I118" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J118">
+        <v>90</v>
+      </c>
+      <c r="K118" t="s">
+        <v>457</v>
+      </c>
+      <c r="L118" s="2">
+        <v>43435</v>
+      </c>
+      <c r="M118" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>2</v>
       </c>
@@ -5315,8 +5987,20 @@
       <c r="I119" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J119">
+        <v>90</v>
+      </c>
+      <c r="K119" t="s">
+        <v>457</v>
+      </c>
+      <c r="L119" s="2">
+        <v>43435</v>
+      </c>
+      <c r="M119" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>2</v>
       </c>
@@ -5341,8 +6025,20 @@
       <c r="I120" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J120">
+        <v>90</v>
+      </c>
+      <c r="K120" t="s">
+        <v>457</v>
+      </c>
+      <c r="L120" s="2">
+        <v>43435</v>
+      </c>
+      <c r="M120" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>209</v>
       </c>
@@ -5368,7 +6064,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>209</v>
       </c>
@@ -5394,7 +6090,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>209</v>
       </c>
@@ -5420,7 +6116,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>209</v>
       </c>
@@ -5446,7 +6142,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>209</v>
       </c>
@@ -5472,7 +6168,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>209</v>
       </c>
@@ -5498,7 +6194,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>209</v>
       </c>
@@ -5524,7 +6220,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>209</v>
       </c>
@@ -8983,6 +9679,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I260" xr:uid="{F920CE2C-728A-1C45-9F6A-0B2E6D995C2C}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -8992,7 +9689,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Latency.xlsx
+++ b/Latency.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kthibault/Documents/GitHub/sandbox/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AA4CB8F3-4FC0-F64B-8658-DE06F1A7BC25}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D7CA9A5C-3DBF-3C49-AAFC-D2D0F4FAD86E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="460" windowWidth="35600" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="1680" windowWidth="35600" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wait Times" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="469">
   <si>
     <t>Team</t>
   </si>
@@ -1413,6 +1413,24 @@
   </si>
   <si>
     <t>Waiting on HQ Scientist availability to conduct QA and upload 2017 data</t>
+  </si>
+  <si>
+    <t>MBL lab not returning data on time; samples backlogged</t>
+  </si>
+  <si>
+    <t>MBL lab not returning soil data on time; samples backlogged; dependency</t>
+  </si>
+  <si>
+    <t>NRCS not returning data on time; samples backlogged</t>
+  </si>
+  <si>
+    <t>NRCS not returning data on time</t>
+  </si>
+  <si>
+    <t>Waiting on HQ Scientist availability to complete error correction of 2013 data</t>
+  </si>
+  <si>
+    <t>Awaiting 2017 data - proceeding on schedule; requires final sampling bout for year to be completed; all ticks identified to species; then samples selected for pathogen testing</t>
   </si>
 </sst>
 </file>
@@ -1562,7 +1580,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1742,6 +1760,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1903,13 +1927,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2268,10 +2293,10 @@
   <dimension ref="A1:M260"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="G12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J61" sqref="J61"/>
+      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4437,6 +4462,18 @@
       <c r="I61" t="s">
         <v>441</v>
       </c>
+      <c r="J61">
+        <v>80</v>
+      </c>
+      <c r="K61" t="s">
+        <v>451</v>
+      </c>
+      <c r="L61" s="2">
+        <v>43344</v>
+      </c>
+      <c r="M61" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
@@ -4463,6 +4500,18 @@
       <c r="I62" t="s">
         <v>441</v>
       </c>
+      <c r="J62">
+        <v>80</v>
+      </c>
+      <c r="K62" t="s">
+        <v>451</v>
+      </c>
+      <c r="L62" s="2">
+        <v>43344</v>
+      </c>
+      <c r="M62" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
@@ -4489,6 +4538,18 @@
       <c r="I63" t="s">
         <v>441</v>
       </c>
+      <c r="J63">
+        <v>80</v>
+      </c>
+      <c r="K63" t="s">
+        <v>451</v>
+      </c>
+      <c r="L63" s="2">
+        <v>43344</v>
+      </c>
+      <c r="M63" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
@@ -4515,8 +4576,17 @@
       <c r="I64" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J64">
+        <v>100</v>
+      </c>
+      <c r="K64" t="s">
+        <v>7</v>
+      </c>
+      <c r="L64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -4541,8 +4611,17 @@
       <c r="I65" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J65">
+        <v>100</v>
+      </c>
+      <c r="K65" t="s">
+        <v>7</v>
+      </c>
+      <c r="L65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -4567,8 +4646,17 @@
       <c r="I66" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J66">
+        <v>100</v>
+      </c>
+      <c r="K66" t="s">
+        <v>7</v>
+      </c>
+      <c r="L66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -4593,8 +4681,17 @@
       <c r="I67" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J67">
+        <v>100</v>
+      </c>
+      <c r="K67" t="s">
+        <v>7</v>
+      </c>
+      <c r="L67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -4619,8 +4716,20 @@
       <c r="I68" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J68">
+        <v>50</v>
+      </c>
+      <c r="K68" t="s">
+        <v>451</v>
+      </c>
+      <c r="L68" s="2">
+        <v>43344</v>
+      </c>
+      <c r="M68" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -4652,7 +4761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -4684,7 +4793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -4716,7 +4825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -4741,8 +4850,20 @@
       <c r="I72" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J72">
+        <v>6</v>
+      </c>
+      <c r="K72" t="s">
+        <v>450</v>
+      </c>
+      <c r="L72" s="2">
+        <v>43374</v>
+      </c>
+      <c r="M72" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>2</v>
       </c>
@@ -4767,8 +4888,20 @@
       <c r="I73" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J73">
+        <v>6</v>
+      </c>
+      <c r="K73" t="s">
+        <v>450</v>
+      </c>
+      <c r="L73" s="2">
+        <v>43374</v>
+      </c>
+      <c r="M73" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -4793,8 +4926,20 @@
       <c r="I74" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J74">
+        <v>6</v>
+      </c>
+      <c r="K74" t="s">
+        <v>450</v>
+      </c>
+      <c r="L74" s="2">
+        <v>43374</v>
+      </c>
+      <c r="M74" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>2</v>
       </c>
@@ -4819,8 +4964,20 @@
       <c r="I75" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J75">
+        <v>6</v>
+      </c>
+      <c r="K75" t="s">
+        <v>450</v>
+      </c>
+      <c r="L75" s="2">
+        <v>43374</v>
+      </c>
+      <c r="M75" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -4845,8 +5002,20 @@
       <c r="I76" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J76">
+        <v>15</v>
+      </c>
+      <c r="K76" t="s">
+        <v>451</v>
+      </c>
+      <c r="L76" s="2">
+        <v>43465</v>
+      </c>
+      <c r="M76" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>2</v>
       </c>
@@ -4871,8 +5040,20 @@
       <c r="I77" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J77">
+        <v>95</v>
+      </c>
+      <c r="K77" t="s">
+        <v>451</v>
+      </c>
+      <c r="L77" s="2">
+        <v>43344</v>
+      </c>
+      <c r="M77" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>2</v>
       </c>
@@ -4897,8 +5078,20 @@
       <c r="I78" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J78">
+        <v>75</v>
+      </c>
+      <c r="K78" t="s">
+        <v>451</v>
+      </c>
+      <c r="L78" s="2">
+        <v>43344</v>
+      </c>
+      <c r="M78" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -4923,8 +5116,20 @@
       <c r="I79" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J79">
+        <v>75</v>
+      </c>
+      <c r="K79" t="s">
+        <v>451</v>
+      </c>
+      <c r="L79" s="2">
+        <v>43344</v>
+      </c>
+      <c r="M79" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -4949,8 +5154,20 @@
       <c r="I80" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J80">
+        <v>75</v>
+      </c>
+      <c r="K80" t="s">
+        <v>451</v>
+      </c>
+      <c r="L80" s="2">
+        <v>43344</v>
+      </c>
+      <c r="M80" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -4975,8 +5192,20 @@
       <c r="I81" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J81">
+        <v>75</v>
+      </c>
+      <c r="K81" t="s">
+        <v>451</v>
+      </c>
+      <c r="L81" s="2">
+        <v>43344</v>
+      </c>
+      <c r="M81" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -5001,8 +5230,16 @@
       <c r="I82" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J82">
+        <v>70</v>
+      </c>
+      <c r="K82" t="s">
+        <v>451</v>
+      </c>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>2</v>
       </c>
@@ -5027,8 +5264,16 @@
       <c r="I83" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J83">
+        <v>70</v>
+      </c>
+      <c r="K83" t="s">
+        <v>451</v>
+      </c>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>2</v>
       </c>
@@ -5053,8 +5298,16 @@
       <c r="I84" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J84">
+        <v>70</v>
+      </c>
+      <c r="K84" t="s">
+        <v>451</v>
+      </c>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -5079,8 +5332,16 @@
       <c r="I85" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85" t="s">
+        <v>451</v>
+      </c>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>2</v>
       </c>
@@ -5105,8 +5366,16 @@
       <c r="I86" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86" t="s">
+        <v>451</v>
+      </c>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>2</v>
       </c>
@@ -5131,8 +5400,16 @@
       <c r="I87" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J87">
+        <v>2</v>
+      </c>
+      <c r="K87" t="s">
+        <v>451</v>
+      </c>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>2</v>
       </c>
@@ -5157,8 +5434,16 @@
       <c r="I88" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J88">
+        <v>5</v>
+      </c>
+      <c r="K88" t="s">
+        <v>451</v>
+      </c>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>2</v>
       </c>
@@ -5183,8 +5468,16 @@
       <c r="I89" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J89">
+        <v>5</v>
+      </c>
+      <c r="K89" t="s">
+        <v>451</v>
+      </c>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>2</v>
       </c>
@@ -5209,8 +5502,16 @@
       <c r="I90" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J90">
+        <v>6</v>
+      </c>
+      <c r="K90" t="s">
+        <v>451</v>
+      </c>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>2</v>
       </c>
@@ -5235,8 +5536,16 @@
       <c r="I91" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J91">
+        <v>6</v>
+      </c>
+      <c r="K91" t="s">
+        <v>451</v>
+      </c>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>2</v>
       </c>
@@ -5261,8 +5570,16 @@
       <c r="I92" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J92">
+        <v>6</v>
+      </c>
+      <c r="K92" t="s">
+        <v>451</v>
+      </c>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>2</v>
       </c>
@@ -5287,8 +5604,16 @@
       <c r="I93" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J93">
+        <v>6</v>
+      </c>
+      <c r="K93" t="s">
+        <v>451</v>
+      </c>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>2</v>
       </c>
@@ -5313,8 +5638,16 @@
       <c r="I94" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J94">
+        <v>6</v>
+      </c>
+      <c r="K94" t="s">
+        <v>451</v>
+      </c>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>2</v>
       </c>
@@ -5339,8 +5672,16 @@
       <c r="I95" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J95">
+        <v>5</v>
+      </c>
+      <c r="K95" t="s">
+        <v>451</v>
+      </c>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>2</v>
       </c>
@@ -5365,8 +5706,16 @@
       <c r="I96" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J96">
+        <v>5</v>
+      </c>
+      <c r="K96" t="s">
+        <v>451</v>
+      </c>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>2</v>
       </c>
@@ -5391,8 +5740,20 @@
       <c r="I97" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J97">
+        <v>15</v>
+      </c>
+      <c r="K97" t="s">
+        <v>451</v>
+      </c>
+      <c r="L97" s="2">
+        <v>43465</v>
+      </c>
+      <c r="M97" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>2</v>
       </c>
@@ -5417,8 +5778,20 @@
       <c r="I98" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J98">
+        <v>15</v>
+      </c>
+      <c r="K98" t="s">
+        <v>451</v>
+      </c>
+      <c r="L98" s="2">
+        <v>43465</v>
+      </c>
+      <c r="M98" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>2</v>
       </c>
@@ -5443,8 +5816,20 @@
       <c r="I99" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J99">
+        <v>15</v>
+      </c>
+      <c r="K99" t="s">
+        <v>451</v>
+      </c>
+      <c r="L99" s="2">
+        <v>43465</v>
+      </c>
+      <c r="M99" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>2</v>
       </c>
@@ -5469,8 +5854,20 @@
       <c r="I100" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J100">
+        <v>15</v>
+      </c>
+      <c r="K100" t="s">
+        <v>451</v>
+      </c>
+      <c r="L100" s="2">
+        <v>43465</v>
+      </c>
+      <c r="M100" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>2</v>
       </c>
@@ -5495,8 +5892,20 @@
       <c r="I101" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J101">
+        <v>95</v>
+      </c>
+      <c r="K101" t="s">
+        <v>453</v>
+      </c>
+      <c r="L101" s="2">
+        <v>43251</v>
+      </c>
+      <c r="M101" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>2</v>
       </c>
@@ -5521,8 +5930,20 @@
       <c r="I102" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J102">
+        <v>95</v>
+      </c>
+      <c r="K102" t="s">
+        <v>453</v>
+      </c>
+      <c r="L102" s="2">
+        <v>43251</v>
+      </c>
+      <c r="M102" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>2</v>
       </c>
@@ -5547,8 +5968,20 @@
       <c r="I103" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J103">
+        <v>95</v>
+      </c>
+      <c r="K103" t="s">
+        <v>453</v>
+      </c>
+      <c r="L103" s="2">
+        <v>43251</v>
+      </c>
+      <c r="M103" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>2</v>
       </c>
@@ -5573,8 +6006,20 @@
       <c r="I104" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J104">
+        <v>95</v>
+      </c>
+      <c r="K104" t="s">
+        <v>453</v>
+      </c>
+      <c r="L104" s="2">
+        <v>43251</v>
+      </c>
+      <c r="M104" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>2</v>
       </c>
@@ -5599,8 +6044,20 @@
       <c r="I105" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J105">
+        <v>95</v>
+      </c>
+      <c r="K105" t="s">
+        <v>453</v>
+      </c>
+      <c r="L105" s="2">
+        <v>43251</v>
+      </c>
+      <c r="M105" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>2</v>
       </c>
@@ -5625,8 +6082,20 @@
       <c r="I106" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J106">
+        <v>75</v>
+      </c>
+      <c r="K106" t="s">
+        <v>451</v>
+      </c>
+      <c r="L106" s="2">
+        <v>43344</v>
+      </c>
+      <c r="M106" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>2</v>
       </c>
@@ -5651,8 +6120,20 @@
       <c r="I107" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J107">
+        <v>75</v>
+      </c>
+      <c r="K107" t="s">
+        <v>451</v>
+      </c>
+      <c r="L107" s="2">
+        <v>43344</v>
+      </c>
+      <c r="M107" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>2</v>
       </c>
@@ -5677,8 +6158,20 @@
       <c r="I108" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J108">
+        <v>75</v>
+      </c>
+      <c r="K108" t="s">
+        <v>451</v>
+      </c>
+      <c r="L108" s="2">
+        <v>43344</v>
+      </c>
+      <c r="M108" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>2</v>
       </c>
@@ -5703,8 +6196,20 @@
       <c r="I109" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J109">
+        <v>75</v>
+      </c>
+      <c r="K109" t="s">
+        <v>451</v>
+      </c>
+      <c r="L109" s="2">
+        <v>43344</v>
+      </c>
+      <c r="M109" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>2</v>
       </c>
@@ -5729,8 +6234,20 @@
       <c r="I110" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J110">
+        <v>75</v>
+      </c>
+      <c r="K110" t="s">
+        <v>451</v>
+      </c>
+      <c r="L110" s="2">
+        <v>43344</v>
+      </c>
+      <c r="M110" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>2</v>
       </c>
@@ -5755,8 +6272,20 @@
       <c r="I111" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J111">
+        <v>95</v>
+      </c>
+      <c r="K111" t="s">
+        <v>451</v>
+      </c>
+      <c r="L111" s="2">
+        <v>43344</v>
+      </c>
+      <c r="M111" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>2</v>
       </c>
@@ -5781,6 +6310,18 @@
       <c r="I112" t="s">
         <v>439</v>
       </c>
+      <c r="J112">
+        <v>70</v>
+      </c>
+      <c r="K112" t="s">
+        <v>451</v>
+      </c>
+      <c r="L112" s="2">
+        <v>43344</v>
+      </c>
+      <c r="M112" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
@@ -5807,6 +6348,18 @@
       <c r="I113" t="s">
         <v>439</v>
       </c>
+      <c r="J113">
+        <v>75</v>
+      </c>
+      <c r="K113" t="s">
+        <v>451</v>
+      </c>
+      <c r="L113" s="2">
+        <v>43344</v>
+      </c>
+      <c r="M113" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
@@ -5833,6 +6386,18 @@
       <c r="I114" t="s">
         <v>434</v>
       </c>
+      <c r="J114">
+        <v>75</v>
+      </c>
+      <c r="K114" t="s">
+        <v>453</v>
+      </c>
+      <c r="L114" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M114" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
@@ -5859,6 +6424,18 @@
       <c r="I115" t="s">
         <v>439</v>
       </c>
+      <c r="J115">
+        <v>75</v>
+      </c>
+      <c r="K115" t="s">
+        <v>453</v>
+      </c>
+      <c r="L115" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M115" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
@@ -5884,6 +6461,18 @@
       </c>
       <c r="I116" t="s">
         <v>439</v>
+      </c>
+      <c r="J116">
+        <v>75</v>
+      </c>
+      <c r="K116" t="s">
+        <v>453</v>
+      </c>
+      <c r="L116" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M116" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">

--- a/Latency.xlsx
+++ b/Latency.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kthibault/Documents/GitHub/sandbox/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D7CA9A5C-3DBF-3C49-AAFC-D2D0F4FAD86E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{78682CB6-CE55-AE49-8FF7-1895C80B4E3F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="1680" windowWidth="35600" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9540" yWindow="560" windowWidth="27520" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wait Times" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="473">
   <si>
     <t>Team</t>
   </si>
@@ -1431,6 +1431,18 @@
   </si>
   <si>
     <t>Awaiting 2017 data - proceeding on schedule; requires final sampling bout for year to be completed; all ticks identified to species; then samples selected for pathogen testing</t>
+  </si>
+  <si>
+    <t>BMI lab processing backlog of samples</t>
+  </si>
+  <si>
+    <t>Waiting on HQ Scientist availability to complete error correction</t>
+  </si>
+  <si>
+    <t>Waiting on field scientist to complete data entry into Fulcrum and HQ scientist to complete QA</t>
+  </si>
+  <si>
+    <t>Waiting for final 2017 data from lab</t>
   </si>
 </sst>
 </file>
@@ -2293,10 +2305,10 @@
   <dimension ref="A1:M260"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I190" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
+      <selection pane="bottomRight" activeCell="J207" sqref="J207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6678,6 +6690,18 @@
       <c r="I122" t="s">
         <v>435</v>
       </c>
+      <c r="J122">
+        <v>90</v>
+      </c>
+      <c r="K122" t="s">
+        <v>453</v>
+      </c>
+      <c r="L122" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M122" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
@@ -6704,6 +6728,18 @@
       <c r="I123" t="s">
         <v>434</v>
       </c>
+      <c r="J123">
+        <v>90</v>
+      </c>
+      <c r="K123" t="s">
+        <v>453</v>
+      </c>
+      <c r="L123" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M123" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
@@ -6730,6 +6766,12 @@
       <c r="I124" t="s">
         <v>437</v>
       </c>
+      <c r="J124">
+        <v>25</v>
+      </c>
+      <c r="K124" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
@@ -6756,6 +6798,12 @@
       <c r="I125" t="s">
         <v>437</v>
       </c>
+      <c r="J125">
+        <v>25</v>
+      </c>
+      <c r="K125" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
@@ -6782,6 +6830,18 @@
       <c r="I126" t="s">
         <v>435</v>
       </c>
+      <c r="J126">
+        <v>90</v>
+      </c>
+      <c r="K126" t="s">
+        <v>453</v>
+      </c>
+      <c r="L126" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M126" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
@@ -6808,6 +6868,18 @@
       <c r="I127" t="s">
         <v>434</v>
       </c>
+      <c r="J127">
+        <v>90</v>
+      </c>
+      <c r="K127" t="s">
+        <v>453</v>
+      </c>
+      <c r="L127" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M127" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
@@ -6834,8 +6906,20 @@
       <c r="I128" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J128">
+        <v>90</v>
+      </c>
+      <c r="K128" t="s">
+        <v>453</v>
+      </c>
+      <c r="L128" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M128" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>209</v>
       </c>
@@ -6860,8 +6944,16 @@
       <c r="I129" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J129">
+        <v>25</v>
+      </c>
+      <c r="K129" t="s">
+        <v>451</v>
+      </c>
+      <c r="L129" s="4"/>
+      <c r="M129" s="4"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>209</v>
       </c>
@@ -6886,8 +6978,16 @@
       <c r="I130" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J130">
+        <v>25</v>
+      </c>
+      <c r="K130" t="s">
+        <v>451</v>
+      </c>
+      <c r="L130" s="4"/>
+      <c r="M130" s="4"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>209</v>
       </c>
@@ -6912,8 +7012,16 @@
       <c r="I131" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J131">
+        <v>25</v>
+      </c>
+      <c r="K131" t="s">
+        <v>451</v>
+      </c>
+      <c r="L131" s="4"/>
+      <c r="M131" s="4"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>209</v>
       </c>
@@ -6938,8 +7046,16 @@
       <c r="I132" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J132">
+        <v>25</v>
+      </c>
+      <c r="K132" t="s">
+        <v>451</v>
+      </c>
+      <c r="L132" s="4"/>
+      <c r="M132" s="4"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>209</v>
       </c>
@@ -6964,8 +7080,16 @@
       <c r="I133" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J133">
+        <v>25</v>
+      </c>
+      <c r="K133" t="s">
+        <v>451</v>
+      </c>
+      <c r="L133" s="4"/>
+      <c r="M133" s="4"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>209</v>
       </c>
@@ -6990,8 +7114,16 @@
       <c r="I134" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J134">
+        <v>10</v>
+      </c>
+      <c r="K134" t="s">
+        <v>453</v>
+      </c>
+      <c r="L134" s="4"/>
+      <c r="M134" s="4"/>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>209</v>
       </c>
@@ -7016,8 +7148,16 @@
       <c r="I135" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J135">
+        <v>10</v>
+      </c>
+      <c r="K135" t="s">
+        <v>453</v>
+      </c>
+      <c r="L135" s="4"/>
+      <c r="M135" s="4"/>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>209</v>
       </c>
@@ -7042,8 +7182,16 @@
       <c r="I136" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J136">
+        <v>10</v>
+      </c>
+      <c r="K136" t="s">
+        <v>453</v>
+      </c>
+      <c r="L136" s="4"/>
+      <c r="M136" s="4"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>209</v>
       </c>
@@ -7068,8 +7216,16 @@
       <c r="I137" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J137">
+        <v>10</v>
+      </c>
+      <c r="K137" t="s">
+        <v>453</v>
+      </c>
+      <c r="L137" s="4"/>
+      <c r="M137" s="4"/>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>209</v>
       </c>
@@ -7094,8 +7250,20 @@
       <c r="I138" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J138">
+        <v>5</v>
+      </c>
+      <c r="K138" t="s">
+        <v>451</v>
+      </c>
+      <c r="L138" s="2">
+        <v>43435</v>
+      </c>
+      <c r="M138" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>209</v>
       </c>
@@ -7120,8 +7288,20 @@
       <c r="I139" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J139">
+        <v>5</v>
+      </c>
+      <c r="K139" t="s">
+        <v>451</v>
+      </c>
+      <c r="L139" s="2">
+        <v>43435</v>
+      </c>
+      <c r="M139" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>209</v>
       </c>
@@ -7146,8 +7326,20 @@
       <c r="I140" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J140">
+        <v>95</v>
+      </c>
+      <c r="K140" t="s">
+        <v>453</v>
+      </c>
+      <c r="L140" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M140" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>209</v>
       </c>
@@ -7172,8 +7364,20 @@
       <c r="I141" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J141">
+        <v>5</v>
+      </c>
+      <c r="K141" t="s">
+        <v>451</v>
+      </c>
+      <c r="L141" s="2">
+        <v>43435</v>
+      </c>
+      <c r="M141" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>209</v>
       </c>
@@ -7198,8 +7402,20 @@
       <c r="I142" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J142">
+        <v>5</v>
+      </c>
+      <c r="K142" t="s">
+        <v>451</v>
+      </c>
+      <c r="L142" s="2">
+        <v>43435</v>
+      </c>
+      <c r="M142" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>209</v>
       </c>
@@ -7224,8 +7440,20 @@
       <c r="I143" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J143">
+        <v>5</v>
+      </c>
+      <c r="K143" t="s">
+        <v>451</v>
+      </c>
+      <c r="L143" s="2">
+        <v>43435</v>
+      </c>
+      <c r="M143" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>209</v>
       </c>
@@ -7250,8 +7478,20 @@
       <c r="I144" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J144">
+        <v>5</v>
+      </c>
+      <c r="K144" t="s">
+        <v>451</v>
+      </c>
+      <c r="L144" s="2">
+        <v>43435</v>
+      </c>
+      <c r="M144" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>209</v>
       </c>
@@ -7276,8 +7516,20 @@
       <c r="I145" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J145">
+        <v>5</v>
+      </c>
+      <c r="K145" t="s">
+        <v>451</v>
+      </c>
+      <c r="L145" s="2">
+        <v>43435</v>
+      </c>
+      <c r="M145" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>209</v>
       </c>
@@ -7302,8 +7554,20 @@
       <c r="I146" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J146">
+        <v>95</v>
+      </c>
+      <c r="K146" t="s">
+        <v>453</v>
+      </c>
+      <c r="L146" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M146" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>209</v>
       </c>
@@ -7328,8 +7592,20 @@
       <c r="I147" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J147">
+        <v>5</v>
+      </c>
+      <c r="K147" t="s">
+        <v>451</v>
+      </c>
+      <c r="L147" s="2">
+        <v>43435</v>
+      </c>
+      <c r="M147" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>209</v>
       </c>
@@ -7354,8 +7630,20 @@
       <c r="I148" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J148">
+        <v>5</v>
+      </c>
+      <c r="K148" t="s">
+        <v>451</v>
+      </c>
+      <c r="L148" s="2">
+        <v>43435</v>
+      </c>
+      <c r="M148" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>209</v>
       </c>
@@ -7380,8 +7668,20 @@
       <c r="I149" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J149">
+        <v>95</v>
+      </c>
+      <c r="K149" t="s">
+        <v>453</v>
+      </c>
+      <c r="L149" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M149" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>209</v>
       </c>
@@ -7406,8 +7706,20 @@
       <c r="I150" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J150">
+        <v>95</v>
+      </c>
+      <c r="K150" t="s">
+        <v>453</v>
+      </c>
+      <c r="L150" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M150" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>209</v>
       </c>
@@ -7432,8 +7744,20 @@
       <c r="I151" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J151">
+        <v>95</v>
+      </c>
+      <c r="K151" t="s">
+        <v>453</v>
+      </c>
+      <c r="L151" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M151" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>209</v>
       </c>
@@ -7458,8 +7782,20 @@
       <c r="I152" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J152">
+        <v>95</v>
+      </c>
+      <c r="K152" t="s">
+        <v>453</v>
+      </c>
+      <c r="L152" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M152" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>209</v>
       </c>
@@ -7484,8 +7820,20 @@
       <c r="I153" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J153">
+        <v>95</v>
+      </c>
+      <c r="K153" t="s">
+        <v>453</v>
+      </c>
+      <c r="L153" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M153" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>209</v>
       </c>
@@ -7510,8 +7858,20 @@
       <c r="I154" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J154">
+        <v>95</v>
+      </c>
+      <c r="K154" t="s">
+        <v>453</v>
+      </c>
+      <c r="L154" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M154" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>209</v>
       </c>
@@ -7536,8 +7896,20 @@
       <c r="I155" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J155">
+        <v>95</v>
+      </c>
+      <c r="K155" t="s">
+        <v>453</v>
+      </c>
+      <c r="L155" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M155" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>209</v>
       </c>
@@ -7562,8 +7934,20 @@
       <c r="I156" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J156">
+        <v>95</v>
+      </c>
+      <c r="K156" t="s">
+        <v>453</v>
+      </c>
+      <c r="L156" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M156" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>209</v>
       </c>
@@ -7588,8 +7972,17 @@
       <c r="I157" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J157">
+        <v>100</v>
+      </c>
+      <c r="K157" t="s">
+        <v>7</v>
+      </c>
+      <c r="L157" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>209</v>
       </c>
@@ -7614,8 +8007,17 @@
       <c r="I158" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J158">
+        <v>100</v>
+      </c>
+      <c r="K158" t="s">
+        <v>7</v>
+      </c>
+      <c r="L158" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>209</v>
       </c>
@@ -7640,8 +8042,17 @@
       <c r="I159" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J159">
+        <v>100</v>
+      </c>
+      <c r="K159" t="s">
+        <v>7</v>
+      </c>
+      <c r="L159" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>209</v>
       </c>
@@ -7666,8 +8077,17 @@
       <c r="I160" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J160">
+        <v>100</v>
+      </c>
+      <c r="K160" t="s">
+        <v>7</v>
+      </c>
+      <c r="L160" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>209</v>
       </c>
@@ -7692,8 +8112,17 @@
       <c r="I161" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J161">
+        <v>100</v>
+      </c>
+      <c r="K161" t="s">
+        <v>7</v>
+      </c>
+      <c r="L161" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>209</v>
       </c>
@@ -7718,8 +8147,17 @@
       <c r="I162" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J162">
+        <v>100</v>
+      </c>
+      <c r="K162" t="s">
+        <v>7</v>
+      </c>
+      <c r="L162" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>209</v>
       </c>
@@ -7744,8 +8182,17 @@
       <c r="I163" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J163">
+        <v>100</v>
+      </c>
+      <c r="K163" t="s">
+        <v>7</v>
+      </c>
+      <c r="L163" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>209</v>
       </c>
@@ -7770,8 +8217,20 @@
       <c r="I164" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J164">
+        <v>10</v>
+      </c>
+      <c r="K164" t="s">
+        <v>453</v>
+      </c>
+      <c r="L164" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M164" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>209</v>
       </c>
@@ -7796,8 +8255,20 @@
       <c r="I165" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J165">
+        <v>10</v>
+      </c>
+      <c r="K165" t="s">
+        <v>453</v>
+      </c>
+      <c r="L165" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M165" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>209</v>
       </c>
@@ -7822,8 +8293,20 @@
       <c r="I166" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J166">
+        <v>10</v>
+      </c>
+      <c r="K166" t="s">
+        <v>453</v>
+      </c>
+      <c r="L166" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M166" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>209</v>
       </c>
@@ -7848,8 +8331,20 @@
       <c r="I167" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J167">
+        <v>10</v>
+      </c>
+      <c r="K167" t="s">
+        <v>453</v>
+      </c>
+      <c r="L167" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M167" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>209</v>
       </c>
@@ -7874,8 +8369,20 @@
       <c r="I168" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J168">
+        <v>10</v>
+      </c>
+      <c r="K168" t="s">
+        <v>453</v>
+      </c>
+      <c r="L168" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M168" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>209</v>
       </c>
@@ -7900,8 +8407,17 @@
       <c r="I169" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J169">
+        <v>100</v>
+      </c>
+      <c r="K169" t="s">
+        <v>7</v>
+      </c>
+      <c r="L169" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>209</v>
       </c>
@@ -7926,8 +8442,17 @@
       <c r="I170" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J170">
+        <v>100</v>
+      </c>
+      <c r="K170" t="s">
+        <v>7</v>
+      </c>
+      <c r="L170" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>209</v>
       </c>
@@ -7952,8 +8477,17 @@
       <c r="I171" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J171">
+        <v>100</v>
+      </c>
+      <c r="K171" t="s">
+        <v>7</v>
+      </c>
+      <c r="L171" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>209</v>
       </c>
@@ -7978,8 +8512,17 @@
       <c r="I172" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J172">
+        <v>100</v>
+      </c>
+      <c r="K172" t="s">
+        <v>7</v>
+      </c>
+      <c r="L172" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>209</v>
       </c>
@@ -8004,8 +8547,17 @@
       <c r="I173" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J173">
+        <v>100</v>
+      </c>
+      <c r="K173" t="s">
+        <v>7</v>
+      </c>
+      <c r="L173" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>209</v>
       </c>
@@ -8030,8 +8582,17 @@
       <c r="I174" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J174">
+        <v>100</v>
+      </c>
+      <c r="K174" t="s">
+        <v>7</v>
+      </c>
+      <c r="L174" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>209</v>
       </c>
@@ -8056,8 +8617,17 @@
       <c r="I175" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J175">
+        <v>100</v>
+      </c>
+      <c r="K175" t="s">
+        <v>7</v>
+      </c>
+      <c r="L175" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>209</v>
       </c>
@@ -8082,8 +8652,17 @@
       <c r="I176" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J176">
+        <v>100</v>
+      </c>
+      <c r="K176" t="s">
+        <v>7</v>
+      </c>
+      <c r="L176" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>209</v>
       </c>
@@ -8108,8 +8687,20 @@
       <c r="I177" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J177">
+        <v>90</v>
+      </c>
+      <c r="K177" t="s">
+        <v>451</v>
+      </c>
+      <c r="L177" s="2">
+        <v>43312</v>
+      </c>
+      <c r="M177" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>209</v>
       </c>
@@ -8134,8 +8725,20 @@
       <c r="I178" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J178">
+        <v>90</v>
+      </c>
+      <c r="K178" t="s">
+        <v>451</v>
+      </c>
+      <c r="L178" s="2">
+        <v>43312</v>
+      </c>
+      <c r="M178" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>209</v>
       </c>
@@ -8160,8 +8763,17 @@
       <c r="I179" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J179">
+        <v>100</v>
+      </c>
+      <c r="K179" t="s">
+        <v>7</v>
+      </c>
+      <c r="L179" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>209</v>
       </c>
@@ -8186,8 +8798,17 @@
       <c r="I180" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J180">
+        <v>100</v>
+      </c>
+      <c r="K180" t="s">
+        <v>7</v>
+      </c>
+      <c r="L180" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>209</v>
       </c>
@@ -8212,8 +8833,17 @@
       <c r="I181" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J181">
+        <v>100</v>
+      </c>
+      <c r="K181" t="s">
+        <v>7</v>
+      </c>
+      <c r="L181" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>209</v>
       </c>
@@ -8238,8 +8868,16 @@
       <c r="I182" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J182">
+        <v>50</v>
+      </c>
+      <c r="K182" t="s">
+        <v>451</v>
+      </c>
+      <c r="L182" s="4"/>
+      <c r="M182" s="4"/>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>209</v>
       </c>
@@ -8264,8 +8902,16 @@
       <c r="I183" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J183">
+        <v>50</v>
+      </c>
+      <c r="K183" t="s">
+        <v>451</v>
+      </c>
+      <c r="L183" s="4"/>
+      <c r="M183" s="4"/>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>209</v>
       </c>
@@ -8290,8 +8936,20 @@
       <c r="I184" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J184">
+        <v>65</v>
+      </c>
+      <c r="K184" t="s">
+        <v>453</v>
+      </c>
+      <c r="L184" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M184" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>209</v>
       </c>
@@ -8316,8 +8974,20 @@
       <c r="I185" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J185">
+        <v>65</v>
+      </c>
+      <c r="K185" t="s">
+        <v>453</v>
+      </c>
+      <c r="L185" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M185" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>209</v>
       </c>
@@ -8342,8 +9012,16 @@
       <c r="I186" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J186">
+        <v>20</v>
+      </c>
+      <c r="K186" t="s">
+        <v>451</v>
+      </c>
+      <c r="L186" s="4"/>
+      <c r="M186" s="4"/>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>209</v>
       </c>
@@ -8368,8 +9046,16 @@
       <c r="I187" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J187">
+        <v>20</v>
+      </c>
+      <c r="K187" t="s">
+        <v>451</v>
+      </c>
+      <c r="L187" s="4"/>
+      <c r="M187" s="4"/>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>209</v>
       </c>
@@ -8394,8 +9080,20 @@
       <c r="I188" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J188">
+        <v>90</v>
+      </c>
+      <c r="K188" t="s">
+        <v>453</v>
+      </c>
+      <c r="L188" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M188" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>209</v>
       </c>
@@ -8420,8 +9118,20 @@
       <c r="I189" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J189">
+        <v>90</v>
+      </c>
+      <c r="K189" t="s">
+        <v>453</v>
+      </c>
+      <c r="L189" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M189" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>209</v>
       </c>
@@ -8446,8 +9156,20 @@
       <c r="I190" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J190">
+        <v>90</v>
+      </c>
+      <c r="K190" t="s">
+        <v>453</v>
+      </c>
+      <c r="L190" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M190" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>209</v>
       </c>
@@ -8472,8 +9194,17 @@
       <c r="I191" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J191">
+        <v>100</v>
+      </c>
+      <c r="K191" t="s">
+        <v>7</v>
+      </c>
+      <c r="L191" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>209</v>
       </c>
@@ -8498,8 +9229,17 @@
       <c r="I192" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J192">
+        <v>100</v>
+      </c>
+      <c r="K192" t="s">
+        <v>7</v>
+      </c>
+      <c r="L192" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>209</v>
       </c>
@@ -8524,8 +9264,17 @@
       <c r="I193" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J193">
+        <v>100</v>
+      </c>
+      <c r="K193" t="s">
+        <v>7</v>
+      </c>
+      <c r="L193" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>209</v>
       </c>
@@ -8550,8 +9299,20 @@
       <c r="I194" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J194">
+        <v>90</v>
+      </c>
+      <c r="K194" t="s">
+        <v>453</v>
+      </c>
+      <c r="L194" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M194" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>209</v>
       </c>
@@ -8576,8 +9337,20 @@
       <c r="I195" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J195">
+        <v>90</v>
+      </c>
+      <c r="K195" t="s">
+        <v>453</v>
+      </c>
+      <c r="L195" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M195" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>209</v>
       </c>
@@ -8602,8 +9375,20 @@
       <c r="I196" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J196">
+        <v>90</v>
+      </c>
+      <c r="K196" t="s">
+        <v>453</v>
+      </c>
+      <c r="L196" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M196" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>209</v>
       </c>
@@ -8628,8 +9413,17 @@
       <c r="I197" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J197">
+        <v>100</v>
+      </c>
+      <c r="K197" t="s">
+        <v>7</v>
+      </c>
+      <c r="L197" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>209</v>
       </c>
@@ -8654,8 +9448,17 @@
       <c r="I198" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J198">
+        <v>100</v>
+      </c>
+      <c r="K198" t="s">
+        <v>7</v>
+      </c>
+      <c r="L198" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>209</v>
       </c>
@@ -8680,8 +9483,20 @@
       <c r="I199" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J199">
+        <v>90</v>
+      </c>
+      <c r="K199" t="s">
+        <v>453</v>
+      </c>
+      <c r="L199" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M199" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>209</v>
       </c>
@@ -8706,8 +9521,20 @@
       <c r="I200" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J200">
+        <v>90</v>
+      </c>
+      <c r="K200" t="s">
+        <v>453</v>
+      </c>
+      <c r="L200" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M200" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>209</v>
       </c>
@@ -8732,8 +9559,20 @@
       <c r="I201" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J201">
+        <v>90</v>
+      </c>
+      <c r="K201" t="s">
+        <v>453</v>
+      </c>
+      <c r="L201" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M201" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>209</v>
       </c>
@@ -8758,8 +9597,17 @@
       <c r="I202" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J202">
+        <v>100</v>
+      </c>
+      <c r="K202" t="s">
+        <v>7</v>
+      </c>
+      <c r="L202" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>209</v>
       </c>
@@ -8784,8 +9632,17 @@
       <c r="I203" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J203">
+        <v>100</v>
+      </c>
+      <c r="K203" t="s">
+        <v>7</v>
+      </c>
+      <c r="L203" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>209</v>
       </c>
@@ -8810,8 +9667,20 @@
       <c r="I204" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J204">
+        <v>90</v>
+      </c>
+      <c r="K204" t="s">
+        <v>453</v>
+      </c>
+      <c r="L204" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M204" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>209</v>
       </c>
@@ -8836,8 +9705,20 @@
       <c r="I205" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J205">
+        <v>90</v>
+      </c>
+      <c r="K205" t="s">
+        <v>453</v>
+      </c>
+      <c r="L205" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M205" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>209</v>
       </c>
@@ -8862,8 +9743,17 @@
       <c r="I206" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J206">
+        <v>100</v>
+      </c>
+      <c r="K206" t="s">
+        <v>7</v>
+      </c>
+      <c r="L206" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>209</v>
       </c>
@@ -8889,7 +9779,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>209</v>
       </c>

--- a/Latency.xlsx
+++ b/Latency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kthibault/Documents/GitHub/sandbox/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{78682CB6-CE55-AE49-8FF7-1895C80B4E3F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5053172B-F754-2347-86AA-BCDB855EEFA8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9540" yWindow="560" windowWidth="27520" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="473">
   <si>
     <t>Team</t>
   </si>
@@ -2305,10 +2305,10 @@
   <dimension ref="A1:M260"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="I190" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J207" sqref="J207"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9195,13 +9195,16 @@
         <v>437</v>
       </c>
       <c r="J191">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K191" t="s">
-        <v>7</v>
-      </c>
-      <c r="L191" s="2" t="s">
-        <v>7</v>
+        <v>453</v>
+      </c>
+      <c r="L191" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M191" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.2">
@@ -9230,13 +9233,16 @@
         <v>437</v>
       </c>
       <c r="J192">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K192" t="s">
-        <v>7</v>
-      </c>
-      <c r="L192" s="2" t="s">
-        <v>7</v>
+        <v>453</v>
+      </c>
+      <c r="L192" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M192" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.2">
@@ -9265,13 +9271,16 @@
         <v>434</v>
       </c>
       <c r="J193">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K193" t="s">
-        <v>7</v>
-      </c>
-      <c r="L193" s="2" t="s">
-        <v>7</v>
+        <v>453</v>
+      </c>
+      <c r="L193" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M193" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.2">
@@ -9598,13 +9607,16 @@
         <v>437</v>
       </c>
       <c r="J202">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K202" t="s">
-        <v>7</v>
-      </c>
-      <c r="L202" s="2" t="s">
-        <v>7</v>
+        <v>453</v>
+      </c>
+      <c r="L202" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M202" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.2">
@@ -9633,13 +9645,16 @@
         <v>434</v>
       </c>
       <c r="J203">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K203" t="s">
-        <v>7</v>
-      </c>
-      <c r="L203" s="2" t="s">
-        <v>7</v>
+        <v>453</v>
+      </c>
+      <c r="L203" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M203" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.2">
@@ -9778,6 +9793,18 @@
       <c r="I207" t="s">
         <v>437</v>
       </c>
+      <c r="J207">
+        <v>90</v>
+      </c>
+      <c r="K207" t="s">
+        <v>453</v>
+      </c>
+      <c r="L207" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M207" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
@@ -9804,8 +9831,20 @@
       <c r="I208" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J208">
+        <v>90</v>
+      </c>
+      <c r="K208" t="s">
+        <v>453</v>
+      </c>
+      <c r="L208" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M208" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>209</v>
       </c>
@@ -9830,8 +9869,20 @@
       <c r="I209" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J209">
+        <v>90</v>
+      </c>
+      <c r="K209" t="s">
+        <v>453</v>
+      </c>
+      <c r="L209" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M209" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -9856,8 +9907,20 @@
       <c r="I210" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J210">
+        <v>90</v>
+      </c>
+      <c r="K210" t="s">
+        <v>453</v>
+      </c>
+      <c r="L210" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M210" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>209</v>
       </c>
@@ -9882,8 +9945,20 @@
       <c r="I211" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J211">
+        <v>90</v>
+      </c>
+      <c r="K211" t="s">
+        <v>453</v>
+      </c>
+      <c r="L211" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M211" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>209</v>
       </c>
@@ -9908,8 +9983,20 @@
       <c r="I212" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J212">
+        <v>90</v>
+      </c>
+      <c r="K212" t="s">
+        <v>453</v>
+      </c>
+      <c r="L212" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M212" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>209</v>
       </c>
@@ -9934,8 +10021,20 @@
       <c r="I213" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J213">
+        <v>90</v>
+      </c>
+      <c r="K213" t="s">
+        <v>453</v>
+      </c>
+      <c r="L213" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M213" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>209</v>
       </c>
@@ -9960,8 +10059,20 @@
       <c r="I214" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J214">
+        <v>90</v>
+      </c>
+      <c r="K214" t="s">
+        <v>453</v>
+      </c>
+      <c r="L214" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M214" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>209</v>
       </c>
@@ -9986,8 +10097,20 @@
       <c r="I215" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J215">
+        <v>90</v>
+      </c>
+      <c r="K215" t="s">
+        <v>453</v>
+      </c>
+      <c r="L215" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M215" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>209</v>
       </c>
@@ -10012,8 +10135,20 @@
       <c r="I216" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J216">
+        <v>90</v>
+      </c>
+      <c r="K216" t="s">
+        <v>453</v>
+      </c>
+      <c r="L216" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M216" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>209</v>
       </c>
@@ -10038,8 +10173,20 @@
       <c r="I217" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J217">
+        <v>90</v>
+      </c>
+      <c r="K217" t="s">
+        <v>453</v>
+      </c>
+      <c r="L217" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M217" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>209</v>
       </c>
@@ -10064,8 +10211,15 @@
       <c r="I218" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J218">
+        <v>80</v>
+      </c>
+      <c r="K218" t="s">
+        <v>451</v>
+      </c>
+      <c r="L218" s="4"/>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>209</v>
       </c>
@@ -10090,8 +10244,17 @@
       <c r="I219" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J219">
+        <v>100</v>
+      </c>
+      <c r="K219" t="s">
+        <v>7</v>
+      </c>
+      <c r="L219" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>209</v>
       </c>
@@ -10116,8 +10279,17 @@
       <c r="I220" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J220">
+        <v>100</v>
+      </c>
+      <c r="K220" t="s">
+        <v>7</v>
+      </c>
+      <c r="L220" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>209</v>
       </c>
@@ -10142,8 +10314,17 @@
       <c r="I221" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J221">
+        <v>100</v>
+      </c>
+      <c r="K221" t="s">
+        <v>7</v>
+      </c>
+      <c r="L221" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>209</v>
       </c>
@@ -10168,8 +10349,16 @@
       <c r="I222" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J222" s="4">
+        <v>10</v>
+      </c>
+      <c r="K222" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="L222" s="4"/>
+      <c r="M222" s="4"/>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>209</v>
       </c>
@@ -10194,8 +10383,12 @@
       <c r="I223" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J223" s="4"/>
+      <c r="K223" s="4"/>
+      <c r="L223" s="4"/>
+      <c r="M223" s="4"/>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>209</v>
       </c>
@@ -10220,8 +10413,12 @@
       <c r="I224" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J224" s="4"/>
+      <c r="K224" s="4"/>
+      <c r="L224" s="4"/>
+      <c r="M224" s="4"/>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>209</v>
       </c>
@@ -10246,8 +10443,12 @@
       <c r="I225" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J225" s="4"/>
+      <c r="K225" s="4"/>
+      <c r="L225" s="4"/>
+      <c r="M225" s="4"/>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>209</v>
       </c>
@@ -10272,8 +10473,12 @@
       <c r="I226" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J226" s="4"/>
+      <c r="K226" s="4"/>
+      <c r="L226" s="4"/>
+      <c r="M226" s="4"/>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>209</v>
       </c>
@@ -10298,8 +10503,12 @@
       <c r="I227" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J227" s="4"/>
+      <c r="K227" s="4"/>
+      <c r="L227" s="4"/>
+      <c r="M227" s="4"/>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>209</v>
       </c>
@@ -10324,8 +10533,12 @@
       <c r="I228" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J228" s="4"/>
+      <c r="K228" s="4"/>
+      <c r="L228" s="4"/>
+      <c r="M228" s="4"/>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>209</v>
       </c>
@@ -10350,8 +10563,12 @@
       <c r="I229" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J229" s="4"/>
+      <c r="K229" s="4"/>
+      <c r="L229" s="4"/>
+      <c r="M229" s="4"/>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>209</v>
       </c>
@@ -10376,8 +10593,12 @@
       <c r="I230" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J230" s="4"/>
+      <c r="K230" s="4"/>
+      <c r="L230" s="4"/>
+      <c r="M230" s="4"/>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>209</v>
       </c>
@@ -10402,8 +10623,12 @@
       <c r="I231" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J231" s="4"/>
+      <c r="K231" s="4"/>
+      <c r="L231" s="4"/>
+      <c r="M231" s="4"/>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>209</v>
       </c>
@@ -10428,8 +10653,20 @@
       <c r="I232" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J232">
+        <v>95</v>
+      </c>
+      <c r="K232" t="s">
+        <v>453</v>
+      </c>
+      <c r="L232" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M232" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>209</v>
       </c>
@@ -10454,8 +10691,20 @@
       <c r="I233" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J233">
+        <v>95</v>
+      </c>
+      <c r="K233" t="s">
+        <v>453</v>
+      </c>
+      <c r="L233" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M233" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>209</v>
       </c>
@@ -10480,8 +10729,20 @@
       <c r="I234" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J234">
+        <v>95</v>
+      </c>
+      <c r="K234" t="s">
+        <v>453</v>
+      </c>
+      <c r="L234" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M234" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>209</v>
       </c>
@@ -10506,8 +10767,20 @@
       <c r="I235" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J235">
+        <v>5</v>
+      </c>
+      <c r="K235" t="s">
+        <v>451</v>
+      </c>
+      <c r="L235" s="2">
+        <v>43435</v>
+      </c>
+      <c r="M235" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>209</v>
       </c>
@@ -10532,8 +10805,20 @@
       <c r="I236" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J236">
+        <v>5</v>
+      </c>
+      <c r="K236" t="s">
+        <v>451</v>
+      </c>
+      <c r="L236" s="2">
+        <v>43435</v>
+      </c>
+      <c r="M236" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>209</v>
       </c>
@@ -10558,8 +10843,20 @@
       <c r="I237" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J237">
+        <v>5</v>
+      </c>
+      <c r="K237" t="s">
+        <v>451</v>
+      </c>
+      <c r="L237" s="2">
+        <v>43435</v>
+      </c>
+      <c r="M237" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>209</v>
       </c>
@@ -10584,8 +10881,20 @@
       <c r="I238" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J238">
+        <v>5</v>
+      </c>
+      <c r="K238" t="s">
+        <v>451</v>
+      </c>
+      <c r="L238" s="2">
+        <v>43435</v>
+      </c>
+      <c r="M238" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>209</v>
       </c>
@@ -10610,8 +10919,20 @@
       <c r="I239" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J239">
+        <v>5</v>
+      </c>
+      <c r="K239" t="s">
+        <v>451</v>
+      </c>
+      <c r="L239" s="2">
+        <v>43435</v>
+      </c>
+      <c r="M239" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>209</v>
       </c>
@@ -10636,8 +10957,20 @@
       <c r="I240" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J240">
+        <v>5</v>
+      </c>
+      <c r="K240" t="s">
+        <v>451</v>
+      </c>
+      <c r="L240" s="2">
+        <v>43435</v>
+      </c>
+      <c r="M240" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>209</v>
       </c>
@@ -10662,8 +10995,20 @@
       <c r="I241" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J241">
+        <v>5</v>
+      </c>
+      <c r="K241" t="s">
+        <v>451</v>
+      </c>
+      <c r="L241" s="2">
+        <v>43435</v>
+      </c>
+      <c r="M241" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>209</v>
       </c>
@@ -10688,8 +11033,20 @@
       <c r="I242" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J242">
+        <v>5</v>
+      </c>
+      <c r="K242" t="s">
+        <v>451</v>
+      </c>
+      <c r="L242" s="2">
+        <v>43435</v>
+      </c>
+      <c r="M242" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>209</v>
       </c>
@@ -10714,8 +11071,20 @@
       <c r="I243" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J243">
+        <v>5</v>
+      </c>
+      <c r="K243" t="s">
+        <v>451</v>
+      </c>
+      <c r="L243" s="2">
+        <v>43435</v>
+      </c>
+      <c r="M243" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>209</v>
       </c>
@@ -10740,8 +11109,20 @@
       <c r="I244" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J244">
+        <v>5</v>
+      </c>
+      <c r="K244" t="s">
+        <v>451</v>
+      </c>
+      <c r="L244" s="2">
+        <v>43435</v>
+      </c>
+      <c r="M244" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>209</v>
       </c>
@@ -10766,8 +11147,16 @@
       <c r="I245" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J245">
+        <v>90</v>
+      </c>
+      <c r="K245" t="s">
+        <v>451</v>
+      </c>
+      <c r="L245" s="4"/>
+      <c r="M245" s="4"/>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>209</v>
       </c>
@@ -10792,8 +11181,16 @@
       <c r="I246" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J246">
+        <v>90</v>
+      </c>
+      <c r="K246" t="s">
+        <v>451</v>
+      </c>
+      <c r="L246" s="4"/>
+      <c r="M246" s="4"/>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>209</v>
       </c>
@@ -10818,8 +11215,16 @@
       <c r="I247" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J247">
+        <v>90</v>
+      </c>
+      <c r="K247" t="s">
+        <v>451</v>
+      </c>
+      <c r="L247" s="4"/>
+      <c r="M247" s="4"/>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>209</v>
       </c>
@@ -10844,8 +11249,16 @@
       <c r="I248" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J248">
+        <v>90</v>
+      </c>
+      <c r="K248" t="s">
+        <v>451</v>
+      </c>
+      <c r="L248" s="4"/>
+      <c r="M248" s="4"/>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>209</v>
       </c>
@@ -10870,8 +11283,17 @@
       <c r="I249" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J249">
+        <v>100</v>
+      </c>
+      <c r="K249" t="s">
+        <v>7</v>
+      </c>
+      <c r="L249" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>209</v>
       </c>
@@ -10896,8 +11318,17 @@
       <c r="I250" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J250">
+        <v>100</v>
+      </c>
+      <c r="K250" t="s">
+        <v>7</v>
+      </c>
+      <c r="L250" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>209</v>
       </c>
@@ -10922,8 +11353,17 @@
       <c r="I251" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J251">
+        <v>100</v>
+      </c>
+      <c r="K251" t="s">
+        <v>7</v>
+      </c>
+      <c r="L251" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>411</v>
       </c>
@@ -10948,8 +11388,17 @@
       <c r="I252" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J252">
+        <v>100</v>
+      </c>
+      <c r="K252" t="s">
+        <v>7</v>
+      </c>
+      <c r="L252" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>411</v>
       </c>
@@ -10974,8 +11423,17 @@
       <c r="I253" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J253">
+        <v>100</v>
+      </c>
+      <c r="K253" t="s">
+        <v>7</v>
+      </c>
+      <c r="L253" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>411</v>
       </c>
@@ -11000,8 +11458,17 @@
       <c r="I254" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J254">
+        <v>100</v>
+      </c>
+      <c r="K254" t="s">
+        <v>7</v>
+      </c>
+      <c r="L254" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>411</v>
       </c>
@@ -11026,8 +11493,17 @@
       <c r="I255" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J255">
+        <v>100</v>
+      </c>
+      <c r="K255" t="s">
+        <v>7</v>
+      </c>
+      <c r="L255" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>411</v>
       </c>
@@ -11052,8 +11528,17 @@
       <c r="I256" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J256">
+        <v>100</v>
+      </c>
+      <c r="K256" t="s">
+        <v>7</v>
+      </c>
+      <c r="L256" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>411</v>
       </c>
@@ -11078,8 +11563,17 @@
       <c r="I257" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J257">
+        <v>100</v>
+      </c>
+      <c r="K257" t="s">
+        <v>7</v>
+      </c>
+      <c r="L257" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>411</v>
       </c>
@@ -11104,8 +11598,17 @@
       <c r="I258" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J258">
+        <v>100</v>
+      </c>
+      <c r="K258" t="s">
+        <v>7</v>
+      </c>
+      <c r="L258" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>411</v>
       </c>
@@ -11130,8 +11633,17 @@
       <c r="I259" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J259">
+        <v>100</v>
+      </c>
+      <c r="K259" t="s">
+        <v>7</v>
+      </c>
+      <c r="L259" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>411</v>
       </c>
@@ -11155,6 +11667,15 @@
       </c>
       <c r="I260" t="s">
         <v>437</v>
+      </c>
+      <c r="J260">
+        <v>100</v>
+      </c>
+      <c r="K260" t="s">
+        <v>7</v>
+      </c>
+      <c r="L260" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Latency.xlsx
+++ b/Latency.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kthibault/Documents/GitHub/sandbox/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5053172B-F754-2347-86AA-BCDB855EEFA8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{78E8122F-1D0A-FC46-AA1F-952C9AEC7C21}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9540" yWindow="560" windowWidth="27520" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1240" yWindow="2060" windowWidth="28660" windowHeight="17860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wait Times" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="478">
   <si>
     <t>Team</t>
   </si>
@@ -1443,6 +1443,21 @@
   </si>
   <si>
     <t>Waiting for final 2017 data from lab</t>
+  </si>
+  <si>
+    <t>Drexel lab contractually has until June 30 to return data</t>
+  </si>
+  <si>
+    <t>Lab contractually has until June 30 to return data</t>
+  </si>
+  <si>
+    <t>SIRFIR lab contractually has until June 30 to return data</t>
+  </si>
+  <si>
+    <t>Waiting on HQ Scientist availability to process data to generate maps</t>
+  </si>
+  <si>
+    <t>EcoCore not returning data on time; samples backlogged</t>
   </si>
 </sst>
 </file>
@@ -1592,7 +1607,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1772,12 +1787,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1939,14 +1948,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2305,10 +2315,10 @@
   <dimension ref="A1:M260"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2742,7 +2752,7 @@
         <v>450</v>
       </c>
       <c r="L12" s="2">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="M12" t="s">
         <v>452</v>
@@ -2780,7 +2790,7 @@
         <v>450</v>
       </c>
       <c r="L13" s="2">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="M13" t="s">
         <v>452</v>
@@ -2818,7 +2828,7 @@
         <v>450</v>
       </c>
       <c r="L14" s="2">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="M14" t="s">
         <v>452</v>
@@ -2856,7 +2866,7 @@
         <v>450</v>
       </c>
       <c r="L15" s="2">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="M15" t="s">
         <v>452</v>
@@ -2929,7 +2939,7 @@
         <v>450</v>
       </c>
       <c r="L17" s="2">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="M17" t="s">
         <v>452</v>
@@ -2967,7 +2977,7 @@
         <v>450</v>
       </c>
       <c r="L18" s="2">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="M18" t="s">
         <v>452</v>
@@ -3186,7 +3196,7 @@
         <v>451</v>
       </c>
       <c r="L24" s="2">
-        <v>43344</v>
+        <v>43373</v>
       </c>
       <c r="M24" t="s">
         <v>455</v>
@@ -3259,7 +3269,7 @@
         <v>451</v>
       </c>
       <c r="L26" s="2">
-        <v>43344</v>
+        <v>43373</v>
       </c>
       <c r="M26" t="s">
         <v>455</v>
@@ -3437,7 +3447,7 @@
         <v>450</v>
       </c>
       <c r="L31" s="2">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="M31" t="s">
         <v>452</v>
@@ -3475,7 +3485,7 @@
         <v>450</v>
       </c>
       <c r="L32" s="2">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="M32" t="s">
         <v>452</v>
@@ -3513,7 +3523,7 @@
         <v>450</v>
       </c>
       <c r="L33" s="2">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="M33" t="s">
         <v>452</v>
@@ -3551,7 +3561,7 @@
         <v>450</v>
       </c>
       <c r="L34" s="2">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="M34" t="s">
         <v>452</v>
@@ -3589,7 +3599,7 @@
         <v>450</v>
       </c>
       <c r="L35" s="2">
-        <v>43435</v>
+        <v>43465</v>
       </c>
       <c r="M35" t="s">
         <v>452</v>
@@ -3627,7 +3637,7 @@
         <v>450</v>
       </c>
       <c r="L36" s="2">
-        <v>43435</v>
+        <v>43465</v>
       </c>
       <c r="M36" t="s">
         <v>452</v>
@@ -3703,7 +3713,7 @@
         <v>450</v>
       </c>
       <c r="L38" s="2">
-        <v>43435</v>
+        <v>43465</v>
       </c>
       <c r="M38" t="s">
         <v>452</v>
@@ -3881,7 +3891,7 @@
         <v>457</v>
       </c>
       <c r="L43" s="2">
-        <v>43435</v>
+        <v>43465</v>
       </c>
       <c r="M43" t="s">
         <v>461</v>
@@ -4143,7 +4153,7 @@
         <v>451</v>
       </c>
       <c r="L51" s="2">
-        <v>43344</v>
+        <v>43373</v>
       </c>
       <c r="M51" t="s">
         <v>455</v>
@@ -4443,7 +4453,7 @@
         <v>451</v>
       </c>
       <c r="L60" s="2">
-        <v>43344</v>
+        <v>43373</v>
       </c>
       <c r="M60" t="s">
         <v>455</v>
@@ -4481,7 +4491,7 @@
         <v>451</v>
       </c>
       <c r="L61" s="2">
-        <v>43344</v>
+        <v>43373</v>
       </c>
       <c r="M61" t="s">
         <v>464</v>
@@ -4519,7 +4529,7 @@
         <v>451</v>
       </c>
       <c r="L62" s="2">
-        <v>43344</v>
+        <v>43373</v>
       </c>
       <c r="M62" t="s">
         <v>464</v>
@@ -4557,7 +4567,7 @@
         <v>451</v>
       </c>
       <c r="L63" s="2">
-        <v>43344</v>
+        <v>43373</v>
       </c>
       <c r="M63" t="s">
         <v>464</v>
@@ -4735,7 +4745,7 @@
         <v>451</v>
       </c>
       <c r="L68" s="2">
-        <v>43344</v>
+        <v>43373</v>
       </c>
       <c r="M68" t="s">
         <v>455</v>
@@ -4869,7 +4879,7 @@
         <v>450</v>
       </c>
       <c r="L72" s="2">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="M72" t="s">
         <v>452</v>
@@ -4907,7 +4917,7 @@
         <v>450</v>
       </c>
       <c r="L73" s="2">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="M73" t="s">
         <v>452</v>
@@ -4945,7 +4955,7 @@
         <v>450</v>
       </c>
       <c r="L74" s="2">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="M74" t="s">
         <v>452</v>
@@ -4983,7 +4993,7 @@
         <v>450</v>
       </c>
       <c r="L75" s="2">
-        <v>43374</v>
+        <v>43404</v>
       </c>
       <c r="M75" t="s">
         <v>452</v>
@@ -5059,7 +5069,7 @@
         <v>451</v>
       </c>
       <c r="L77" s="2">
-        <v>43344</v>
+        <v>43373</v>
       </c>
       <c r="M77" t="s">
         <v>455</v>
@@ -5097,7 +5107,7 @@
         <v>451</v>
       </c>
       <c r="L78" s="2">
-        <v>43344</v>
+        <v>43373</v>
       </c>
       <c r="M78" t="s">
         <v>463</v>
@@ -5135,7 +5145,7 @@
         <v>451</v>
       </c>
       <c r="L79" s="2">
-        <v>43344</v>
+        <v>43373</v>
       </c>
       <c r="M79" t="s">
         <v>463</v>
@@ -5173,7 +5183,7 @@
         <v>451</v>
       </c>
       <c r="L80" s="2">
-        <v>43344</v>
+        <v>43373</v>
       </c>
       <c r="M80" t="s">
         <v>463</v>
@@ -5211,7 +5221,7 @@
         <v>451</v>
       </c>
       <c r="L81" s="2">
-        <v>43344</v>
+        <v>43373</v>
       </c>
       <c r="M81" t="s">
         <v>463</v>
@@ -5248,8 +5258,12 @@
       <c r="K82" t="s">
         <v>451</v>
       </c>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
+      <c r="L82" s="2">
+        <v>43373</v>
+      </c>
+      <c r="M82" s="4" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
@@ -5282,8 +5296,12 @@
       <c r="K83" t="s">
         <v>451</v>
       </c>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
+      <c r="L83" s="2">
+        <v>43373</v>
+      </c>
+      <c r="M83" s="4" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
@@ -5316,8 +5334,12 @@
       <c r="K84" t="s">
         <v>451</v>
       </c>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
+      <c r="L84" s="2">
+        <v>43373</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
@@ -5350,8 +5372,12 @@
       <c r="K85" t="s">
         <v>451</v>
       </c>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
+      <c r="L85" s="5">
+        <v>43343</v>
+      </c>
+      <c r="M85" s="4" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
@@ -5384,8 +5410,12 @@
       <c r="K86" t="s">
         <v>451</v>
       </c>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
+      <c r="L86" s="5">
+        <v>43343</v>
+      </c>
+      <c r="M86" s="4" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
@@ -5418,8 +5448,12 @@
       <c r="K87" t="s">
         <v>451</v>
       </c>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
+      <c r="L87" s="2">
+        <v>43465</v>
+      </c>
+      <c r="M87" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
@@ -5452,8 +5486,12 @@
       <c r="K88" t="s">
         <v>451</v>
       </c>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
+      <c r="L88" s="2">
+        <v>43465</v>
+      </c>
+      <c r="M88" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
@@ -5486,8 +5524,12 @@
       <c r="K89" t="s">
         <v>451</v>
       </c>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
+      <c r="L89" s="2">
+        <v>43465</v>
+      </c>
+      <c r="M89" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
@@ -5520,8 +5562,12 @@
       <c r="K90" t="s">
         <v>451</v>
       </c>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
+      <c r="L90" s="2">
+        <v>43465</v>
+      </c>
+      <c r="M90" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
@@ -5554,8 +5600,12 @@
       <c r="K91" t="s">
         <v>451</v>
       </c>
-      <c r="L91" s="4"/>
-      <c r="M91" s="4"/>
+      <c r="L91" s="2">
+        <v>43465</v>
+      </c>
+      <c r="M91" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
@@ -5588,8 +5638,12 @@
       <c r="K92" t="s">
         <v>451</v>
       </c>
-      <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
+      <c r="L92" s="2">
+        <v>43465</v>
+      </c>
+      <c r="M92" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
@@ -5622,8 +5676,12 @@
       <c r="K93" t="s">
         <v>451</v>
       </c>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
+      <c r="L93" s="2">
+        <v>43465</v>
+      </c>
+      <c r="M93" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
@@ -5656,8 +5714,12 @@
       <c r="K94" t="s">
         <v>451</v>
       </c>
-      <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
+      <c r="L94" s="2">
+        <v>43465</v>
+      </c>
+      <c r="M94" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
@@ -5690,8 +5752,12 @@
       <c r="K95" t="s">
         <v>451</v>
       </c>
-      <c r="L95" s="4"/>
-      <c r="M95" s="4"/>
+      <c r="L95" s="2">
+        <v>43465</v>
+      </c>
+      <c r="M95" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
@@ -5724,8 +5790,12 @@
       <c r="K96" t="s">
         <v>451</v>
       </c>
-      <c r="L96" s="4"/>
-      <c r="M96" s="4"/>
+      <c r="L96" s="2">
+        <v>43465</v>
+      </c>
+      <c r="M96" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
@@ -6101,7 +6171,7 @@
         <v>451</v>
       </c>
       <c r="L106" s="2">
-        <v>43344</v>
+        <v>43373</v>
       </c>
       <c r="M106" t="s">
         <v>463</v>
@@ -6139,7 +6209,7 @@
         <v>451</v>
       </c>
       <c r="L107" s="2">
-        <v>43344</v>
+        <v>43373</v>
       </c>
       <c r="M107" t="s">
         <v>463</v>
@@ -6177,7 +6247,7 @@
         <v>451</v>
       </c>
       <c r="L108" s="2">
-        <v>43344</v>
+        <v>43373</v>
       </c>
       <c r="M108" t="s">
         <v>463</v>
@@ -6215,7 +6285,7 @@
         <v>451</v>
       </c>
       <c r="L109" s="2">
-        <v>43344</v>
+        <v>43373</v>
       </c>
       <c r="M109" t="s">
         <v>463</v>
@@ -6253,7 +6323,7 @@
         <v>451</v>
       </c>
       <c r="L110" s="2">
-        <v>43344</v>
+        <v>43373</v>
       </c>
       <c r="M110" t="s">
         <v>463</v>
@@ -6291,7 +6361,7 @@
         <v>451</v>
       </c>
       <c r="L111" s="2">
-        <v>43344</v>
+        <v>43373</v>
       </c>
       <c r="M111" t="s">
         <v>455</v>
@@ -6329,7 +6399,7 @@
         <v>451</v>
       </c>
       <c r="L112" s="2">
-        <v>43344</v>
+        <v>43373</v>
       </c>
       <c r="M112" t="s">
         <v>468</v>
@@ -6367,7 +6437,7 @@
         <v>451</v>
       </c>
       <c r="L113" s="2">
-        <v>43344</v>
+        <v>43373</v>
       </c>
       <c r="M113" t="s">
         <v>468</v>
@@ -6519,7 +6589,7 @@
         <v>457</v>
       </c>
       <c r="L117" s="2">
-        <v>43435</v>
+        <v>43465</v>
       </c>
       <c r="M117" t="s">
         <v>458</v>
@@ -6557,7 +6627,7 @@
         <v>457</v>
       </c>
       <c r="L118" s="2">
-        <v>43435</v>
+        <v>43465</v>
       </c>
       <c r="M118" t="s">
         <v>458</v>
@@ -6595,7 +6665,7 @@
         <v>457</v>
       </c>
       <c r="L119" s="2">
-        <v>43435</v>
+        <v>43465</v>
       </c>
       <c r="M119" t="s">
         <v>458</v>
@@ -6633,7 +6703,7 @@
         <v>457</v>
       </c>
       <c r="L120" s="2">
-        <v>43435</v>
+        <v>43465</v>
       </c>
       <c r="M120" t="s">
         <v>458</v>
@@ -6664,6 +6734,18 @@
       <c r="I121" t="s">
         <v>437</v>
       </c>
+      <c r="J121">
+        <v>70</v>
+      </c>
+      <c r="K121" t="s">
+        <v>451</v>
+      </c>
+      <c r="L121" s="2">
+        <v>43312</v>
+      </c>
+      <c r="M121" s="4" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
@@ -6772,6 +6854,12 @@
       <c r="K124" t="s">
         <v>451</v>
       </c>
+      <c r="L124" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M124" s="4" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
@@ -6804,6 +6892,12 @@
       <c r="K125" t="s">
         <v>451</v>
       </c>
+      <c r="L125" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M125" s="4" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
@@ -6950,8 +7044,12 @@
       <c r="K129" t="s">
         <v>451</v>
       </c>
-      <c r="L129" s="4"/>
-      <c r="M129" s="4"/>
+      <c r="L129" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M129" s="4" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
@@ -6984,8 +7082,12 @@
       <c r="K130" t="s">
         <v>451</v>
       </c>
-      <c r="L130" s="4"/>
-      <c r="M130" s="4"/>
+      <c r="L130" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M130" s="4" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
@@ -7018,8 +7120,12 @@
       <c r="K131" t="s">
         <v>451</v>
       </c>
-      <c r="L131" s="4"/>
-      <c r="M131" s="4"/>
+      <c r="L131" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M131" s="4" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
@@ -7052,8 +7158,12 @@
       <c r="K132" t="s">
         <v>451</v>
       </c>
-      <c r="L132" s="4"/>
-      <c r="M132" s="4"/>
+      <c r="L132" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M132" s="4" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
@@ -7086,8 +7196,12 @@
       <c r="K133" t="s">
         <v>451</v>
       </c>
-      <c r="L133" s="4"/>
-      <c r="M133" s="4"/>
+      <c r="L133" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M133" s="4" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
@@ -7120,8 +7234,12 @@
       <c r="K134" t="s">
         <v>453</v>
       </c>
-      <c r="L134" s="4"/>
-      <c r="M134" s="4"/>
+      <c r="L134" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M134" s="4" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
@@ -7154,8 +7272,12 @@
       <c r="K135" t="s">
         <v>453</v>
       </c>
-      <c r="L135" s="4"/>
-      <c r="M135" s="4"/>
+      <c r="L135" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M135" s="4" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
@@ -7188,8 +7310,12 @@
       <c r="K136" t="s">
         <v>453</v>
       </c>
-      <c r="L136" s="4"/>
-      <c r="M136" s="4"/>
+      <c r="L136" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M136" s="4" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
@@ -7222,8 +7348,12 @@
       <c r="K137" t="s">
         <v>453</v>
       </c>
-      <c r="L137" s="4"/>
-      <c r="M137" s="4"/>
+      <c r="L137" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M137" s="4" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
@@ -7257,7 +7387,7 @@
         <v>451</v>
       </c>
       <c r="L138" s="2">
-        <v>43435</v>
+        <v>43465</v>
       </c>
       <c r="M138" t="s">
         <v>469</v>
@@ -7295,7 +7425,7 @@
         <v>451</v>
       </c>
       <c r="L139" s="2">
-        <v>43435</v>
+        <v>43465</v>
       </c>
       <c r="M139" t="s">
         <v>469</v>
@@ -7371,7 +7501,7 @@
         <v>451</v>
       </c>
       <c r="L141" s="2">
-        <v>43435</v>
+        <v>43465</v>
       </c>
       <c r="M141" t="s">
         <v>469</v>
@@ -7409,7 +7539,7 @@
         <v>451</v>
       </c>
       <c r="L142" s="2">
-        <v>43435</v>
+        <v>43465</v>
       </c>
       <c r="M142" t="s">
         <v>469</v>
@@ -7447,7 +7577,7 @@
         <v>451</v>
       </c>
       <c r="L143" s="2">
-        <v>43435</v>
+        <v>43465</v>
       </c>
       <c r="M143" t="s">
         <v>469</v>
@@ -7485,7 +7615,7 @@
         <v>451</v>
       </c>
       <c r="L144" s="2">
-        <v>43435</v>
+        <v>43465</v>
       </c>
       <c r="M144" t="s">
         <v>469</v>
@@ -7523,7 +7653,7 @@
         <v>451</v>
       </c>
       <c r="L145" s="2">
-        <v>43435</v>
+        <v>43465</v>
       </c>
       <c r="M145" t="s">
         <v>469</v>
@@ -7599,7 +7729,7 @@
         <v>451</v>
       </c>
       <c r="L147" s="2">
-        <v>43435</v>
+        <v>43465</v>
       </c>
       <c r="M147" t="s">
         <v>469</v>
@@ -7637,7 +7767,7 @@
         <v>451</v>
       </c>
       <c r="L148" s="2">
-        <v>43435</v>
+        <v>43465</v>
       </c>
       <c r="M148" t="s">
         <v>469</v>
@@ -8869,13 +8999,17 @@
         <v>437</v>
       </c>
       <c r="J182">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K182" t="s">
         <v>451</v>
       </c>
-      <c r="L182" s="4"/>
-      <c r="M182" s="4"/>
+      <c r="L182" s="2">
+        <v>43312</v>
+      </c>
+      <c r="M182" s="4" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
@@ -8903,13 +9037,17 @@
         <v>435</v>
       </c>
       <c r="J183">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K183" t="s">
         <v>451</v>
       </c>
-      <c r="L183" s="4"/>
-      <c r="M183" s="4"/>
+      <c r="L183" s="2">
+        <v>43312</v>
+      </c>
+      <c r="M183" s="4" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
@@ -9018,8 +9156,12 @@
       <c r="K186" t="s">
         <v>451</v>
       </c>
-      <c r="L186" s="4"/>
-      <c r="M186" s="4"/>
+      <c r="L186" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M186" s="4" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
@@ -9052,8 +9194,12 @@
       <c r="K187" t="s">
         <v>451</v>
       </c>
-      <c r="L187" s="4"/>
-      <c r="M187" s="4"/>
+      <c r="L187" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M187" s="4" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
@@ -10217,7 +10363,12 @@
       <c r="K218" t="s">
         <v>451</v>
       </c>
-      <c r="L218" s="4"/>
+      <c r="L218" s="5">
+        <v>43312</v>
+      </c>
+      <c r="M218" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
@@ -10355,8 +10506,12 @@
       <c r="K222" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="L222" s="4"/>
-      <c r="M222" s="4"/>
+      <c r="L222" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M222" s="4" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
@@ -10383,10 +10538,18 @@
       <c r="I223" t="s">
         <v>434</v>
       </c>
-      <c r="J223" s="4"/>
-      <c r="K223" s="4"/>
-      <c r="L223" s="4"/>
-      <c r="M223" s="4"/>
+      <c r="J223" s="4">
+        <v>10</v>
+      </c>
+      <c r="K223" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="L223" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M223" s="4" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
@@ -10413,10 +10576,18 @@
       <c r="I224" t="s">
         <v>434</v>
       </c>
-      <c r="J224" s="4"/>
-      <c r="K224" s="4"/>
-      <c r="L224" s="4"/>
-      <c r="M224" s="4"/>
+      <c r="J224" s="4">
+        <v>10</v>
+      </c>
+      <c r="K224" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="L224" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M224" s="4" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
@@ -10443,10 +10614,18 @@
       <c r="I225" t="s">
         <v>434</v>
       </c>
-      <c r="J225" s="4"/>
-      <c r="K225" s="4"/>
-      <c r="L225" s="4"/>
-      <c r="M225" s="4"/>
+      <c r="J225" s="4">
+        <v>10</v>
+      </c>
+      <c r="K225" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="L225" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M225" s="4" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
@@ -10473,10 +10652,18 @@
       <c r="I226" t="s">
         <v>434</v>
       </c>
-      <c r="J226" s="4"/>
-      <c r="K226" s="4"/>
-      <c r="L226" s="4"/>
-      <c r="M226" s="4"/>
+      <c r="J226" s="4">
+        <v>10</v>
+      </c>
+      <c r="K226" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="L226" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M226" s="4" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
@@ -10503,10 +10690,18 @@
       <c r="I227" t="s">
         <v>434</v>
       </c>
-      <c r="J227" s="4"/>
-      <c r="K227" s="4"/>
-      <c r="L227" s="4"/>
-      <c r="M227" s="4"/>
+      <c r="J227" s="4">
+        <v>10</v>
+      </c>
+      <c r="K227" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="L227" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M227" s="4" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
@@ -10533,10 +10728,18 @@
       <c r="I228" t="s">
         <v>435</v>
       </c>
-      <c r="J228" s="4"/>
-      <c r="K228" s="4"/>
-      <c r="L228" s="4"/>
-      <c r="M228" s="4"/>
+      <c r="J228" s="4">
+        <v>10</v>
+      </c>
+      <c r="K228" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="L228" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M228" s="4" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
@@ -10563,10 +10766,18 @@
       <c r="I229" t="s">
         <v>435</v>
       </c>
-      <c r="J229" s="4"/>
-      <c r="K229" s="4"/>
-      <c r="L229" s="4"/>
-      <c r="M229" s="4"/>
+      <c r="J229" s="4">
+        <v>10</v>
+      </c>
+      <c r="K229" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="L229" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M229" s="4" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
@@ -10593,10 +10804,18 @@
       <c r="I230" t="s">
         <v>435</v>
       </c>
-      <c r="J230" s="4"/>
-      <c r="K230" s="4"/>
-      <c r="L230" s="4"/>
-      <c r="M230" s="4"/>
+      <c r="J230" s="4">
+        <v>10</v>
+      </c>
+      <c r="K230" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="L230" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M230" s="4" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
@@ -10623,10 +10842,18 @@
       <c r="I231" t="s">
         <v>435</v>
       </c>
-      <c r="J231" s="4"/>
-      <c r="K231" s="4"/>
-      <c r="L231" s="4"/>
-      <c r="M231" s="4"/>
+      <c r="J231" s="4">
+        <v>10</v>
+      </c>
+      <c r="K231" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="L231" s="2">
+        <v>43343</v>
+      </c>
+      <c r="M231" s="4" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
@@ -10774,7 +11001,7 @@
         <v>451</v>
       </c>
       <c r="L235" s="2">
-        <v>43435</v>
+        <v>43465</v>
       </c>
       <c r="M235" t="s">
         <v>469</v>
@@ -10812,7 +11039,7 @@
         <v>451</v>
       </c>
       <c r="L236" s="2">
-        <v>43435</v>
+        <v>43465</v>
       </c>
       <c r="M236" t="s">
         <v>469</v>
@@ -10850,7 +11077,7 @@
         <v>451</v>
       </c>
       <c r="L237" s="2">
-        <v>43435</v>
+        <v>43465</v>
       </c>
       <c r="M237" t="s">
         <v>469</v>
@@ -10888,7 +11115,7 @@
         <v>451</v>
       </c>
       <c r="L238" s="2">
-        <v>43435</v>
+        <v>43465</v>
       </c>
       <c r="M238" t="s">
         <v>469</v>
@@ -10926,7 +11153,7 @@
         <v>451</v>
       </c>
       <c r="L239" s="2">
-        <v>43435</v>
+        <v>43465</v>
       </c>
       <c r="M239" t="s">
         <v>469</v>
@@ -10964,7 +11191,7 @@
         <v>451</v>
       </c>
       <c r="L240" s="2">
-        <v>43435</v>
+        <v>43465</v>
       </c>
       <c r="M240" t="s">
         <v>469</v>
@@ -11002,7 +11229,7 @@
         <v>451</v>
       </c>
       <c r="L241" s="2">
-        <v>43435</v>
+        <v>43465</v>
       </c>
       <c r="M241" t="s">
         <v>469</v>
@@ -11040,7 +11267,7 @@
         <v>451</v>
       </c>
       <c r="L242" s="2">
-        <v>43435</v>
+        <v>43465</v>
       </c>
       <c r="M242" t="s">
         <v>469</v>
@@ -11078,7 +11305,7 @@
         <v>451</v>
       </c>
       <c r="L243" s="2">
-        <v>43435</v>
+        <v>43465</v>
       </c>
       <c r="M243" t="s">
         <v>469</v>
@@ -11116,7 +11343,7 @@
         <v>451</v>
       </c>
       <c r="L244" s="2">
-        <v>43435</v>
+        <v>43465</v>
       </c>
       <c r="M244" t="s">
         <v>469</v>
@@ -11153,8 +11380,12 @@
       <c r="K245" t="s">
         <v>451</v>
       </c>
-      <c r="L245" s="4"/>
-      <c r="M245" s="4"/>
+      <c r="L245" s="5">
+        <v>43343</v>
+      </c>
+      <c r="M245" s="4" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
@@ -11187,8 +11418,12 @@
       <c r="K246" t="s">
         <v>451</v>
       </c>
-      <c r="L246" s="4"/>
-      <c r="M246" s="4"/>
+      <c r="L246" s="5">
+        <v>43343</v>
+      </c>
+      <c r="M246" s="4" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
@@ -11221,8 +11456,12 @@
       <c r="K247" t="s">
         <v>451</v>
       </c>
-      <c r="L247" s="4"/>
-      <c r="M247" s="4"/>
+      <c r="L247" s="5">
+        <v>43343</v>
+      </c>
+      <c r="M247" s="4" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
@@ -11255,8 +11494,12 @@
       <c r="K248" t="s">
         <v>451</v>
       </c>
-      <c r="L248" s="4"/>
-      <c r="M248" s="4"/>
+      <c r="L248" s="5">
+        <v>43343</v>
+      </c>
+      <c r="M248" s="4" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
@@ -11689,7 +11932,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Latency.xlsx
+++ b/Latency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kthibault/Documents/GitHub/sandbox/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{78E8122F-1D0A-FC46-AA1F-952C9AEC7C21}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8A37DFAA-5E58-6B4F-BA52-E6C71243B78F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="2060" windowWidth="28660" windowHeight="17860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="479">
   <si>
     <t>Team</t>
   </si>
@@ -1458,6 +1458,9 @@
   </si>
   <si>
     <t>EcoCore not returning data on time; samples backlogged</t>
+  </si>
+  <si>
+    <t>NEON.DOM.SITE.DP1.20282.001</t>
   </si>
 </sst>
 </file>
@@ -2318,7 +2321,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2535,8 +2538,8 @@
       <c r="I6" t="s">
         <v>435</v>
       </c>
-      <c r="J6" t="s">
-        <v>7</v>
+      <c r="J6">
+        <v>100</v>
       </c>
       <c r="K6" t="s">
         <v>7</v>
@@ -2574,10 +2577,13 @@
         <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" t="s">
-        <v>7</v>
+        <v>453</v>
+      </c>
+      <c r="L7" s="2">
+        <v>43312</v>
+      </c>
+      <c r="M7" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -2609,10 +2615,13 @@
         <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" t="s">
-        <v>7</v>
+        <v>453</v>
+      </c>
+      <c r="L8" s="2">
+        <v>43312</v>
+      </c>
+      <c r="M8" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -2644,10 +2653,13 @@
         <v>90</v>
       </c>
       <c r="K9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" t="s">
-        <v>7</v>
+        <v>453</v>
+      </c>
+      <c r="L9" s="2">
+        <v>43312</v>
+      </c>
+      <c r="M9" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -6779,7 +6791,7 @@
         <v>453</v>
       </c>
       <c r="L122" s="2">
-        <v>43343</v>
+        <v>43312</v>
       </c>
       <c r="M122" t="s">
         <v>467</v>
@@ -6817,7 +6829,7 @@
         <v>453</v>
       </c>
       <c r="L123" s="2">
-        <v>43343</v>
+        <v>43312</v>
       </c>
       <c r="M123" t="s">
         <v>467</v>
@@ -6931,7 +6943,7 @@
         <v>453</v>
       </c>
       <c r="L126" s="2">
-        <v>43343</v>
+        <v>43312</v>
       </c>
       <c r="M126" t="s">
         <v>470</v>
@@ -6969,7 +6981,7 @@
         <v>453</v>
       </c>
       <c r="L127" s="2">
-        <v>43343</v>
+        <v>43312</v>
       </c>
       <c r="M127" t="s">
         <v>470</v>
@@ -7007,7 +7019,7 @@
         <v>453</v>
       </c>
       <c r="L128" s="2">
-        <v>43343</v>
+        <v>43312</v>
       </c>
       <c r="M128" t="s">
         <v>470</v>
@@ -9081,7 +9093,7 @@
         <v>453</v>
       </c>
       <c r="L184" s="2">
-        <v>43343</v>
+        <v>43312</v>
       </c>
       <c r="M184" t="s">
         <v>470</v>
@@ -9119,7 +9131,7 @@
         <v>453</v>
       </c>
       <c r="L185" s="2">
-        <v>43343</v>
+        <v>43312</v>
       </c>
       <c r="M185" t="s">
         <v>470</v>
@@ -11050,7 +11062,7 @@
         <v>209</v>
       </c>
       <c r="B237" t="s">
-        <v>386</v>
+        <v>478</v>
       </c>
       <c r="C237" t="s">
         <v>389</v>
@@ -11088,7 +11100,7 @@
         <v>209</v>
       </c>
       <c r="B238" t="s">
-        <v>386</v>
+        <v>478</v>
       </c>
       <c r="C238" t="s">
         <v>389</v>
@@ -11126,7 +11138,7 @@
         <v>209</v>
       </c>
       <c r="B239" t="s">
-        <v>386</v>
+        <v>478</v>
       </c>
       <c r="C239" t="s">
         <v>389</v>
@@ -11164,7 +11176,7 @@
         <v>209</v>
       </c>
       <c r="B240" t="s">
-        <v>386</v>
+        <v>478</v>
       </c>
       <c r="C240" t="s">
         <v>389</v>
@@ -11202,7 +11214,7 @@
         <v>209</v>
       </c>
       <c r="B241" t="s">
-        <v>386</v>
+        <v>478</v>
       </c>
       <c r="C241" t="s">
         <v>389</v>
@@ -11240,7 +11252,7 @@
         <v>209</v>
       </c>
       <c r="B242" t="s">
-        <v>386</v>
+        <v>478</v>
       </c>
       <c r="C242" t="s">
         <v>389</v>
@@ -11924,6 +11936,7 @@
   </sheetData>
   <autoFilter ref="A1:I260" xr:uid="{F920CE2C-728A-1C45-9F6A-0B2E6D995C2C}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/Latency.xlsx
+++ b/Latency.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kthibault/Documents/GitHub/sandbox/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8A37DFAA-5E58-6B4F-BA52-E6C71243B78F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A0C6C8AC-E94C-5948-BFBB-88635A85A6D5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="2060" windowWidth="28660" windowHeight="17860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1580" yWindow="440" windowWidth="35340" windowHeight="17860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wait Times" sheetId="1" r:id="rId1"/>
     <sheet name="Legend" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Wait Times'!$A$1:$I$260</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Wait Times'!$A$1:$H$260</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="480">
   <si>
     <t>Team</t>
   </si>
@@ -1430,9 +1430,6 @@
     <t>Waiting on HQ Scientist availability to complete error correction of 2013 data</t>
   </si>
   <si>
-    <t>Awaiting 2017 data - proceeding on schedule; requires final sampling bout for year to be completed; all ticks identified to species; then samples selected for pathogen testing</t>
-  </si>
-  <si>
     <t>BMI lab processing backlog of samples</t>
   </si>
   <si>
@@ -1445,9 +1442,6 @@
     <t>Waiting for final 2017 data from lab</t>
   </si>
   <si>
-    <t>Drexel lab contractually has until June 30 to return data</t>
-  </si>
-  <si>
     <t>Lab contractually has until June 30 to return data</t>
   </si>
   <si>
@@ -1461,6 +1455,15 @@
   </si>
   <si>
     <t>NEON.DOM.SITE.DP1.20282.001</t>
+  </si>
+  <si>
+    <t>Legacy data definition</t>
+  </si>
+  <si>
+    <t>Data we would expect to have received by May 1, 2018, given normal, ongoing operational latencies</t>
+  </si>
+  <si>
+    <t>Drexel lab working through sample backlog since Sept 2016 - contractually have until June 30 to return data</t>
   </si>
 </sst>
 </file>
@@ -2315,13 +2318,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M260"/>
+  <dimension ref="A1:L260"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomRight" activeCell="L82" sqref="L82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2331,11 +2334,10 @@
     <col min="4" max="4" width="33.5" customWidth="1"/>
     <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2357,23 +2359,23 @@
       <c r="G1" t="s">
         <v>431</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" t="s">
         <v>432</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="J1" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="M1" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2395,20 +2397,20 @@
       <c r="G2">
         <v>45</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" t="s">
         <v>439</v>
       </c>
-      <c r="J2">
+      <c r="I2">
         <v>100</v>
       </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
       <c r="K2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2430,20 +2432,20 @@
       <c r="G3">
         <v>45</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H3" t="s">
         <v>439</v>
       </c>
-      <c r="J3">
+      <c r="I3">
         <v>100</v>
       </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
       <c r="K3" t="s">
         <v>7</v>
       </c>
-      <c r="L3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2465,20 +2467,20 @@
       <c r="G4">
         <v>45</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H4" t="s">
         <v>439</v>
       </c>
-      <c r="J4">
+      <c r="I4">
         <v>100</v>
       </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
       <c r="K4" t="s">
         <v>7</v>
       </c>
-      <c r="L4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2500,20 +2502,20 @@
       <c r="G5">
         <v>45</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H5" t="s">
         <v>439</v>
       </c>
-      <c r="J5">
+      <c r="I5">
         <v>100</v>
       </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
       <c r="K5" t="s">
         <v>7</v>
       </c>
-      <c r="L5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2535,20 +2537,20 @@
       <c r="G6">
         <v>60</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H6" t="s">
         <v>435</v>
       </c>
-      <c r="J6">
+      <c r="I6">
         <v>100</v>
       </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
       <c r="K6" t="s">
         <v>7</v>
       </c>
-      <c r="L6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -2570,23 +2572,23 @@
       <c r="G7">
         <v>105</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H7" t="s">
         <v>435</v>
       </c>
-      <c r="J7">
+      <c r="I7">
         <v>90</v>
       </c>
-      <c r="K7" t="s">
+      <c r="J7" t="s">
         <v>453</v>
       </c>
-      <c r="L7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" t="s">
+      <c r="L7" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -2608,23 +2610,23 @@
       <c r="G8">
         <v>105</v>
       </c>
-      <c r="I8" t="s">
+      <c r="H8" t="s">
         <v>435</v>
       </c>
-      <c r="J8">
+      <c r="I8">
         <v>90</v>
       </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s">
         <v>453</v>
       </c>
-      <c r="L8" s="2">
+      <c r="K8" s="2">
         <v>43312</v>
       </c>
-      <c r="M8" t="s">
+      <c r="L8" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2646,23 +2648,23 @@
       <c r="G9">
         <v>30</v>
       </c>
-      <c r="I9" t="s">
+      <c r="H9" t="s">
         <v>434</v>
       </c>
-      <c r="J9">
+      <c r="I9">
         <v>90</v>
       </c>
-      <c r="K9" t="s">
+      <c r="J9" t="s">
         <v>453</v>
       </c>
-      <c r="L9" s="2">
+      <c r="K9" s="2">
         <v>43312</v>
       </c>
-      <c r="M9" t="s">
+      <c r="L9" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2684,20 +2686,20 @@
       <c r="G10">
         <v>60</v>
       </c>
-      <c r="I10" t="s">
+      <c r="H10" t="s">
         <v>435</v>
       </c>
-      <c r="J10">
+      <c r="I10">
         <v>100</v>
       </c>
+      <c r="J10" t="s">
+        <v>7</v>
+      </c>
       <c r="K10" t="s">
         <v>7</v>
       </c>
-      <c r="L10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -2719,20 +2721,20 @@
       <c r="G11">
         <v>60</v>
       </c>
-      <c r="I11" t="s">
+      <c r="H11" t="s">
         <v>435</v>
       </c>
-      <c r="J11">
+      <c r="I11">
         <v>100</v>
       </c>
+      <c r="J11" t="s">
+        <v>7</v>
+      </c>
       <c r="K11" t="s">
         <v>7</v>
       </c>
-      <c r="L11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2754,23 +2756,24 @@
       <c r="G12">
         <v>614</v>
       </c>
-      <c r="I12" t="s">
+      <c r="H12" t="s">
         <v>439</v>
       </c>
-      <c r="J12">
-        <v>12</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="I12">
+        <f>12+(100-12)/2</f>
+        <v>56</v>
+      </c>
+      <c r="J12" t="s">
         <v>450</v>
       </c>
-      <c r="L12" s="2">
+      <c r="K12" s="2">
         <v>43404</v>
       </c>
-      <c r="M12" t="s">
+      <c r="L12" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2792,23 +2795,24 @@
       <c r="G13">
         <v>614</v>
       </c>
-      <c r="I13" t="s">
+      <c r="H13" t="s">
         <v>439</v>
       </c>
-      <c r="J13">
-        <v>12</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="I13">
+        <f>12+(100-12)/2</f>
+        <v>56</v>
+      </c>
+      <c r="J13" t="s">
         <v>450</v>
       </c>
-      <c r="L13" s="2">
+      <c r="K13" s="2">
         <v>43404</v>
       </c>
-      <c r="M13" t="s">
+      <c r="L13" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -2830,23 +2834,24 @@
       <c r="G14">
         <v>614</v>
       </c>
-      <c r="I14" t="s">
+      <c r="H14" t="s">
         <v>439</v>
       </c>
-      <c r="J14">
-        <v>12</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="I14">
+        <f>12+(100-12)/2</f>
+        <v>56</v>
+      </c>
+      <c r="J14" t="s">
         <v>450</v>
       </c>
-      <c r="L14" s="2">
+      <c r="K14" s="2">
         <v>43404</v>
       </c>
-      <c r="M14" t="s">
+      <c r="L14" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2868,23 +2873,24 @@
       <c r="G15">
         <v>614</v>
       </c>
-      <c r="I15" t="s">
+      <c r="H15" t="s">
         <v>439</v>
       </c>
-      <c r="J15">
-        <v>12</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="I15">
+        <f>12+(100-12)/2</f>
+        <v>56</v>
+      </c>
+      <c r="J15" t="s">
         <v>450</v>
       </c>
-      <c r="L15" s="2">
+      <c r="K15" s="2">
         <v>43404</v>
       </c>
-      <c r="M15" t="s">
+      <c r="L15" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2906,20 +2912,20 @@
       <c r="G16">
         <v>330</v>
       </c>
-      <c r="I16" t="s">
+      <c r="H16" t="s">
         <v>439</v>
       </c>
-      <c r="J16">
+      <c r="I16">
         <v>100</v>
       </c>
+      <c r="J16" t="s">
+        <v>7</v>
+      </c>
       <c r="K16" t="s">
         <v>7</v>
       </c>
-      <c r="L16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2941,23 +2947,23 @@
       <c r="G17">
         <v>600</v>
       </c>
-      <c r="I17" t="s">
+      <c r="H17" t="s">
         <v>439</v>
       </c>
-      <c r="J17">
-        <v>80</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="I17">
+        <v>100</v>
+      </c>
+      <c r="J17" t="s">
         <v>450</v>
       </c>
-      <c r="L17" s="2">
+      <c r="K17" s="2">
         <v>43404</v>
       </c>
-      <c r="M17" t="s">
+      <c r="L17" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2979,23 +2985,23 @@
       <c r="G18">
         <v>600</v>
       </c>
-      <c r="I18" t="s">
+      <c r="H18" t="s">
         <v>439</v>
       </c>
-      <c r="J18">
-        <v>80</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="I18">
+        <v>100</v>
+      </c>
+      <c r="J18" t="s">
         <v>450</v>
       </c>
-      <c r="L18" s="2">
+      <c r="K18" s="2">
         <v>43404</v>
       </c>
-      <c r="M18" t="s">
+      <c r="L18" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -3017,20 +3023,20 @@
       <c r="G19">
         <v>75</v>
       </c>
-      <c r="I19" t="s">
+      <c r="H19" t="s">
         <v>434</v>
       </c>
-      <c r="J19">
+      <c r="I19">
         <v>100</v>
       </c>
+      <c r="J19" t="s">
+        <v>7</v>
+      </c>
       <c r="K19" t="s">
         <v>7</v>
       </c>
-      <c r="L19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -3052,20 +3058,20 @@
       <c r="G20">
         <v>330</v>
       </c>
-      <c r="I20" t="s">
+      <c r="H20" t="s">
         <v>439</v>
       </c>
-      <c r="J20">
+      <c r="I20">
         <v>100</v>
       </c>
+      <c r="J20" t="s">
+        <v>7</v>
+      </c>
       <c r="K20" t="s">
         <v>7</v>
       </c>
-      <c r="L20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -3087,20 +3093,20 @@
       <c r="G21">
         <v>330</v>
       </c>
-      <c r="I21" t="s">
+      <c r="H21" t="s">
         <v>439</v>
       </c>
-      <c r="J21">
+      <c r="I21">
         <v>100</v>
       </c>
+      <c r="J21" t="s">
+        <v>7</v>
+      </c>
       <c r="K21" t="s">
         <v>7</v>
       </c>
-      <c r="L21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -3122,23 +3128,23 @@
       <c r="G22">
         <v>60</v>
       </c>
-      <c r="I22" t="s">
+      <c r="H22" t="s">
         <v>435</v>
       </c>
-      <c r="J22">
+      <c r="I22">
         <v>95</v>
       </c>
-      <c r="K22" t="s">
+      <c r="J22" t="s">
         <v>453</v>
       </c>
-      <c r="L22" s="2">
+      <c r="K22" s="2">
         <v>43343</v>
       </c>
-      <c r="M22" t="s">
+      <c r="L22" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -3160,23 +3166,23 @@
       <c r="G23">
         <v>60</v>
       </c>
-      <c r="I23" t="s">
+      <c r="H23" t="s">
         <v>435</v>
       </c>
-      <c r="J23">
+      <c r="I23">
         <v>95</v>
       </c>
-      <c r="K23" t="s">
+      <c r="J23" t="s">
         <v>453</v>
       </c>
-      <c r="L23" s="2">
+      <c r="K23" s="2">
         <v>43343</v>
       </c>
-      <c r="M23" t="s">
+      <c r="L23" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -3198,23 +3204,23 @@
       <c r="G24">
         <v>270</v>
       </c>
-      <c r="I24" t="s">
+      <c r="H24" t="s">
         <v>437</v>
       </c>
-      <c r="J24">
+      <c r="I24">
         <v>60</v>
       </c>
-      <c r="K24" t="s">
+      <c r="J24" t="s">
         <v>451</v>
       </c>
-      <c r="L24" s="2">
+      <c r="K24" s="2">
         <v>43373</v>
       </c>
-      <c r="M24" t="s">
+      <c r="L24" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -3236,20 +3242,20 @@
       <c r="G25">
         <v>120</v>
       </c>
-      <c r="I25" t="s">
+      <c r="H25" t="s">
         <v>437</v>
       </c>
-      <c r="J25">
+      <c r="I25">
         <v>100</v>
       </c>
+      <c r="J25" t="s">
+        <v>7</v>
+      </c>
       <c r="K25" t="s">
         <v>7</v>
       </c>
-      <c r="L25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -3271,23 +3277,23 @@
       <c r="G26">
         <v>270</v>
       </c>
-      <c r="I26" t="s">
+      <c r="H26" t="s">
         <v>437</v>
       </c>
-      <c r="J26">
+      <c r="I26">
         <v>30</v>
       </c>
-      <c r="K26" t="s">
+      <c r="J26" t="s">
         <v>451</v>
       </c>
-      <c r="L26" s="2">
+      <c r="K26" s="2">
         <v>43373</v>
       </c>
-      <c r="M26" t="s">
+      <c r="L26" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -3309,20 +3315,20 @@
       <c r="G27">
         <v>60</v>
       </c>
-      <c r="I27" t="s">
+      <c r="H27" t="s">
         <v>435</v>
       </c>
-      <c r="J27">
+      <c r="I27">
         <v>100</v>
       </c>
+      <c r="J27" t="s">
+        <v>7</v>
+      </c>
       <c r="K27" t="s">
         <v>7</v>
       </c>
-      <c r="L27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -3344,20 +3350,20 @@
       <c r="G28">
         <v>60</v>
       </c>
-      <c r="I28" t="s">
+      <c r="H28" t="s">
         <v>435</v>
       </c>
-      <c r="J28">
+      <c r="I28">
         <v>100</v>
       </c>
+      <c r="J28" t="s">
+        <v>7</v>
+      </c>
       <c r="K28" t="s">
         <v>7</v>
       </c>
-      <c r="L28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -3379,20 +3385,20 @@
       <c r="G29">
         <v>60</v>
       </c>
-      <c r="I29" t="s">
+      <c r="H29" t="s">
         <v>435</v>
       </c>
-      <c r="J29">
+      <c r="I29">
         <v>100</v>
       </c>
+      <c r="J29" t="s">
+        <v>7</v>
+      </c>
       <c r="K29" t="s">
         <v>7</v>
       </c>
-      <c r="L29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -3414,20 +3420,20 @@
       <c r="G30">
         <v>30</v>
       </c>
-      <c r="I30" t="s">
+      <c r="H30" t="s">
         <v>434</v>
       </c>
-      <c r="J30">
+      <c r="I30">
         <v>100</v>
       </c>
+      <c r="J30" t="s">
+        <v>7</v>
+      </c>
       <c r="K30" t="s">
         <v>7</v>
       </c>
-      <c r="L30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -3449,23 +3455,23 @@
       <c r="G31">
         <v>255</v>
       </c>
-      <c r="I31" t="s">
+      <c r="H31" t="s">
         <v>439</v>
       </c>
-      <c r="J31">
-        <v>7</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="I31">
+        <v>7</v>
+      </c>
+      <c r="J31" t="s">
         <v>450</v>
       </c>
-      <c r="L31" s="2">
+      <c r="K31" s="2">
         <v>43404</v>
       </c>
-      <c r="M31" t="s">
+      <c r="L31" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -3487,23 +3493,23 @@
       <c r="G32">
         <v>255</v>
       </c>
-      <c r="I32" t="s">
+      <c r="H32" t="s">
         <v>439</v>
       </c>
-      <c r="J32">
-        <v>7</v>
-      </c>
-      <c r="K32" t="s">
+      <c r="I32">
+        <v>7</v>
+      </c>
+      <c r="J32" t="s">
         <v>450</v>
       </c>
-      <c r="L32" s="2">
+      <c r="K32" s="2">
         <v>43404</v>
       </c>
-      <c r="M32" t="s">
+      <c r="L32" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -3525,23 +3531,23 @@
       <c r="G33">
         <v>255</v>
       </c>
-      <c r="I33" t="s">
+      <c r="H33" t="s">
         <v>439</v>
       </c>
-      <c r="J33">
-        <v>7</v>
-      </c>
-      <c r="K33" t="s">
+      <c r="I33">
+        <v>7</v>
+      </c>
+      <c r="J33" t="s">
         <v>450</v>
       </c>
-      <c r="L33" s="2">
+      <c r="K33" s="2">
         <v>43404</v>
       </c>
-      <c r="M33" t="s">
+      <c r="L33" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -3563,23 +3569,23 @@
       <c r="G34">
         <v>255</v>
       </c>
-      <c r="I34" t="s">
+      <c r="H34" t="s">
         <v>439</v>
       </c>
-      <c r="J34">
-        <v>7</v>
-      </c>
-      <c r="K34" t="s">
+      <c r="I34">
+        <v>7</v>
+      </c>
+      <c r="J34" t="s">
         <v>450</v>
       </c>
-      <c r="L34" s="2">
+      <c r="K34" s="2">
         <v>43404</v>
       </c>
-      <c r="M34" t="s">
+      <c r="L34" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -3601,23 +3607,23 @@
       <c r="G35">
         <v>360</v>
       </c>
-      <c r="I35" t="s">
+      <c r="H35" t="s">
         <v>439</v>
       </c>
-      <c r="J35">
-        <v>6</v>
-      </c>
-      <c r="K35" t="s">
+      <c r="I35">
+        <v>6</v>
+      </c>
+      <c r="J35" t="s">
         <v>450</v>
       </c>
-      <c r="L35" s="2">
+      <c r="K35" s="2">
         <v>43465</v>
       </c>
-      <c r="M35" t="s">
+      <c r="L35" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -3639,23 +3645,23 @@
       <c r="G36">
         <v>360</v>
       </c>
-      <c r="I36" t="s">
+      <c r="H36" t="s">
         <v>439</v>
       </c>
-      <c r="J36">
-        <v>6</v>
-      </c>
-      <c r="K36" t="s">
+      <c r="I36">
+        <v>6</v>
+      </c>
+      <c r="J36" t="s">
         <v>450</v>
       </c>
-      <c r="L36" s="2">
+      <c r="K36" s="2">
         <v>43465</v>
       </c>
-      <c r="M36" t="s">
+      <c r="L36" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -3677,23 +3683,23 @@
       <c r="G37">
         <v>240</v>
       </c>
-      <c r="I37" t="s">
+      <c r="H37" t="s">
         <v>439</v>
       </c>
-      <c r="J37">
+      <c r="I37">
         <v>70</v>
       </c>
-      <c r="K37" t="s">
+      <c r="J37" t="s">
         <v>453</v>
       </c>
-      <c r="L37" s="2">
+      <c r="K37" s="2">
         <v>43343</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="L37" s="3" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -3715,23 +3721,23 @@
       <c r="G38">
         <v>420</v>
       </c>
-      <c r="I38" t="s">
+      <c r="H38" t="s">
         <v>439</v>
       </c>
-      <c r="J38">
-        <v>7</v>
-      </c>
-      <c r="K38" t="s">
+      <c r="I38">
+        <v>7</v>
+      </c>
+      <c r="J38" t="s">
         <v>450</v>
       </c>
-      <c r="L38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" t="s">
+      <c r="L38" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -3753,23 +3759,23 @@
       <c r="G39">
         <v>240</v>
       </c>
-      <c r="I39" t="s">
+      <c r="H39" t="s">
         <v>439</v>
       </c>
-      <c r="J39">
+      <c r="I39">
         <v>70</v>
       </c>
-      <c r="K39" t="s">
+      <c r="J39" t="s">
         <v>453</v>
       </c>
-      <c r="L39" s="2">
+      <c r="K39" s="2">
         <v>43343</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="L39" s="3" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -3791,23 +3797,23 @@
       <c r="G40">
         <v>240</v>
       </c>
-      <c r="I40" t="s">
+      <c r="H40" t="s">
         <v>439</v>
       </c>
-      <c r="J40">
+      <c r="I40">
         <v>70</v>
       </c>
-      <c r="K40" t="s">
+      <c r="J40" t="s">
         <v>453</v>
       </c>
-      <c r="L40" s="2">
+      <c r="K40" s="2">
         <v>43343</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="L40" s="3" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -3829,17 +3835,17 @@
       <c r="G41">
         <v>240</v>
       </c>
-      <c r="I41" t="s">
+      <c r="H41" t="s">
         <v>439</v>
       </c>
-      <c r="J41">
+      <c r="I41">
         <v>100</v>
       </c>
-      <c r="K41" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -3861,17 +3867,17 @@
       <c r="G42">
         <v>30</v>
       </c>
-      <c r="I42" t="s">
+      <c r="H42" t="s">
         <v>437</v>
       </c>
-      <c r="J42">
+      <c r="I42">
         <v>100</v>
       </c>
-      <c r="K42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -3893,23 +3899,23 @@
       <c r="G43">
         <v>90</v>
       </c>
-      <c r="I43" t="s">
+      <c r="H43" t="s">
         <v>434</v>
       </c>
-      <c r="J43">
+      <c r="I43">
         <v>90</v>
       </c>
-      <c r="K43" t="s">
+      <c r="J43" t="s">
         <v>457</v>
       </c>
-      <c r="L43" s="2">
+      <c r="K43" s="2">
         <v>43465</v>
       </c>
-      <c r="M43" t="s">
+      <c r="L43" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -3931,17 +3937,17 @@
       <c r="G44">
         <v>270</v>
       </c>
-      <c r="I44" t="s">
+      <c r="H44" t="s">
         <v>437</v>
       </c>
-      <c r="J44">
+      <c r="I44">
         <v>100</v>
       </c>
-      <c r="K44" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -3963,17 +3969,17 @@
       <c r="G45">
         <v>60</v>
       </c>
-      <c r="I45" t="s">
+      <c r="H45" t="s">
         <v>435</v>
       </c>
-      <c r="J45">
+      <c r="I45">
         <v>100</v>
       </c>
-      <c r="K45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -3995,17 +4001,17 @@
       <c r="G46">
         <v>120</v>
       </c>
-      <c r="I46" t="s">
+      <c r="H46" t="s">
         <v>437</v>
       </c>
-      <c r="J46">
+      <c r="I46">
         <v>100</v>
       </c>
-      <c r="K46" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -4027,17 +4033,17 @@
       <c r="G47">
         <v>270</v>
       </c>
-      <c r="I47" t="s">
+      <c r="H47" t="s">
         <v>437</v>
       </c>
-      <c r="J47">
+      <c r="I47">
         <v>100</v>
       </c>
-      <c r="K47" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -4059,17 +4065,17 @@
       <c r="G48">
         <v>45</v>
       </c>
-      <c r="I48" t="s">
+      <c r="H48" t="s">
         <v>434</v>
       </c>
-      <c r="J48">
+      <c r="I48">
         <v>100</v>
       </c>
-      <c r="K48" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -4091,17 +4097,17 @@
       <c r="G49">
         <v>120</v>
       </c>
-      <c r="I49" t="s">
+      <c r="H49" t="s">
         <v>437</v>
       </c>
-      <c r="J49">
+      <c r="I49">
         <v>100</v>
       </c>
-      <c r="K49" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -4123,17 +4129,17 @@
       <c r="G50">
         <v>60</v>
       </c>
-      <c r="I50" t="s">
+      <c r="H50" t="s">
         <v>435</v>
       </c>
-      <c r="J50">
+      <c r="I50">
         <v>100</v>
       </c>
-      <c r="K50" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -4155,23 +4161,23 @@
       <c r="G51">
         <v>270</v>
       </c>
-      <c r="I51" t="s">
+      <c r="H51" t="s">
         <v>437</v>
       </c>
-      <c r="J51">
+      <c r="I51">
         <v>75</v>
       </c>
-      <c r="K51" t="s">
+      <c r="J51" t="s">
         <v>451</v>
       </c>
-      <c r="L51" s="2">
+      <c r="K51" s="2">
         <v>43373</v>
       </c>
-      <c r="M51" t="s">
+      <c r="L51" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -4193,17 +4199,17 @@
       <c r="G52">
         <v>30</v>
       </c>
-      <c r="I52" t="s">
+      <c r="H52" t="s">
         <v>434</v>
       </c>
-      <c r="J52">
+      <c r="I52">
         <v>100</v>
       </c>
-      <c r="K52" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -4225,17 +4231,17 @@
       <c r="G53">
         <v>30</v>
       </c>
-      <c r="I53" t="s">
+      <c r="H53" t="s">
         <v>434</v>
       </c>
-      <c r="J53">
+      <c r="I53">
         <v>100</v>
       </c>
-      <c r="K53" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>2</v>
       </c>
@@ -4257,17 +4263,17 @@
       <c r="G54">
         <v>30</v>
       </c>
-      <c r="I54" t="s">
+      <c r="H54" t="s">
         <v>434</v>
       </c>
-      <c r="J54">
+      <c r="I54">
         <v>100</v>
       </c>
-      <c r="K54" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -4289,17 +4295,17 @@
       <c r="G55">
         <v>135</v>
       </c>
-      <c r="I55" t="s">
+      <c r="H55" t="s">
         <v>434</v>
       </c>
-      <c r="J55">
+      <c r="I55">
         <v>100</v>
       </c>
-      <c r="K55" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -4321,17 +4327,17 @@
       <c r="G56">
         <v>135</v>
       </c>
-      <c r="I56" t="s">
+      <c r="H56" t="s">
         <v>434</v>
       </c>
-      <c r="J56">
+      <c r="I56">
         <v>100</v>
       </c>
-      <c r="K56" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -4353,17 +4359,17 @@
       <c r="G57">
         <v>30</v>
       </c>
-      <c r="I57" t="s">
+      <c r="H57" t="s">
         <v>434</v>
       </c>
-      <c r="J57">
+      <c r="I57">
         <v>100</v>
       </c>
-      <c r="K57" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -4385,17 +4391,17 @@
       <c r="G58">
         <v>30</v>
       </c>
-      <c r="I58" t="s">
+      <c r="H58" t="s">
         <v>434</v>
       </c>
-      <c r="J58">
+      <c r="I58">
         <v>100</v>
       </c>
-      <c r="K58" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>2</v>
       </c>
@@ -4417,23 +4423,23 @@
       <c r="G59">
         <v>270</v>
       </c>
-      <c r="I59" t="s">
+      <c r="H59" t="s">
         <v>437</v>
       </c>
-      <c r="J59">
+      <c r="I59">
         <v>60</v>
       </c>
-      <c r="K59" t="s">
+      <c r="J59" t="s">
         <v>453</v>
       </c>
-      <c r="L59" s="2">
+      <c r="K59" s="2">
         <v>43343</v>
       </c>
-      <c r="M59" t="s">
+      <c r="L59" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -4455,23 +4461,23 @@
       <c r="G60">
         <v>270</v>
       </c>
-      <c r="I60" t="s">
+      <c r="H60" t="s">
         <v>437</v>
       </c>
-      <c r="J60">
+      <c r="I60">
         <v>50</v>
       </c>
-      <c r="K60" t="s">
+      <c r="J60" t="s">
         <v>451</v>
       </c>
-      <c r="L60" s="2">
+      <c r="K60" s="2">
         <v>43373</v>
       </c>
-      <c r="M60" t="s">
+      <c r="L60" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -4493,23 +4499,23 @@
       <c r="G61" t="s">
         <v>7</v>
       </c>
-      <c r="I61" t="s">
+      <c r="H61" t="s">
         <v>441</v>
       </c>
-      <c r="J61">
+      <c r="I61">
         <v>80</v>
       </c>
-      <c r="K61" t="s">
+      <c r="J61" t="s">
         <v>451</v>
       </c>
-      <c r="L61" s="2">
+      <c r="K61" s="2">
         <v>43373</v>
       </c>
-      <c r="M61" t="s">
+      <c r="L61" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -4531,23 +4537,23 @@
       <c r="G62" t="s">
         <v>7</v>
       </c>
-      <c r="I62" t="s">
+      <c r="H62" t="s">
         <v>441</v>
       </c>
-      <c r="J62">
+      <c r="I62">
         <v>80</v>
       </c>
-      <c r="K62" t="s">
+      <c r="J62" t="s">
         <v>451</v>
       </c>
-      <c r="L62" s="2">
+      <c r="K62" s="2">
         <v>43373</v>
       </c>
-      <c r="M62" t="s">
+      <c r="L62" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -4569,23 +4575,23 @@
       <c r="G63" t="s">
         <v>7</v>
       </c>
-      <c r="I63" t="s">
+      <c r="H63" t="s">
         <v>441</v>
       </c>
-      <c r="J63">
+      <c r="I63">
         <v>80</v>
       </c>
-      <c r="K63" t="s">
+      <c r="J63" t="s">
         <v>451</v>
       </c>
-      <c r="L63" s="2">
+      <c r="K63" s="2">
         <v>43373</v>
       </c>
-      <c r="M63" t="s">
+      <c r="L63" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -4607,20 +4613,20 @@
       <c r="G64">
         <v>60</v>
       </c>
-      <c r="I64" t="s">
+      <c r="H64" t="s">
         <v>435</v>
       </c>
-      <c r="J64">
+      <c r="I64">
         <v>100</v>
       </c>
+      <c r="J64" t="s">
+        <v>7</v>
+      </c>
       <c r="K64" t="s">
         <v>7</v>
       </c>
-      <c r="L64" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -4642,20 +4648,20 @@
       <c r="G65">
         <v>60</v>
       </c>
-      <c r="I65" t="s">
+      <c r="H65" t="s">
         <v>435</v>
       </c>
-      <c r="J65">
+      <c r="I65">
         <v>100</v>
       </c>
+      <c r="J65" t="s">
+        <v>7</v>
+      </c>
       <c r="K65" t="s">
         <v>7</v>
       </c>
-      <c r="L65" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -4677,20 +4683,20 @@
       <c r="G66">
         <v>60</v>
       </c>
-      <c r="I66" t="s">
+      <c r="H66" t="s">
         <v>434</v>
       </c>
-      <c r="J66">
+      <c r="I66">
         <v>100</v>
       </c>
+      <c r="J66" t="s">
+        <v>7</v>
+      </c>
       <c r="K66" t="s">
         <v>7</v>
       </c>
-      <c r="L66" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -4712,20 +4718,20 @@
       <c r="G67">
         <v>60</v>
       </c>
-      <c r="I67" t="s">
+      <c r="H67" t="s">
         <v>435</v>
       </c>
-      <c r="J67">
+      <c r="I67">
         <v>100</v>
       </c>
+      <c r="J67" t="s">
+        <v>7</v>
+      </c>
       <c r="K67" t="s">
         <v>7</v>
       </c>
-      <c r="L67" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -4747,23 +4753,23 @@
       <c r="G68">
         <v>270</v>
       </c>
-      <c r="I68" t="s">
+      <c r="H68" t="s">
         <v>437</v>
       </c>
-      <c r="J68">
+      <c r="I68">
         <v>50</v>
       </c>
-      <c r="K68" t="s">
+      <c r="J68" t="s">
         <v>451</v>
       </c>
-      <c r="L68" s="2">
+      <c r="K68" s="2">
         <v>43373</v>
       </c>
-      <c r="M68" t="s">
+      <c r="L68" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -4785,17 +4791,17 @@
       <c r="G69">
         <v>45</v>
       </c>
-      <c r="I69" t="s">
+      <c r="H69" t="s">
         <v>434</v>
       </c>
-      <c r="J69">
+      <c r="I69">
         <v>100</v>
       </c>
-      <c r="K69" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -4817,17 +4823,17 @@
       <c r="G70">
         <v>45</v>
       </c>
-      <c r="I70" t="s">
+      <c r="H70" t="s">
         <v>434</v>
       </c>
-      <c r="J70">
+      <c r="I70">
         <v>100</v>
       </c>
-      <c r="K70" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -4849,17 +4855,17 @@
       <c r="G71">
         <v>45</v>
       </c>
-      <c r="I71" t="s">
+      <c r="H71" t="s">
         <v>434</v>
       </c>
-      <c r="J71">
+      <c r="I71">
         <v>100</v>
       </c>
-      <c r="K71" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -4881,23 +4887,23 @@
       <c r="G72">
         <v>375</v>
       </c>
-      <c r="I72" t="s">
+      <c r="H72" t="s">
         <v>439</v>
       </c>
-      <c r="J72">
-        <v>6</v>
-      </c>
-      <c r="K72" t="s">
+      <c r="I72">
+        <v>6</v>
+      </c>
+      <c r="J72" t="s">
         <v>450</v>
       </c>
-      <c r="L72" s="2">
+      <c r="K72" s="2">
         <v>43404</v>
       </c>
-      <c r="M72" t="s">
+      <c r="L72" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>2</v>
       </c>
@@ -4919,23 +4925,23 @@
       <c r="G73">
         <v>375</v>
       </c>
-      <c r="I73" t="s">
+      <c r="H73" t="s">
         <v>439</v>
       </c>
-      <c r="J73">
-        <v>6</v>
-      </c>
-      <c r="K73" t="s">
+      <c r="I73">
+        <v>6</v>
+      </c>
+      <c r="J73" t="s">
         <v>450</v>
       </c>
-      <c r="L73" s="2">
+      <c r="K73" s="2">
         <v>43404</v>
       </c>
-      <c r="M73" t="s">
+      <c r="L73" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -4957,23 +4963,23 @@
       <c r="G74">
         <v>375</v>
       </c>
-      <c r="I74" t="s">
+      <c r="H74" t="s">
         <v>439</v>
       </c>
-      <c r="J74">
-        <v>6</v>
-      </c>
-      <c r="K74" t="s">
+      <c r="I74">
+        <v>6</v>
+      </c>
+      <c r="J74" t="s">
         <v>450</v>
       </c>
-      <c r="L74" s="2">
+      <c r="K74" s="2">
         <v>43404</v>
       </c>
-      <c r="M74" t="s">
+      <c r="L74" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>2</v>
       </c>
@@ -4995,23 +5001,23 @@
       <c r="G75">
         <v>375</v>
       </c>
-      <c r="I75" t="s">
+      <c r="H75" t="s">
         <v>439</v>
       </c>
-      <c r="J75">
-        <v>6</v>
-      </c>
-      <c r="K75" t="s">
+      <c r="I75">
+        <v>6</v>
+      </c>
+      <c r="J75" t="s">
         <v>450</v>
       </c>
-      <c r="L75" s="2">
+      <c r="K75" s="2">
         <v>43404</v>
       </c>
-      <c r="M75" t="s">
+      <c r="L75" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -5033,23 +5039,23 @@
       <c r="G76" t="s">
         <v>7</v>
       </c>
-      <c r="I76" t="s">
+      <c r="H76" t="s">
         <v>441</v>
       </c>
-      <c r="J76">
+      <c r="I76">
         <v>15</v>
       </c>
-      <c r="K76" t="s">
+      <c r="J76" t="s">
         <v>451</v>
       </c>
-      <c r="L76" s="2">
+      <c r="K76" s="2">
         <v>43465</v>
       </c>
-      <c r="M76" t="s">
+      <c r="L76" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>2</v>
       </c>
@@ -5071,23 +5077,23 @@
       <c r="G77">
         <v>270</v>
       </c>
-      <c r="I77" t="s">
+      <c r="H77" t="s">
         <v>437</v>
       </c>
-      <c r="J77">
+      <c r="I77">
         <v>95</v>
       </c>
-      <c r="K77" t="s">
+      <c r="J77" t="s">
         <v>451</v>
       </c>
-      <c r="L77" s="2">
+      <c r="K77" s="2">
         <v>43373</v>
       </c>
-      <c r="M77" t="s">
+      <c r="L77" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>2</v>
       </c>
@@ -5109,23 +5115,23 @@
       <c r="G78" t="s">
         <v>7</v>
       </c>
-      <c r="I78" t="s">
+      <c r="H78" t="s">
         <v>441</v>
       </c>
-      <c r="J78">
+      <c r="I78">
         <v>75</v>
       </c>
-      <c r="K78" t="s">
+      <c r="J78" t="s">
         <v>451</v>
       </c>
-      <c r="L78" s="2">
+      <c r="K78" s="2">
         <v>43373</v>
       </c>
-      <c r="M78" t="s">
+      <c r="L78" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -5147,23 +5153,23 @@
       <c r="G79" t="s">
         <v>7</v>
       </c>
-      <c r="I79" t="s">
+      <c r="H79" t="s">
         <v>441</v>
       </c>
-      <c r="J79">
+      <c r="I79">
         <v>75</v>
       </c>
-      <c r="K79" t="s">
+      <c r="J79" t="s">
         <v>451</v>
       </c>
-      <c r="L79" s="2">
+      <c r="K79" s="2">
         <v>43373</v>
       </c>
-      <c r="M79" t="s">
+      <c r="L79" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -5185,23 +5191,23 @@
       <c r="G80" t="s">
         <v>7</v>
       </c>
-      <c r="I80" t="s">
+      <c r="H80" t="s">
         <v>441</v>
       </c>
-      <c r="J80">
+      <c r="I80">
         <v>75</v>
       </c>
-      <c r="K80" t="s">
+      <c r="J80" t="s">
         <v>451</v>
       </c>
-      <c r="L80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" t="s">
+      <c r="L80" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -5223,23 +5229,23 @@
       <c r="G81" t="s">
         <v>7</v>
       </c>
-      <c r="I81" t="s">
+      <c r="H81" t="s">
         <v>441</v>
       </c>
-      <c r="J81">
+      <c r="I81">
         <v>75</v>
       </c>
-      <c r="K81" t="s">
+      <c r="J81" t="s">
         <v>451</v>
       </c>
-      <c r="L81" s="2">
+      <c r="K81" s="2">
         <v>43373</v>
       </c>
-      <c r="M81" t="s">
+      <c r="L81" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -5261,23 +5267,23 @@
       <c r="G82">
         <v>270</v>
       </c>
-      <c r="I82" t="s">
+      <c r="H82" t="s">
         <v>437</v>
       </c>
-      <c r="J82">
+      <c r="I82">
         <v>70</v>
       </c>
-      <c r="K82" t="s">
+      <c r="J82" t="s">
         <v>451</v>
       </c>
-      <c r="L82" s="2">
+      <c r="K82" s="2">
         <v>43373</v>
       </c>
-      <c r="M82" s="4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L82" s="4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>2</v>
       </c>
@@ -5299,23 +5305,23 @@
       <c r="G83">
         <v>60</v>
       </c>
-      <c r="I83" t="s">
+      <c r="H83" t="s">
         <v>435</v>
       </c>
-      <c r="J83">
+      <c r="I83">
         <v>70</v>
       </c>
-      <c r="K83" t="s">
+      <c r="J83" t="s">
         <v>451</v>
       </c>
-      <c r="L83" s="2">
+      <c r="K83" s="2">
         <v>43373</v>
       </c>
-      <c r="M83" s="4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L83" s="4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>2</v>
       </c>
@@ -5337,23 +5343,23 @@
       <c r="G84">
         <v>60</v>
       </c>
-      <c r="I84" t="s">
+      <c r="H84" t="s">
         <v>435</v>
       </c>
-      <c r="J84">
+      <c r="I84">
         <v>70</v>
       </c>
-      <c r="K84" t="s">
+      <c r="J84" t="s">
         <v>451</v>
       </c>
-      <c r="L84" s="2">
+      <c r="K84" s="2">
         <v>43373</v>
       </c>
-      <c r="M84" s="4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L84" s="4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -5375,23 +5381,23 @@
       <c r="G85">
         <v>14</v>
       </c>
-      <c r="I85" t="s">
+      <c r="H85" t="s">
         <v>437</v>
       </c>
-      <c r="J85">
+      <c r="I85">
         <v>1</v>
       </c>
-      <c r="K85" t="s">
+      <c r="J85" t="s">
         <v>451</v>
       </c>
-      <c r="L85" s="5">
+      <c r="K85" s="5">
         <v>43343</v>
       </c>
-      <c r="M85" s="4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L85" s="4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>2</v>
       </c>
@@ -5413,23 +5419,23 @@
       <c r="G86">
         <v>240</v>
       </c>
-      <c r="I86" t="s">
+      <c r="H86" t="s">
         <v>437</v>
       </c>
-      <c r="J86">
+      <c r="I86">
         <v>1</v>
       </c>
-      <c r="K86" t="s">
+      <c r="J86" t="s">
         <v>451</v>
       </c>
-      <c r="L86" s="5">
+      <c r="K86" s="5">
         <v>43343</v>
       </c>
-      <c r="M86" s="4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L86" s="4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>2</v>
       </c>
@@ -5451,23 +5457,23 @@
       <c r="G87">
         <v>240</v>
       </c>
-      <c r="I87" t="s">
+      <c r="H87" t="s">
         <v>437</v>
       </c>
-      <c r="J87">
+      <c r="I87">
         <v>2</v>
       </c>
-      <c r="K87" t="s">
+      <c r="J87" t="s">
         <v>451</v>
       </c>
-      <c r="L87" s="2">
+      <c r="K87" s="2">
         <v>43465</v>
       </c>
-      <c r="M87" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L87" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>2</v>
       </c>
@@ -5489,23 +5495,23 @@
       <c r="G88">
         <v>14</v>
       </c>
-      <c r="I88" t="s">
+      <c r="H88" t="s">
         <v>437</v>
       </c>
-      <c r="J88">
+      <c r="I88">
         <v>5</v>
       </c>
-      <c r="K88" t="s">
+      <c r="J88" t="s">
         <v>451</v>
       </c>
-      <c r="L88" s="2">
+      <c r="K88" s="2">
         <v>43465</v>
       </c>
-      <c r="M88" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L88" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>2</v>
       </c>
@@ -5527,23 +5533,23 @@
       <c r="G89">
         <v>240</v>
       </c>
-      <c r="I89" t="s">
+      <c r="H89" t="s">
         <v>437</v>
       </c>
-      <c r="J89">
+      <c r="I89">
         <v>5</v>
       </c>
-      <c r="K89" t="s">
+      <c r="J89" t="s">
         <v>451</v>
       </c>
-      <c r="L89" s="2">
+      <c r="K89" s="2">
         <v>43465</v>
       </c>
-      <c r="M89" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L89" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>2</v>
       </c>
@@ -5565,23 +5571,23 @@
       <c r="G90">
         <v>240</v>
       </c>
-      <c r="I90" t="s">
+      <c r="H90" t="s">
         <v>437</v>
       </c>
-      <c r="J90">
-        <v>6</v>
-      </c>
-      <c r="K90" t="s">
+      <c r="I90">
+        <v>6</v>
+      </c>
+      <c r="J90" t="s">
         <v>451</v>
       </c>
-      <c r="L90" s="2">
+      <c r="K90" s="2">
         <v>43465</v>
       </c>
-      <c r="M90" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L90" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>2</v>
       </c>
@@ -5603,23 +5609,23 @@
       <c r="G91">
         <v>240</v>
       </c>
-      <c r="I91" t="s">
+      <c r="H91" t="s">
         <v>437</v>
       </c>
-      <c r="J91">
-        <v>6</v>
-      </c>
-      <c r="K91" t="s">
+      <c r="I91">
+        <v>6</v>
+      </c>
+      <c r="J91" t="s">
         <v>451</v>
       </c>
-      <c r="L91" s="2">
+      <c r="K91" s="2">
         <v>43465</v>
       </c>
-      <c r="M91" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L91" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>2</v>
       </c>
@@ -5641,23 +5647,23 @@
       <c r="G92">
         <v>240</v>
       </c>
-      <c r="I92" t="s">
+      <c r="H92" t="s">
         <v>437</v>
       </c>
-      <c r="J92">
-        <v>6</v>
-      </c>
-      <c r="K92" t="s">
+      <c r="I92">
+        <v>6</v>
+      </c>
+      <c r="J92" t="s">
         <v>451</v>
       </c>
-      <c r="L92" s="2">
+      <c r="K92" s="2">
         <v>43465</v>
       </c>
-      <c r="M92" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L92" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>2</v>
       </c>
@@ -5679,23 +5685,23 @@
       <c r="G93">
         <v>240</v>
       </c>
-      <c r="I93" t="s">
+      <c r="H93" t="s">
         <v>437</v>
       </c>
-      <c r="J93">
-        <v>6</v>
-      </c>
-      <c r="K93" t="s">
+      <c r="I93">
+        <v>6</v>
+      </c>
+      <c r="J93" t="s">
         <v>451</v>
       </c>
-      <c r="L93" s="2">
+      <c r="K93" s="2">
         <v>43465</v>
       </c>
-      <c r="M93" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L93" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>2</v>
       </c>
@@ -5717,23 +5723,23 @@
       <c r="G94">
         <v>240</v>
       </c>
-      <c r="I94" t="s">
+      <c r="H94" t="s">
         <v>437</v>
       </c>
-      <c r="J94">
-        <v>6</v>
-      </c>
-      <c r="K94" t="s">
+      <c r="I94">
+        <v>6</v>
+      </c>
+      <c r="J94" t="s">
         <v>451</v>
       </c>
-      <c r="L94" s="2">
+      <c r="K94" s="2">
         <v>43465</v>
       </c>
-      <c r="M94" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L94" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>2</v>
       </c>
@@ -5755,23 +5761,23 @@
       <c r="G95">
         <v>240</v>
       </c>
-      <c r="I95" t="s">
+      <c r="H95" t="s">
         <v>437</v>
       </c>
-      <c r="J95">
+      <c r="I95">
         <v>5</v>
       </c>
-      <c r="K95" t="s">
+      <c r="J95" t="s">
         <v>451</v>
       </c>
-      <c r="L95" s="2">
+      <c r="K95" s="2">
         <v>43465</v>
       </c>
-      <c r="M95" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L95" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>2</v>
       </c>
@@ -5793,23 +5799,23 @@
       <c r="G96">
         <v>240</v>
       </c>
-      <c r="I96" t="s">
+      <c r="H96" t="s">
         <v>437</v>
       </c>
-      <c r="J96">
+      <c r="I96">
         <v>5</v>
       </c>
-      <c r="K96" t="s">
+      <c r="J96" t="s">
         <v>451</v>
       </c>
-      <c r="L96" s="2">
+      <c r="K96" s="2">
         <v>43465</v>
       </c>
-      <c r="M96" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L96" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>2</v>
       </c>
@@ -5831,23 +5837,23 @@
       <c r="G97" t="s">
         <v>7</v>
       </c>
-      <c r="I97" t="s">
+      <c r="H97" t="s">
         <v>441</v>
       </c>
-      <c r="J97">
+      <c r="I97">
         <v>15</v>
       </c>
-      <c r="K97" t="s">
+      <c r="J97" t="s">
         <v>451</v>
       </c>
-      <c r="L97" s="2">
+      <c r="K97" s="2">
         <v>43465</v>
       </c>
-      <c r="M97" t="s">
+      <c r="L97" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>2</v>
       </c>
@@ -5869,23 +5875,23 @@
       <c r="G98" t="s">
         <v>7</v>
       </c>
-      <c r="I98" t="s">
+      <c r="H98" t="s">
         <v>441</v>
       </c>
-      <c r="J98">
+      <c r="I98">
         <v>15</v>
       </c>
-      <c r="K98" t="s">
+      <c r="J98" t="s">
         <v>451</v>
       </c>
-      <c r="L98" s="2">
+      <c r="K98" s="2">
         <v>43465</v>
       </c>
-      <c r="M98" t="s">
+      <c r="L98" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>2</v>
       </c>
@@ -5907,23 +5913,23 @@
       <c r="G99" t="s">
         <v>7</v>
       </c>
-      <c r="I99" t="s">
+      <c r="H99" t="s">
         <v>441</v>
       </c>
-      <c r="J99">
+      <c r="I99">
         <v>15</v>
       </c>
-      <c r="K99" t="s">
+      <c r="J99" t="s">
         <v>451</v>
       </c>
-      <c r="L99" s="2">
+      <c r="K99" s="2">
         <v>43465</v>
       </c>
-      <c r="M99" t="s">
+      <c r="L99" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>2</v>
       </c>
@@ -5945,23 +5951,23 @@
       <c r="G100" t="s">
         <v>7</v>
       </c>
-      <c r="I100" t="s">
+      <c r="H100" t="s">
         <v>441</v>
       </c>
-      <c r="J100">
+      <c r="I100">
         <v>15</v>
       </c>
-      <c r="K100" t="s">
+      <c r="J100" t="s">
         <v>451</v>
       </c>
-      <c r="L100" s="2">
+      <c r="K100" s="2">
         <v>43465</v>
       </c>
-      <c r="M100" t="s">
+      <c r="L100" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>2</v>
       </c>
@@ -5983,23 +5989,23 @@
       <c r="G101">
         <v>60</v>
       </c>
-      <c r="I101" t="s">
+      <c r="H101" t="s">
         <v>435</v>
       </c>
-      <c r="J101">
+      <c r="I101">
         <v>95</v>
       </c>
-      <c r="K101" t="s">
+      <c r="J101" t="s">
         <v>453</v>
       </c>
-      <c r="L101" s="2">
+      <c r="K101" s="2">
         <v>43251</v>
       </c>
-      <c r="M101" t="s">
+      <c r="L101" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>2</v>
       </c>
@@ -6021,23 +6027,23 @@
       <c r="G102">
         <v>45</v>
       </c>
-      <c r="I102" t="s">
+      <c r="H102" t="s">
         <v>435</v>
       </c>
-      <c r="J102">
+      <c r="I102">
         <v>95</v>
       </c>
-      <c r="K102" t="s">
+      <c r="J102" t="s">
         <v>453</v>
       </c>
-      <c r="L102" s="2">
+      <c r="K102" s="2">
         <v>43251</v>
       </c>
-      <c r="M102" t="s">
+      <c r="L102" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>2</v>
       </c>
@@ -6059,23 +6065,23 @@
       <c r="G103">
         <v>45</v>
       </c>
-      <c r="I103" t="s">
+      <c r="H103" t="s">
         <v>434</v>
       </c>
-      <c r="J103">
+      <c r="I103">
         <v>95</v>
       </c>
-      <c r="K103" t="s">
+      <c r="J103" t="s">
         <v>453</v>
       </c>
-      <c r="L103" s="2">
+      <c r="K103" s="2">
         <v>43251</v>
       </c>
-      <c r="M103" t="s">
+      <c r="L103" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>2</v>
       </c>
@@ -6097,23 +6103,23 @@
       <c r="G104">
         <v>60</v>
       </c>
-      <c r="I104" t="s">
+      <c r="H104" t="s">
         <v>435</v>
       </c>
-      <c r="J104">
+      <c r="I104">
         <v>95</v>
       </c>
-      <c r="K104" t="s">
+      <c r="J104" t="s">
         <v>453</v>
       </c>
-      <c r="L104" s="2">
+      <c r="K104" s="2">
         <v>43251</v>
       </c>
-      <c r="M104" t="s">
+      <c r="L104" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>2</v>
       </c>
@@ -6135,23 +6141,23 @@
       <c r="G105">
         <v>60</v>
       </c>
-      <c r="I105" t="s">
+      <c r="H105" t="s">
         <v>435</v>
       </c>
-      <c r="J105">
+      <c r="I105">
         <v>95</v>
       </c>
-      <c r="K105" t="s">
+      <c r="J105" t="s">
         <v>453</v>
       </c>
-      <c r="L105" s="2">
+      <c r="K105" s="2">
         <v>43251</v>
       </c>
-      <c r="M105" t="s">
+      <c r="L105" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>2</v>
       </c>
@@ -6173,23 +6179,23 @@
       <c r="G106" t="s">
         <v>7</v>
       </c>
-      <c r="I106" t="s">
+      <c r="H106" t="s">
         <v>441</v>
       </c>
-      <c r="J106">
+      <c r="I106">
         <v>75</v>
       </c>
-      <c r="K106" t="s">
+      <c r="J106" t="s">
         <v>451</v>
       </c>
-      <c r="L106" s="2">
+      <c r="K106" s="2">
         <v>43373</v>
       </c>
-      <c r="M106" t="s">
+      <c r="L106" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>2</v>
       </c>
@@ -6211,23 +6217,23 @@
       <c r="G107" t="s">
         <v>7</v>
       </c>
-      <c r="I107" t="s">
+      <c r="H107" t="s">
         <v>441</v>
       </c>
-      <c r="J107">
+      <c r="I107">
         <v>75</v>
       </c>
-      <c r="K107" t="s">
+      <c r="J107" t="s">
         <v>451</v>
       </c>
-      <c r="L107" s="2">
+      <c r="K107" s="2">
         <v>43373</v>
       </c>
-      <c r="M107" t="s">
+      <c r="L107" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>2</v>
       </c>
@@ -6249,23 +6255,23 @@
       <c r="G108" t="s">
         <v>7</v>
       </c>
-      <c r="I108" t="s">
+      <c r="H108" t="s">
         <v>441</v>
       </c>
-      <c r="J108">
+      <c r="I108">
         <v>75</v>
       </c>
-      <c r="K108" t="s">
+      <c r="J108" t="s">
         <v>451</v>
       </c>
-      <c r="L108" s="2">
+      <c r="K108" s="2">
         <v>43373</v>
       </c>
-      <c r="M108" t="s">
+      <c r="L108" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>2</v>
       </c>
@@ -6287,23 +6293,23 @@
       <c r="G109" t="s">
         <v>7</v>
       </c>
-      <c r="I109" t="s">
+      <c r="H109" t="s">
         <v>441</v>
       </c>
-      <c r="J109">
+      <c r="I109">
         <v>75</v>
       </c>
-      <c r="K109" t="s">
+      <c r="J109" t="s">
         <v>451</v>
       </c>
-      <c r="L109" s="2">
+      <c r="K109" s="2">
         <v>43373</v>
       </c>
-      <c r="M109" t="s">
+      <c r="L109" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>2</v>
       </c>
@@ -6325,23 +6331,23 @@
       <c r="G110" t="s">
         <v>7</v>
       </c>
-      <c r="I110" t="s">
+      <c r="H110" t="s">
         <v>441</v>
       </c>
-      <c r="J110">
+      <c r="I110">
         <v>75</v>
       </c>
-      <c r="K110" t="s">
+      <c r="J110" t="s">
         <v>451</v>
       </c>
-      <c r="L110" s="2">
+      <c r="K110" s="2">
         <v>43373</v>
       </c>
-      <c r="M110" t="s">
+      <c r="L110" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>2</v>
       </c>
@@ -6363,23 +6369,23 @@
       <c r="G111">
         <v>270</v>
       </c>
-      <c r="I111" t="s">
+      <c r="H111" t="s">
         <v>437</v>
       </c>
-      <c r="J111">
+      <c r="I111">
         <v>95</v>
       </c>
-      <c r="K111" t="s">
+      <c r="J111" t="s">
         <v>451</v>
       </c>
-      <c r="L111" s="2">
+      <c r="K111" s="2">
         <v>43373</v>
       </c>
-      <c r="M111" t="s">
+      <c r="L111" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>2</v>
       </c>
@@ -6401,23 +6407,23 @@
       <c r="G112">
         <v>390</v>
       </c>
-      <c r="I112" t="s">
+      <c r="H112" t="s">
         <v>439</v>
       </c>
-      <c r="J112">
-        <v>70</v>
-      </c>
-      <c r="K112" t="s">
-        <v>451</v>
-      </c>
-      <c r="L112" s="2">
-        <v>43373</v>
-      </c>
-      <c r="M112" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I112">
+        <v>100</v>
+      </c>
+      <c r="J112" t="s">
+        <v>7</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>2</v>
       </c>
@@ -6439,23 +6445,23 @@
       <c r="G113">
         <v>390</v>
       </c>
-      <c r="I113" t="s">
+      <c r="H113" t="s">
         <v>439</v>
       </c>
-      <c r="J113">
-        <v>75</v>
-      </c>
-      <c r="K113" t="s">
-        <v>451</v>
-      </c>
-      <c r="L113" s="2">
-        <v>43373</v>
-      </c>
-      <c r="M113" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I113">
+        <v>100</v>
+      </c>
+      <c r="J113" t="s">
+        <v>7</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>2</v>
       </c>
@@ -6477,23 +6483,23 @@
       <c r="G114">
         <v>30</v>
       </c>
-      <c r="I114" t="s">
+      <c r="H114" t="s">
         <v>434</v>
       </c>
-      <c r="J114">
+      <c r="I114">
         <v>75</v>
       </c>
-      <c r="K114" t="s">
+      <c r="J114" t="s">
         <v>453</v>
       </c>
-      <c r="L114" s="2">
+      <c r="K114" s="2">
         <v>43343</v>
       </c>
-      <c r="M114" t="s">
+      <c r="L114" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>2</v>
       </c>
@@ -6515,23 +6521,23 @@
       <c r="G115">
         <v>300</v>
       </c>
-      <c r="I115" t="s">
+      <c r="H115" t="s">
         <v>439</v>
       </c>
-      <c r="J115">
+      <c r="I115">
         <v>75</v>
       </c>
-      <c r="K115" t="s">
+      <c r="J115" t="s">
         <v>453</v>
       </c>
-      <c r="L115" s="2">
+      <c r="K115" s="2">
         <v>43343</v>
       </c>
-      <c r="M115" t="s">
+      <c r="L115" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>2</v>
       </c>
@@ -6553,23 +6559,23 @@
       <c r="G116">
         <v>300</v>
       </c>
-      <c r="I116" t="s">
+      <c r="H116" t="s">
         <v>439</v>
       </c>
-      <c r="J116">
+      <c r="I116">
         <v>75</v>
       </c>
-      <c r="K116" t="s">
+      <c r="J116" t="s">
         <v>453</v>
       </c>
-      <c r="L116" s="2">
+      <c r="K116" s="2">
         <v>43343</v>
       </c>
-      <c r="M116" t="s">
+      <c r="L116" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>2</v>
       </c>
@@ -6591,23 +6597,23 @@
       <c r="G117">
         <v>90</v>
       </c>
-      <c r="I117" t="s">
+      <c r="H117" t="s">
         <v>434</v>
       </c>
-      <c r="J117">
+      <c r="I117">
         <v>90</v>
       </c>
-      <c r="K117" t="s">
+      <c r="J117" t="s">
         <v>457</v>
       </c>
-      <c r="L117" s="2">
+      <c r="K117" s="2">
         <v>43465</v>
       </c>
-      <c r="M117" t="s">
+      <c r="L117" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>2</v>
       </c>
@@ -6629,23 +6635,23 @@
       <c r="G118">
         <v>90</v>
       </c>
-      <c r="I118" t="s">
+      <c r="H118" t="s">
         <v>434</v>
       </c>
-      <c r="J118">
+      <c r="I118">
         <v>90</v>
       </c>
-      <c r="K118" t="s">
+      <c r="J118" t="s">
         <v>457</v>
       </c>
-      <c r="L118" s="2">
+      <c r="K118" s="2">
         <v>43465</v>
       </c>
-      <c r="M118" t="s">
+      <c r="L118" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>2</v>
       </c>
@@ -6667,23 +6673,23 @@
       <c r="G119">
         <v>300</v>
       </c>
-      <c r="I119" t="s">
+      <c r="H119" t="s">
         <v>434</v>
       </c>
-      <c r="J119">
+      <c r="I119">
         <v>90</v>
       </c>
-      <c r="K119" t="s">
+      <c r="J119" t="s">
         <v>457</v>
       </c>
-      <c r="L119" s="2">
+      <c r="K119" s="2">
         <v>43465</v>
       </c>
-      <c r="M119" t="s">
+      <c r="L119" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>2</v>
       </c>
@@ -6705,23 +6711,23 @@
       <c r="G120">
         <v>90</v>
       </c>
-      <c r="I120" t="s">
+      <c r="H120" t="s">
         <v>434</v>
       </c>
-      <c r="J120">
+      <c r="I120">
         <v>90</v>
       </c>
-      <c r="K120" t="s">
+      <c r="J120" t="s">
         <v>457</v>
       </c>
-      <c r="L120" s="2">
+      <c r="K120" s="2">
         <v>43465</v>
       </c>
-      <c r="M120" t="s">
+      <c r="L120" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>209</v>
       </c>
@@ -6743,23 +6749,23 @@
       <c r="G121">
         <v>180</v>
       </c>
-      <c r="I121" t="s">
+      <c r="H121" t="s">
         <v>437</v>
       </c>
-      <c r="J121">
-        <v>70</v>
-      </c>
-      <c r="K121" t="s">
-        <v>451</v>
-      </c>
-      <c r="L121" s="2">
-        <v>43312</v>
-      </c>
-      <c r="M121" s="4" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I121">
+        <v>100</v>
+      </c>
+      <c r="J121" t="s">
+        <v>7</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L121" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>209</v>
       </c>
@@ -6781,23 +6787,23 @@
       <c r="G122">
         <v>60</v>
       </c>
-      <c r="I122" t="s">
+      <c r="H122" t="s">
         <v>435</v>
       </c>
-      <c r="J122">
+      <c r="I122">
         <v>90</v>
       </c>
-      <c r="K122" t="s">
+      <c r="J122" t="s">
         <v>453</v>
       </c>
-      <c r="L122" s="2">
+      <c r="K122" s="2">
         <v>43312</v>
       </c>
-      <c r="M122" t="s">
+      <c r="L122" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>209</v>
       </c>
@@ -6819,23 +6825,23 @@
       <c r="G123">
         <v>60</v>
       </c>
-      <c r="I123" t="s">
+      <c r="H123" t="s">
         <v>434</v>
       </c>
-      <c r="J123">
+      <c r="I123">
         <v>90</v>
       </c>
-      <c r="K123" t="s">
+      <c r="J123" t="s">
         <v>453</v>
       </c>
-      <c r="L123" s="2">
+      <c r="K123" s="2">
         <v>43312</v>
       </c>
-      <c r="M123" t="s">
+      <c r="L123" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>209</v>
       </c>
@@ -6857,23 +6863,23 @@
       <c r="G124">
         <v>240</v>
       </c>
-      <c r="I124" t="s">
+      <c r="H124" t="s">
         <v>437</v>
       </c>
-      <c r="J124">
+      <c r="I124">
         <v>25</v>
       </c>
-      <c r="K124" t="s">
+      <c r="J124" t="s">
         <v>451</v>
       </c>
-      <c r="L124" s="2">
+      <c r="K124" s="2">
         <v>43343</v>
       </c>
-      <c r="M124" s="4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L124" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>209</v>
       </c>
@@ -6895,23 +6901,23 @@
       <c r="G125">
         <v>240</v>
       </c>
-      <c r="I125" t="s">
+      <c r="H125" t="s">
         <v>437</v>
       </c>
-      <c r="J125">
+      <c r="I125">
         <v>25</v>
       </c>
-      <c r="K125" t="s">
+      <c r="J125" t="s">
         <v>451</v>
       </c>
-      <c r="L125" s="2">
+      <c r="K125" s="2">
         <v>43343</v>
       </c>
-      <c r="M125" s="4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L125" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>209</v>
       </c>
@@ -6933,23 +6939,23 @@
       <c r="G126">
         <v>390</v>
       </c>
-      <c r="I126" t="s">
+      <c r="H126" t="s">
         <v>435</v>
       </c>
-      <c r="J126">
+      <c r="I126">
         <v>90</v>
       </c>
-      <c r="K126" t="s">
+      <c r="J126" t="s">
         <v>453</v>
       </c>
-      <c r="L126" s="2">
+      <c r="K126" s="2">
         <v>43312</v>
       </c>
-      <c r="M126" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L126" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>209</v>
       </c>
@@ -6971,23 +6977,23 @@
       <c r="G127">
         <v>60</v>
       </c>
-      <c r="I127" t="s">
+      <c r="H127" t="s">
         <v>434</v>
       </c>
-      <c r="J127">
+      <c r="I127">
         <v>90</v>
       </c>
-      <c r="K127" t="s">
+      <c r="J127" t="s">
         <v>453</v>
       </c>
-      <c r="L127" s="2">
+      <c r="K127" s="2">
         <v>43312</v>
       </c>
-      <c r="M127" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L127" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>209</v>
       </c>
@@ -7009,23 +7015,23 @@
       <c r="G128">
         <v>60</v>
       </c>
-      <c r="I128" t="s">
+      <c r="H128" t="s">
         <v>434</v>
       </c>
-      <c r="J128">
+      <c r="I128">
         <v>90</v>
       </c>
-      <c r="K128" t="s">
+      <c r="J128" t="s">
         <v>453</v>
       </c>
-      <c r="L128" s="2">
+      <c r="K128" s="2">
         <v>43312</v>
       </c>
-      <c r="M128" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L128" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>209</v>
       </c>
@@ -7047,23 +7053,23 @@
       <c r="G129">
         <v>240</v>
       </c>
-      <c r="I129" t="s">
+      <c r="H129" t="s">
         <v>437</v>
       </c>
-      <c r="J129">
+      <c r="I129">
         <v>25</v>
       </c>
-      <c r="K129" t="s">
+      <c r="J129" t="s">
         <v>451</v>
       </c>
-      <c r="L129" s="2">
+      <c r="K129" s="2">
         <v>43343</v>
       </c>
-      <c r="M129" s="4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L129" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>209</v>
       </c>
@@ -7085,23 +7091,23 @@
       <c r="G130">
         <v>240</v>
       </c>
-      <c r="I130" t="s">
+      <c r="H130" t="s">
         <v>437</v>
       </c>
-      <c r="J130">
+      <c r="I130">
         <v>25</v>
       </c>
-      <c r="K130" t="s">
+      <c r="J130" t="s">
         <v>451</v>
       </c>
-      <c r="L130" s="2">
+      <c r="K130" s="2">
         <v>43343</v>
       </c>
-      <c r="M130" s="4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L130" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>209</v>
       </c>
@@ -7123,23 +7129,23 @@
       <c r="G131">
         <v>30</v>
       </c>
-      <c r="I131" t="s">
+      <c r="H131" t="s">
         <v>435</v>
       </c>
-      <c r="J131">
+      <c r="I131">
         <v>25</v>
       </c>
-      <c r="K131" t="s">
+      <c r="J131" t="s">
         <v>451</v>
       </c>
-      <c r="L131" s="2">
+      <c r="K131" s="2">
         <v>43343</v>
       </c>
-      <c r="M131" s="4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L131" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>209</v>
       </c>
@@ -7161,23 +7167,23 @@
       <c r="G132">
         <v>240</v>
       </c>
-      <c r="I132" t="s">
+      <c r="H132" t="s">
         <v>437</v>
       </c>
-      <c r="J132">
+      <c r="I132">
         <v>25</v>
       </c>
-      <c r="K132" t="s">
+      <c r="J132" t="s">
         <v>451</v>
       </c>
-      <c r="L132" s="2">
+      <c r="K132" s="2">
         <v>43343</v>
       </c>
-      <c r="M132" s="4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L132" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>209</v>
       </c>
@@ -7199,23 +7205,23 @@
       <c r="G133">
         <v>240</v>
       </c>
-      <c r="I133" t="s">
+      <c r="H133" t="s">
         <v>437</v>
       </c>
-      <c r="J133">
+      <c r="I133">
         <v>25</v>
       </c>
-      <c r="K133" t="s">
+      <c r="J133" t="s">
         <v>451</v>
       </c>
-      <c r="L133" s="2">
+      <c r="K133" s="2">
         <v>43343</v>
       </c>
-      <c r="M133" s="4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L133" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>209</v>
       </c>
@@ -7237,23 +7243,23 @@
       <c r="G134">
         <v>60</v>
       </c>
-      <c r="I134" t="s">
+      <c r="H134" t="s">
         <v>434</v>
       </c>
-      <c r="J134">
+      <c r="I134">
         <v>10</v>
       </c>
-      <c r="K134" t="s">
+      <c r="J134" t="s">
         <v>453</v>
       </c>
-      <c r="L134" s="2">
+      <c r="K134" s="2">
         <v>43343</v>
       </c>
-      <c r="M134" s="4" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L134" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>209</v>
       </c>
@@ -7275,23 +7281,23 @@
       <c r="G135">
         <v>60</v>
       </c>
-      <c r="I135" t="s">
+      <c r="H135" t="s">
         <v>434</v>
       </c>
-      <c r="J135">
+      <c r="I135">
         <v>10</v>
       </c>
-      <c r="K135" t="s">
+      <c r="J135" t="s">
         <v>453</v>
       </c>
-      <c r="L135" s="2">
+      <c r="K135" s="2">
         <v>43343</v>
       </c>
-      <c r="M135" s="4" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L135" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>209</v>
       </c>
@@ -7313,23 +7319,23 @@
       <c r="G136">
         <v>60</v>
       </c>
-      <c r="I136" t="s">
+      <c r="H136" t="s">
         <v>434</v>
       </c>
-      <c r="J136">
+      <c r="I136">
         <v>10</v>
       </c>
-      <c r="K136" t="s">
+      <c r="J136" t="s">
         <v>453</v>
       </c>
-      <c r="L136" s="2">
+      <c r="K136" s="2">
         <v>43343</v>
       </c>
-      <c r="M136" s="4" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L136" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>209</v>
       </c>
@@ -7351,23 +7357,23 @@
       <c r="G137">
         <v>180</v>
       </c>
-      <c r="I137" t="s">
+      <c r="H137" t="s">
         <v>435</v>
       </c>
-      <c r="J137">
+      <c r="I137">
         <v>10</v>
       </c>
-      <c r="K137" t="s">
+      <c r="J137" t="s">
         <v>453</v>
       </c>
-      <c r="L137" s="2">
+      <c r="K137" s="2">
         <v>43343</v>
       </c>
-      <c r="M137" s="4" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L137" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>209</v>
       </c>
@@ -7389,23 +7395,23 @@
       <c r="G138">
         <v>240</v>
       </c>
-      <c r="I138" t="s">
+      <c r="H138" t="s">
         <v>437</v>
       </c>
-      <c r="J138">
+      <c r="I138">
         <v>5</v>
       </c>
-      <c r="K138" t="s">
+      <c r="J138" t="s">
         <v>451</v>
       </c>
-      <c r="L138" s="2">
+      <c r="K138" s="2">
         <v>43465</v>
       </c>
-      <c r="M138" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L138" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>209</v>
       </c>
@@ -7427,23 +7433,23 @@
       <c r="G139">
         <v>240</v>
       </c>
-      <c r="I139" t="s">
+      <c r="H139" t="s">
         <v>437</v>
       </c>
-      <c r="J139">
+      <c r="I139">
         <v>5</v>
       </c>
-      <c r="K139" t="s">
+      <c r="J139" t="s">
         <v>451</v>
       </c>
-      <c r="L139" s="2">
+      <c r="K139" s="2">
         <v>43465</v>
       </c>
-      <c r="M139" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L139" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>209</v>
       </c>
@@ -7465,23 +7471,23 @@
       <c r="G140">
         <v>60</v>
       </c>
-      <c r="I140" t="s">
+      <c r="H140" t="s">
         <v>434</v>
       </c>
-      <c r="J140">
+      <c r="I140">
         <v>95</v>
       </c>
-      <c r="K140" t="s">
+      <c r="J140" t="s">
         <v>453</v>
       </c>
-      <c r="L140" s="2">
+      <c r="K140" s="2">
         <v>43343</v>
       </c>
-      <c r="M140" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L140" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>209</v>
       </c>
@@ -7503,23 +7509,23 @@
       <c r="G141">
         <v>240</v>
       </c>
-      <c r="I141" t="s">
+      <c r="H141" t="s">
         <v>437</v>
       </c>
-      <c r="J141">
+      <c r="I141">
         <v>5</v>
       </c>
-      <c r="K141" t="s">
+      <c r="J141" t="s">
         <v>451</v>
       </c>
-      <c r="L141" s="2">
+      <c r="K141" s="2">
         <v>43465</v>
       </c>
-      <c r="M141" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L141" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>209</v>
       </c>
@@ -7541,23 +7547,23 @@
       <c r="G142">
         <v>240</v>
       </c>
-      <c r="I142" t="s">
+      <c r="H142" t="s">
         <v>437</v>
       </c>
-      <c r="J142">
+      <c r="I142">
         <v>5</v>
       </c>
-      <c r="K142" t="s">
+      <c r="J142" t="s">
         <v>451</v>
       </c>
-      <c r="L142" s="2">
+      <c r="K142" s="2">
         <v>43465</v>
       </c>
-      <c r="M142" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L142" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>209</v>
       </c>
@@ -7579,23 +7585,23 @@
       <c r="G143">
         <v>240</v>
       </c>
-      <c r="I143" t="s">
+      <c r="H143" t="s">
         <v>437</v>
       </c>
-      <c r="J143">
+      <c r="I143">
         <v>5</v>
       </c>
-      <c r="K143" t="s">
+      <c r="J143" t="s">
         <v>451</v>
       </c>
-      <c r="L143" s="2">
+      <c r="K143" s="2">
         <v>43465</v>
       </c>
-      <c r="M143" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L143" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>209</v>
       </c>
@@ -7617,23 +7623,23 @@
       <c r="G144">
         <v>240</v>
       </c>
-      <c r="I144" t="s">
+      <c r="H144" t="s">
         <v>437</v>
       </c>
-      <c r="J144">
+      <c r="I144">
         <v>5</v>
       </c>
-      <c r="K144" t="s">
+      <c r="J144" t="s">
         <v>451</v>
       </c>
-      <c r="L144" s="2">
+      <c r="K144" s="2">
         <v>43465</v>
       </c>
-      <c r="M144" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L144" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>209</v>
       </c>
@@ -7655,23 +7661,23 @@
       <c r="G145">
         <v>240</v>
       </c>
-      <c r="I145" t="s">
+      <c r="H145" t="s">
         <v>437</v>
       </c>
-      <c r="J145">
+      <c r="I145">
         <v>5</v>
       </c>
-      <c r="K145" t="s">
+      <c r="J145" t="s">
         <v>451</v>
       </c>
-      <c r="L145" s="2">
+      <c r="K145" s="2">
         <v>43465</v>
       </c>
-      <c r="M145" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L145" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>209</v>
       </c>
@@ -7693,23 +7699,23 @@
       <c r="G146">
         <v>60</v>
       </c>
-      <c r="I146" t="s">
+      <c r="H146" t="s">
         <v>434</v>
       </c>
-      <c r="J146">
+      <c r="I146">
         <v>95</v>
       </c>
-      <c r="K146" t="s">
+      <c r="J146" t="s">
         <v>453</v>
       </c>
-      <c r="L146" s="2">
+      <c r="K146" s="2">
         <v>43343</v>
       </c>
-      <c r="M146" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L146" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>209</v>
       </c>
@@ -7731,23 +7737,23 @@
       <c r="G147">
         <v>240</v>
       </c>
-      <c r="I147" t="s">
+      <c r="H147" t="s">
         <v>437</v>
       </c>
-      <c r="J147">
+      <c r="I147">
         <v>5</v>
       </c>
-      <c r="K147" t="s">
+      <c r="J147" t="s">
         <v>451</v>
       </c>
-      <c r="L147" s="2">
+      <c r="K147" s="2">
         <v>43465</v>
       </c>
-      <c r="M147" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L147" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>209</v>
       </c>
@@ -7769,23 +7775,23 @@
       <c r="G148">
         <v>240</v>
       </c>
-      <c r="I148" t="s">
+      <c r="H148" t="s">
         <v>437</v>
       </c>
-      <c r="J148">
+      <c r="I148">
         <v>5</v>
       </c>
-      <c r="K148" t="s">
+      <c r="J148" t="s">
         <v>451</v>
       </c>
-      <c r="L148" s="2">
+      <c r="K148" s="2">
         <v>43465</v>
       </c>
-      <c r="M148" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L148" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>209</v>
       </c>
@@ -7807,23 +7813,23 @@
       <c r="G149">
         <v>60</v>
       </c>
-      <c r="I149" t="s">
+      <c r="H149" t="s">
         <v>435</v>
       </c>
-      <c r="J149">
+      <c r="I149">
         <v>95</v>
       </c>
-      <c r="K149" t="s">
+      <c r="J149" t="s">
         <v>453</v>
       </c>
-      <c r="L149" s="2">
+      <c r="K149" s="2">
         <v>43343</v>
       </c>
-      <c r="M149" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L149" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>209</v>
       </c>
@@ -7845,23 +7851,23 @@
       <c r="G150">
         <v>150</v>
       </c>
-      <c r="I150" t="s">
+      <c r="H150" t="s">
         <v>437</v>
       </c>
-      <c r="J150">
+      <c r="I150">
         <v>95</v>
       </c>
-      <c r="K150" t="s">
+      <c r="J150" t="s">
         <v>453</v>
       </c>
-      <c r="L150" s="2">
+      <c r="K150" s="2">
         <v>43343</v>
       </c>
-      <c r="M150" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L150" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>209</v>
       </c>
@@ -7883,23 +7889,23 @@
       <c r="G151">
         <v>30</v>
       </c>
-      <c r="I151" t="s">
+      <c r="H151" t="s">
         <v>434</v>
       </c>
-      <c r="J151">
+      <c r="I151">
         <v>95</v>
       </c>
-      <c r="K151" t="s">
+      <c r="J151" t="s">
         <v>453</v>
       </c>
-      <c r="L151" s="2">
+      <c r="K151" s="2">
         <v>43343</v>
       </c>
-      <c r="M151" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L151" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>209</v>
       </c>
@@ -7921,23 +7927,23 @@
       <c r="G152">
         <v>30</v>
       </c>
-      <c r="I152" t="s">
+      <c r="H152" t="s">
         <v>434</v>
       </c>
-      <c r="J152">
+      <c r="I152">
         <v>95</v>
       </c>
-      <c r="K152" t="s">
+      <c r="J152" t="s">
         <v>453</v>
       </c>
-      <c r="L152" s="2">
+      <c r="K152" s="2">
         <v>43343</v>
       </c>
-      <c r="M152" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L152" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>209</v>
       </c>
@@ -7959,23 +7965,23 @@
       <c r="G153">
         <v>60</v>
       </c>
-      <c r="I153" t="s">
+      <c r="H153" t="s">
         <v>435</v>
       </c>
-      <c r="J153">
+      <c r="I153">
         <v>95</v>
       </c>
-      <c r="K153" t="s">
+      <c r="J153" t="s">
         <v>453</v>
       </c>
-      <c r="L153" s="2">
+      <c r="K153" s="2">
         <v>43343</v>
       </c>
-      <c r="M153" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L153" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>209</v>
       </c>
@@ -7997,23 +8003,23 @@
       <c r="G154">
         <v>150</v>
       </c>
-      <c r="I154" t="s">
+      <c r="H154" t="s">
         <v>437</v>
       </c>
-      <c r="J154">
+      <c r="I154">
         <v>95</v>
       </c>
-      <c r="K154" t="s">
+      <c r="J154" t="s">
         <v>453</v>
       </c>
-      <c r="L154" s="2">
+      <c r="K154" s="2">
         <v>43343</v>
       </c>
-      <c r="M154" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L154" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>209</v>
       </c>
@@ -8035,23 +8041,23 @@
       <c r="G155">
         <v>30</v>
       </c>
-      <c r="I155" t="s">
+      <c r="H155" t="s">
         <v>434</v>
       </c>
-      <c r="J155">
+      <c r="I155">
         <v>95</v>
       </c>
-      <c r="K155" t="s">
+      <c r="J155" t="s">
         <v>453</v>
       </c>
-      <c r="L155" s="2">
+      <c r="K155" s="2">
         <v>43343</v>
       </c>
-      <c r="M155" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L155" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>209</v>
       </c>
@@ -8073,23 +8079,23 @@
       <c r="G156">
         <v>30</v>
       </c>
-      <c r="I156" t="s">
+      <c r="H156" t="s">
         <v>434</v>
       </c>
-      <c r="J156">
+      <c r="I156">
         <v>95</v>
       </c>
-      <c r="K156" t="s">
+      <c r="J156" t="s">
         <v>453</v>
       </c>
-      <c r="L156" s="2">
+      <c r="K156" s="2">
         <v>43343</v>
       </c>
-      <c r="M156" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L156" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>209</v>
       </c>
@@ -8111,20 +8117,20 @@
       <c r="G157">
         <v>30</v>
       </c>
-      <c r="I157" t="s">
+      <c r="H157" t="s">
         <v>434</v>
       </c>
-      <c r="J157">
+      <c r="I157">
         <v>100</v>
       </c>
+      <c r="J157" t="s">
+        <v>7</v>
+      </c>
       <c r="K157" t="s">
         <v>7</v>
       </c>
-      <c r="L157" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>209</v>
       </c>
@@ -8146,20 +8152,20 @@
       <c r="G158">
         <v>30</v>
       </c>
-      <c r="I158" t="s">
+      <c r="H158" t="s">
         <v>434</v>
       </c>
-      <c r="J158">
+      <c r="I158">
         <v>100</v>
       </c>
+      <c r="J158" t="s">
+        <v>7</v>
+      </c>
       <c r="K158" t="s">
         <v>7</v>
       </c>
-      <c r="L158" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>209</v>
       </c>
@@ -8181,20 +8187,20 @@
       <c r="G159">
         <v>120</v>
       </c>
-      <c r="I159" t="s">
+      <c r="H159" t="s">
         <v>437</v>
       </c>
-      <c r="J159">
+      <c r="I159">
         <v>100</v>
       </c>
+      <c r="J159" t="s">
+        <v>7</v>
+      </c>
       <c r="K159" t="s">
         <v>7</v>
       </c>
-      <c r="L159" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>209</v>
       </c>
@@ -8216,20 +8222,20 @@
       <c r="G160">
         <v>30</v>
       </c>
-      <c r="I160" t="s">
+      <c r="H160" t="s">
         <v>434</v>
       </c>
-      <c r="J160">
+      <c r="I160">
         <v>100</v>
       </c>
+      <c r="J160" t="s">
+        <v>7</v>
+      </c>
       <c r="K160" t="s">
         <v>7</v>
       </c>
-      <c r="L160" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>209</v>
       </c>
@@ -8251,20 +8257,20 @@
       <c r="G161">
         <v>30</v>
       </c>
-      <c r="I161" t="s">
+      <c r="H161" t="s">
         <v>434</v>
       </c>
-      <c r="J161">
+      <c r="I161">
         <v>100</v>
       </c>
+      <c r="J161" t="s">
+        <v>7</v>
+      </c>
       <c r="K161" t="s">
         <v>7</v>
       </c>
-      <c r="L161" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>209</v>
       </c>
@@ -8286,20 +8292,20 @@
       <c r="G162">
         <v>30</v>
       </c>
-      <c r="I162" t="s">
+      <c r="H162" t="s">
         <v>434</v>
       </c>
-      <c r="J162">
+      <c r="I162">
         <v>100</v>
       </c>
+      <c r="J162" t="s">
+        <v>7</v>
+      </c>
       <c r="K162" t="s">
         <v>7</v>
       </c>
-      <c r="L162" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>209</v>
       </c>
@@ -8321,20 +8327,20 @@
       <c r="G163">
         <v>30</v>
       </c>
-      <c r="I163" t="s">
+      <c r="H163" t="s">
         <v>434</v>
       </c>
-      <c r="J163">
+      <c r="I163">
         <v>100</v>
       </c>
+      <c r="J163" t="s">
+        <v>7</v>
+      </c>
       <c r="K163" t="s">
         <v>7</v>
       </c>
-      <c r="L163" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>209</v>
       </c>
@@ -8356,23 +8362,23 @@
       <c r="G164">
         <v>45</v>
       </c>
-      <c r="I164" t="s">
+      <c r="H164" t="s">
         <v>434</v>
       </c>
-      <c r="J164">
+      <c r="I164">
         <v>10</v>
       </c>
-      <c r="K164" t="s">
+      <c r="J164" t="s">
         <v>453</v>
       </c>
-      <c r="L164" s="2">
+      <c r="K164" s="2">
         <v>43343</v>
       </c>
-      <c r="M164" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L164" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>209</v>
       </c>
@@ -8394,23 +8400,23 @@
       <c r="G165">
         <v>45</v>
       </c>
-      <c r="I165" t="s">
+      <c r="H165" t="s">
         <v>434</v>
       </c>
-      <c r="J165">
+      <c r="I165">
         <v>10</v>
       </c>
-      <c r="K165" t="s">
+      <c r="J165" t="s">
         <v>453</v>
       </c>
-      <c r="L165" s="2">
+      <c r="K165" s="2">
         <v>43343</v>
       </c>
-      <c r="M165" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L165" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>209</v>
       </c>
@@ -8432,23 +8438,23 @@
       <c r="G166">
         <v>390</v>
       </c>
-      <c r="I166" t="s">
+      <c r="H166" t="s">
         <v>434</v>
       </c>
-      <c r="J166">
+      <c r="I166">
         <v>10</v>
       </c>
-      <c r="K166" t="s">
+      <c r="J166" t="s">
         <v>453</v>
       </c>
-      <c r="L166" s="2">
+      <c r="K166" s="2">
         <v>43343</v>
       </c>
-      <c r="M166" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L166" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>209</v>
       </c>
@@ -8470,23 +8476,23 @@
       <c r="G167">
         <v>45</v>
       </c>
-      <c r="I167" t="s">
+      <c r="H167" t="s">
         <v>434</v>
       </c>
-      <c r="J167">
+      <c r="I167">
         <v>10</v>
       </c>
-      <c r="K167" t="s">
+      <c r="J167" t="s">
         <v>453</v>
       </c>
-      <c r="L167" s="2">
+      <c r="K167" s="2">
         <v>43343</v>
       </c>
-      <c r="M167" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L167" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>209</v>
       </c>
@@ -8508,23 +8514,23 @@
       <c r="G168">
         <v>45</v>
       </c>
-      <c r="I168" t="s">
+      <c r="H168" t="s">
         <v>434</v>
       </c>
-      <c r="J168">
+      <c r="I168">
         <v>10</v>
       </c>
-      <c r="K168" t="s">
+      <c r="J168" t="s">
         <v>453</v>
       </c>
-      <c r="L168" s="2">
+      <c r="K168" s="2">
         <v>43343</v>
       </c>
-      <c r="M168" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L168" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>209</v>
       </c>
@@ -8546,20 +8552,20 @@
       <c r="G169">
         <v>390</v>
       </c>
-      <c r="I169" t="s">
+      <c r="H169" t="s">
         <v>439</v>
       </c>
-      <c r="J169">
+      <c r="I169">
         <v>100</v>
       </c>
+      <c r="J169" t="s">
+        <v>7</v>
+      </c>
       <c r="K169" t="s">
         <v>7</v>
       </c>
-      <c r="L169" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>209</v>
       </c>
@@ -8581,20 +8587,20 @@
       <c r="G170">
         <v>390</v>
       </c>
-      <c r="I170" t="s">
+      <c r="H170" t="s">
         <v>439</v>
       </c>
-      <c r="J170">
+      <c r="I170">
         <v>100</v>
       </c>
+      <c r="J170" t="s">
+        <v>7</v>
+      </c>
       <c r="K170" t="s">
         <v>7</v>
       </c>
-      <c r="L170" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>209</v>
       </c>
@@ -8616,20 +8622,20 @@
       <c r="G171">
         <v>390</v>
       </c>
-      <c r="I171" t="s">
+      <c r="H171" t="s">
         <v>439</v>
       </c>
-      <c r="J171">
+      <c r="I171">
         <v>100</v>
       </c>
+      <c r="J171" t="s">
+        <v>7</v>
+      </c>
       <c r="K171" t="s">
         <v>7</v>
       </c>
-      <c r="L171" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>209</v>
       </c>
@@ -8651,20 +8657,20 @@
       <c r="G172">
         <v>390</v>
       </c>
-      <c r="I172" t="s">
+      <c r="H172" t="s">
         <v>439</v>
       </c>
-      <c r="J172">
+      <c r="I172">
         <v>100</v>
       </c>
+      <c r="J172" t="s">
+        <v>7</v>
+      </c>
       <c r="K172" t="s">
         <v>7</v>
       </c>
-      <c r="L172" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>209</v>
       </c>
@@ -8686,20 +8692,20 @@
       <c r="G173">
         <v>30</v>
       </c>
-      <c r="I173" t="s">
+      <c r="H173" t="s">
         <v>434</v>
       </c>
-      <c r="J173">
+      <c r="I173">
         <v>100</v>
       </c>
+      <c r="J173" t="s">
+        <v>7</v>
+      </c>
       <c r="K173" t="s">
         <v>7</v>
       </c>
-      <c r="L173" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>209</v>
       </c>
@@ -8721,20 +8727,20 @@
       <c r="G174">
         <v>30</v>
       </c>
-      <c r="I174" t="s">
+      <c r="H174" t="s">
         <v>434</v>
       </c>
-      <c r="J174">
+      <c r="I174">
         <v>100</v>
       </c>
+      <c r="J174" t="s">
+        <v>7</v>
+      </c>
       <c r="K174" t="s">
         <v>7</v>
       </c>
-      <c r="L174" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>209</v>
       </c>
@@ -8756,20 +8762,20 @@
       <c r="G175">
         <v>30</v>
       </c>
-      <c r="I175" t="s">
+      <c r="H175" t="s">
         <v>434</v>
       </c>
-      <c r="J175">
+      <c r="I175">
         <v>100</v>
       </c>
+      <c r="J175" t="s">
+        <v>7</v>
+      </c>
       <c r="K175" t="s">
         <v>7</v>
       </c>
-      <c r="L175" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>209</v>
       </c>
@@ -8791,20 +8797,20 @@
       <c r="G176">
         <v>240</v>
       </c>
-      <c r="I176" t="s">
+      <c r="H176" t="s">
         <v>437</v>
       </c>
-      <c r="J176">
+      <c r="I176">
         <v>100</v>
       </c>
+      <c r="J176" t="s">
+        <v>7</v>
+      </c>
       <c r="K176" t="s">
         <v>7</v>
       </c>
-      <c r="L176" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>209</v>
       </c>
@@ -8826,23 +8832,23 @@
       <c r="G177">
         <v>240</v>
       </c>
-      <c r="I177" t="s">
+      <c r="H177" t="s">
         <v>437</v>
       </c>
-      <c r="J177">
+      <c r="I177">
         <v>90</v>
       </c>
-      <c r="K177" t="s">
+      <c r="J177" t="s">
         <v>451</v>
       </c>
-      <c r="L177" s="2">
+      <c r="K177" s="2">
         <v>43312</v>
       </c>
-      <c r="M177" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L177" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>209</v>
       </c>
@@ -8864,23 +8870,23 @@
       <c r="G178">
         <v>240</v>
       </c>
-      <c r="I178" t="s">
+      <c r="H178" t="s">
         <v>437</v>
       </c>
-      <c r="J178">
+      <c r="I178">
         <v>90</v>
       </c>
-      <c r="K178" t="s">
+      <c r="J178" t="s">
         <v>451</v>
       </c>
-      <c r="L178" s="2">
+      <c r="K178" s="2">
         <v>43312</v>
       </c>
-      <c r="M178" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L178" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>209</v>
       </c>
@@ -8902,20 +8908,20 @@
       <c r="G179">
         <v>240</v>
       </c>
-      <c r="I179" t="s">
+      <c r="H179" t="s">
         <v>437</v>
       </c>
-      <c r="J179">
+      <c r="I179">
         <v>100</v>
       </c>
+      <c r="J179" t="s">
+        <v>7</v>
+      </c>
       <c r="K179" t="s">
         <v>7</v>
       </c>
-      <c r="L179" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>209</v>
       </c>
@@ -8937,20 +8943,20 @@
       <c r="G180">
         <v>240</v>
       </c>
-      <c r="I180" t="s">
+      <c r="H180" t="s">
         <v>437</v>
       </c>
-      <c r="J180">
+      <c r="I180">
         <v>100</v>
       </c>
+      <c r="J180" t="s">
+        <v>7</v>
+      </c>
       <c r="K180" t="s">
         <v>7</v>
       </c>
-      <c r="L180" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>209</v>
       </c>
@@ -8972,20 +8978,20 @@
       <c r="G181">
         <v>240</v>
       </c>
-      <c r="I181" t="s">
+      <c r="H181" t="s">
         <v>437</v>
       </c>
-      <c r="J181">
+      <c r="I181">
         <v>100</v>
       </c>
+      <c r="J181" t="s">
+        <v>7</v>
+      </c>
       <c r="K181" t="s">
         <v>7</v>
       </c>
-      <c r="L181" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>209</v>
       </c>
@@ -9007,23 +9013,23 @@
       <c r="G182">
         <v>180</v>
       </c>
-      <c r="I182" t="s">
+      <c r="H182" t="s">
         <v>437</v>
       </c>
-      <c r="J182">
-        <v>60</v>
+      <c r="I182">
+        <v>100</v>
+      </c>
+      <c r="J182" t="s">
+        <v>7</v>
       </c>
       <c r="K182" t="s">
-        <v>451</v>
-      </c>
-      <c r="L182" s="2">
-        <v>43312</v>
-      </c>
-      <c r="M182" s="4" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="L182" s="4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>209</v>
       </c>
@@ -9045,23 +9051,23 @@
       <c r="G183">
         <v>60</v>
       </c>
-      <c r="I183" t="s">
+      <c r="H183" t="s">
         <v>435</v>
       </c>
-      <c r="J183">
-        <v>60</v>
+      <c r="I183">
+        <v>100</v>
+      </c>
+      <c r="J183" t="s">
+        <v>7</v>
       </c>
       <c r="K183" t="s">
-        <v>451</v>
-      </c>
-      <c r="L183" s="2">
-        <v>43312</v>
-      </c>
-      <c r="M183" s="4" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="L183" s="4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>209</v>
       </c>
@@ -9083,23 +9089,23 @@
       <c r="G184">
         <v>60</v>
       </c>
-      <c r="I184" t="s">
+      <c r="H184" t="s">
         <v>435</v>
       </c>
-      <c r="J184">
+      <c r="I184">
         <v>65</v>
       </c>
-      <c r="K184" t="s">
+      <c r="J184" t="s">
         <v>453</v>
       </c>
-      <c r="L184" s="2">
+      <c r="K184" s="2">
         <v>43312</v>
       </c>
-      <c r="M184" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L184" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>209</v>
       </c>
@@ -9121,23 +9127,23 @@
       <c r="G185">
         <v>60</v>
       </c>
-      <c r="I185" t="s">
+      <c r="H185" t="s">
         <v>434</v>
       </c>
-      <c r="J185">
+      <c r="I185">
         <v>65</v>
       </c>
-      <c r="K185" t="s">
+      <c r="J185" t="s">
         <v>453</v>
       </c>
-      <c r="L185" s="2">
+      <c r="K185" s="2">
         <v>43312</v>
       </c>
-      <c r="M185" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L185" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>209</v>
       </c>
@@ -9159,23 +9165,23 @@
       <c r="G186">
         <v>240</v>
       </c>
-      <c r="I186" t="s">
+      <c r="H186" t="s">
         <v>437</v>
       </c>
-      <c r="J186">
+      <c r="I186">
         <v>20</v>
       </c>
-      <c r="K186" t="s">
+      <c r="J186" t="s">
         <v>451</v>
       </c>
-      <c r="L186" s="2">
+      <c r="K186" s="2">
         <v>43343</v>
       </c>
-      <c r="M186" s="4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L186" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>209</v>
       </c>
@@ -9197,23 +9203,23 @@
       <c r="G187">
         <v>240</v>
       </c>
-      <c r="I187" t="s">
+      <c r="H187" t="s">
         <v>437</v>
       </c>
-      <c r="J187">
+      <c r="I187">
         <v>20</v>
       </c>
-      <c r="K187" t="s">
+      <c r="J187" t="s">
         <v>451</v>
       </c>
-      <c r="L187" s="2">
+      <c r="K187" s="2">
         <v>43343</v>
       </c>
-      <c r="M187" s="4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L187" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>209</v>
       </c>
@@ -9235,23 +9241,23 @@
       <c r="G188">
         <v>30</v>
       </c>
-      <c r="I188" t="s">
+      <c r="H188" t="s">
         <v>434</v>
       </c>
-      <c r="J188">
+      <c r="I188">
         <v>90</v>
       </c>
-      <c r="K188" t="s">
+      <c r="J188" t="s">
         <v>453</v>
       </c>
-      <c r="L188" s="2">
+      <c r="K188" s="2">
         <v>43343</v>
       </c>
-      <c r="M188" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L188" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>209</v>
       </c>
@@ -9273,23 +9279,23 @@
       <c r="G189">
         <v>30</v>
       </c>
-      <c r="I189" t="s">
+      <c r="H189" t="s">
         <v>434</v>
       </c>
-      <c r="J189">
+      <c r="I189">
         <v>90</v>
       </c>
-      <c r="K189" t="s">
+      <c r="J189" t="s">
         <v>453</v>
       </c>
-      <c r="L189" s="2">
+      <c r="K189" s="2">
         <v>43343</v>
       </c>
-      <c r="M189" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L189" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>209</v>
       </c>
@@ -9311,23 +9317,23 @@
       <c r="G190">
         <v>30</v>
       </c>
-      <c r="I190" t="s">
+      <c r="H190" t="s">
         <v>434</v>
       </c>
-      <c r="J190">
+      <c r="I190">
         <v>90</v>
       </c>
-      <c r="K190" t="s">
+      <c r="J190" t="s">
         <v>453</v>
       </c>
-      <c r="L190" s="2">
+      <c r="K190" s="2">
         <v>43343</v>
       </c>
-      <c r="M190" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L190" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>209</v>
       </c>
@@ -9349,23 +9355,23 @@
       <c r="G191">
         <v>120</v>
       </c>
-      <c r="I191" t="s">
+      <c r="H191" t="s">
         <v>437</v>
       </c>
-      <c r="J191">
+      <c r="I191">
         <v>90</v>
       </c>
-      <c r="K191" t="s">
+      <c r="J191" t="s">
         <v>453</v>
       </c>
-      <c r="L191" s="2">
+      <c r="K191" s="2">
         <v>43343</v>
       </c>
-      <c r="M191" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L191" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>209</v>
       </c>
@@ -9387,23 +9393,23 @@
       <c r="G192">
         <v>120</v>
       </c>
-      <c r="I192" t="s">
+      <c r="H192" t="s">
         <v>437</v>
       </c>
-      <c r="J192">
+      <c r="I192">
         <v>90</v>
       </c>
-      <c r="K192" t="s">
+      <c r="J192" t="s">
         <v>453</v>
       </c>
-      <c r="L192" s="2">
+      <c r="K192" s="2">
         <v>43343</v>
       </c>
-      <c r="M192" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L192" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>209</v>
       </c>
@@ -9425,23 +9431,23 @@
       <c r="G193">
         <v>30</v>
       </c>
-      <c r="I193" t="s">
+      <c r="H193" t="s">
         <v>434</v>
       </c>
-      <c r="J193">
+      <c r="I193">
         <v>90</v>
       </c>
-      <c r="K193" t="s">
+      <c r="J193" t="s">
         <v>453</v>
       </c>
-      <c r="L193" s="2">
+      <c r="K193" s="2">
         <v>43343</v>
       </c>
-      <c r="M193" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L193" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>209</v>
       </c>
@@ -9463,23 +9469,23 @@
       <c r="G194">
         <v>30</v>
       </c>
-      <c r="I194" t="s">
+      <c r="H194" t="s">
         <v>434</v>
       </c>
-      <c r="J194">
+      <c r="I194">
         <v>90</v>
       </c>
-      <c r="K194" t="s">
+      <c r="J194" t="s">
         <v>453</v>
       </c>
-      <c r="L194" s="2">
+      <c r="K194" s="2">
         <v>43343</v>
       </c>
-      <c r="M194" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L194" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>209</v>
       </c>
@@ -9501,23 +9507,23 @@
       <c r="G195">
         <v>30</v>
       </c>
-      <c r="I195" t="s">
+      <c r="H195" t="s">
         <v>434</v>
       </c>
-      <c r="J195">
+      <c r="I195">
         <v>90</v>
       </c>
-      <c r="K195" t="s">
+      <c r="J195" t="s">
         <v>453</v>
       </c>
-      <c r="L195" s="2">
+      <c r="K195" s="2">
         <v>43343</v>
       </c>
-      <c r="M195" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L195" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>209</v>
       </c>
@@ -9539,23 +9545,23 @@
       <c r="G196">
         <v>30</v>
       </c>
-      <c r="I196" t="s">
+      <c r="H196" t="s">
         <v>434</v>
       </c>
-      <c r="J196">
+      <c r="I196">
         <v>90</v>
       </c>
-      <c r="K196" t="s">
+      <c r="J196" t="s">
         <v>453</v>
       </c>
-      <c r="L196" s="2">
+      <c r="K196" s="2">
         <v>43343</v>
       </c>
-      <c r="M196" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L196" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>209</v>
       </c>
@@ -9577,20 +9583,20 @@
       <c r="G197">
         <v>30</v>
       </c>
-      <c r="I197" t="s">
+      <c r="H197" t="s">
         <v>434</v>
       </c>
-      <c r="J197">
+      <c r="I197">
         <v>100</v>
       </c>
-      <c r="K197" t="s">
-        <v>7</v>
-      </c>
-      <c r="L197" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J197" t="s">
+        <v>7</v>
+      </c>
+      <c r="K197" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>209</v>
       </c>
@@ -9612,20 +9618,20 @@
       <c r="G198">
         <v>30</v>
       </c>
-      <c r="I198" t="s">
+      <c r="H198" t="s">
         <v>434</v>
       </c>
-      <c r="J198">
+      <c r="I198">
         <v>100</v>
       </c>
-      <c r="K198" t="s">
-        <v>7</v>
-      </c>
-      <c r="L198" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J198" t="s">
+        <v>7</v>
+      </c>
+      <c r="K198" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>209</v>
       </c>
@@ -9647,23 +9653,23 @@
       <c r="G199">
         <v>30</v>
       </c>
-      <c r="I199" t="s">
+      <c r="H199" t="s">
         <v>434</v>
       </c>
-      <c r="J199">
+      <c r="I199">
         <v>90</v>
       </c>
-      <c r="K199" t="s">
+      <c r="J199" t="s">
         <v>453</v>
       </c>
-      <c r="L199" s="2">
+      <c r="K199" s="2">
         <v>43343</v>
       </c>
-      <c r="M199" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L199" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>209</v>
       </c>
@@ -9685,23 +9691,23 @@
       <c r="G200">
         <v>30</v>
       </c>
-      <c r="I200" t="s">
+      <c r="H200" t="s">
         <v>434</v>
       </c>
-      <c r="J200">
+      <c r="I200">
         <v>90</v>
       </c>
-      <c r="K200" t="s">
+      <c r="J200" t="s">
         <v>453</v>
       </c>
-      <c r="L200" s="2">
+      <c r="K200" s="2">
         <v>43343</v>
       </c>
-      <c r="M200" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L200" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>209</v>
       </c>
@@ -9723,23 +9729,23 @@
       <c r="G201">
         <v>30</v>
       </c>
-      <c r="I201" t="s">
+      <c r="H201" t="s">
         <v>434</v>
       </c>
-      <c r="J201">
+      <c r="I201">
         <v>90</v>
       </c>
-      <c r="K201" t="s">
+      <c r="J201" t="s">
         <v>453</v>
       </c>
-      <c r="L201" s="2">
+      <c r="K201" s="2">
         <v>43343</v>
       </c>
-      <c r="M201" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L201" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>209</v>
       </c>
@@ -9761,23 +9767,23 @@
       <c r="G202">
         <v>120</v>
       </c>
-      <c r="I202" t="s">
+      <c r="H202" t="s">
         <v>437</v>
       </c>
-      <c r="J202">
+      <c r="I202">
         <v>90</v>
       </c>
-      <c r="K202" t="s">
+      <c r="J202" t="s">
         <v>453</v>
       </c>
-      <c r="L202" s="2">
+      <c r="K202" s="2">
         <v>43343</v>
       </c>
-      <c r="M202" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L202" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>209</v>
       </c>
@@ -9799,23 +9805,23 @@
       <c r="G203">
         <v>30</v>
       </c>
-      <c r="I203" t="s">
+      <c r="H203" t="s">
         <v>434</v>
       </c>
-      <c r="J203">
+      <c r="I203">
         <v>90</v>
       </c>
-      <c r="K203" t="s">
+      <c r="J203" t="s">
         <v>453</v>
       </c>
-      <c r="L203" s="2">
+      <c r="K203" s="2">
         <v>43343</v>
       </c>
-      <c r="M203" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L203" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>209</v>
       </c>
@@ -9837,23 +9843,23 @@
       <c r="G204">
         <v>30</v>
       </c>
-      <c r="I204" t="s">
+      <c r="H204" t="s">
         <v>434</v>
       </c>
-      <c r="J204">
+      <c r="I204">
         <v>90</v>
       </c>
-      <c r="K204" t="s">
+      <c r="J204" t="s">
         <v>453</v>
       </c>
-      <c r="L204" s="2">
+      <c r="K204" s="2">
         <v>43343</v>
       </c>
-      <c r="M204" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L204" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>209</v>
       </c>
@@ -9875,23 +9881,23 @@
       <c r="G205">
         <v>30</v>
       </c>
-      <c r="I205" t="s">
+      <c r="H205" t="s">
         <v>434</v>
       </c>
-      <c r="J205">
+      <c r="I205">
         <v>90</v>
       </c>
-      <c r="K205" t="s">
+      <c r="J205" t="s">
         <v>453</v>
       </c>
-      <c r="L205" s="2">
+      <c r="K205" s="2">
         <v>43343</v>
       </c>
-      <c r="M205" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L205" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>209</v>
       </c>
@@ -9913,20 +9919,20 @@
       <c r="G206">
         <v>30</v>
       </c>
-      <c r="I206" t="s">
+      <c r="H206" t="s">
         <v>434</v>
       </c>
-      <c r="J206">
+      <c r="I206">
         <v>100</v>
       </c>
-      <c r="K206" t="s">
-        <v>7</v>
-      </c>
-      <c r="L206" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J206" t="s">
+        <v>7</v>
+      </c>
+      <c r="K206" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>209</v>
       </c>
@@ -9948,23 +9954,23 @@
       <c r="G207">
         <v>90</v>
       </c>
-      <c r="I207" t="s">
+      <c r="H207" t="s">
         <v>437</v>
       </c>
-      <c r="J207">
+      <c r="I207">
         <v>90</v>
       </c>
-      <c r="K207" t="s">
+      <c r="J207" t="s">
         <v>453</v>
       </c>
-      <c r="L207" s="2">
+      <c r="K207" s="2">
         <v>43343</v>
       </c>
-      <c r="M207" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L207" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>209</v>
       </c>
@@ -9986,23 +9992,23 @@
       <c r="G208">
         <v>30</v>
       </c>
-      <c r="I208" t="s">
+      <c r="H208" t="s">
         <v>434</v>
       </c>
-      <c r="J208">
+      <c r="I208">
         <v>90</v>
       </c>
-      <c r="K208" t="s">
+      <c r="J208" t="s">
         <v>453</v>
       </c>
-      <c r="L208" s="2">
+      <c r="K208" s="2">
         <v>43343</v>
       </c>
-      <c r="M208" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L208" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>209</v>
       </c>
@@ -10024,23 +10030,23 @@
       <c r="G209">
         <v>30</v>
       </c>
-      <c r="I209" t="s">
+      <c r="H209" t="s">
         <v>434</v>
       </c>
-      <c r="J209">
+      <c r="I209">
         <v>90</v>
       </c>
-      <c r="K209" t="s">
+      <c r="J209" t="s">
         <v>453</v>
       </c>
-      <c r="L209" s="2">
+      <c r="K209" s="2">
         <v>43343</v>
       </c>
-      <c r="M209" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L209" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -10062,23 +10068,23 @@
       <c r="G210">
         <v>30</v>
       </c>
-      <c r="I210" t="s">
+      <c r="H210" t="s">
         <v>434</v>
       </c>
-      <c r="J210">
+      <c r="I210">
         <v>90</v>
       </c>
-      <c r="K210" t="s">
+      <c r="J210" t="s">
         <v>453</v>
       </c>
-      <c r="L210" s="2">
+      <c r="K210" s="2">
         <v>43343</v>
       </c>
-      <c r="M210" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L210" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>209</v>
       </c>
@@ -10100,23 +10106,23 @@
       <c r="G211">
         <v>90</v>
       </c>
-      <c r="I211" t="s">
+      <c r="H211" t="s">
         <v>437</v>
       </c>
-      <c r="J211">
+      <c r="I211">
         <v>90</v>
       </c>
-      <c r="K211" t="s">
+      <c r="J211" t="s">
         <v>453</v>
       </c>
-      <c r="L211" s="2">
+      <c r="K211" s="2">
         <v>43343</v>
       </c>
-      <c r="M211" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L211" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>209</v>
       </c>
@@ -10138,23 +10144,23 @@
       <c r="G212">
         <v>120</v>
       </c>
-      <c r="I212" t="s">
+      <c r="H212" t="s">
         <v>437</v>
       </c>
-      <c r="J212">
+      <c r="I212">
         <v>90</v>
       </c>
-      <c r="K212" t="s">
+      <c r="J212" t="s">
         <v>453</v>
       </c>
-      <c r="L212" s="2">
+      <c r="K212" s="2">
         <v>43343</v>
       </c>
-      <c r="M212" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L212" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>209</v>
       </c>
@@ -10176,23 +10182,23 @@
       <c r="G213">
         <v>30</v>
       </c>
-      <c r="I213" t="s">
+      <c r="H213" t="s">
         <v>434</v>
       </c>
-      <c r="J213">
+      <c r="I213">
         <v>90</v>
       </c>
-      <c r="K213" t="s">
+      <c r="J213" t="s">
         <v>453</v>
       </c>
-      <c r="L213" s="2">
+      <c r="K213" s="2">
         <v>43343</v>
       </c>
-      <c r="M213" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L213" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>209</v>
       </c>
@@ -10214,23 +10220,23 @@
       <c r="G214">
         <v>30</v>
       </c>
-      <c r="I214" t="s">
+      <c r="H214" t="s">
         <v>434</v>
       </c>
-      <c r="J214">
+      <c r="I214">
         <v>90</v>
       </c>
-      <c r="K214" t="s">
+      <c r="J214" t="s">
         <v>453</v>
       </c>
-      <c r="L214" s="2">
+      <c r="K214" s="2">
         <v>43343</v>
       </c>
-      <c r="M214" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L214" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>209</v>
       </c>
@@ -10252,23 +10258,23 @@
       <c r="G215">
         <v>120</v>
       </c>
-      <c r="I215" t="s">
+      <c r="H215" t="s">
         <v>437</v>
       </c>
-      <c r="J215">
+      <c r="I215">
         <v>90</v>
       </c>
-      <c r="K215" t="s">
+      <c r="J215" t="s">
         <v>453</v>
       </c>
-      <c r="L215" s="2">
+      <c r="K215" s="2">
         <v>43343</v>
       </c>
-      <c r="M215" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L215" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>209</v>
       </c>
@@ -10290,23 +10296,23 @@
       <c r="G216">
         <v>30</v>
       </c>
-      <c r="I216" t="s">
+      <c r="H216" t="s">
         <v>434</v>
       </c>
-      <c r="J216">
+      <c r="I216">
         <v>90</v>
       </c>
-      <c r="K216" t="s">
+      <c r="J216" t="s">
         <v>453</v>
       </c>
-      <c r="L216" s="2">
+      <c r="K216" s="2">
         <v>43343</v>
       </c>
-      <c r="M216" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L216" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>209</v>
       </c>
@@ -10328,23 +10334,23 @@
       <c r="G217">
         <v>30</v>
       </c>
-      <c r="I217" t="s">
+      <c r="H217" t="s">
         <v>434</v>
       </c>
-      <c r="J217">
+      <c r="I217">
         <v>90</v>
       </c>
-      <c r="K217" t="s">
+      <c r="J217" t="s">
         <v>453</v>
       </c>
-      <c r="L217" s="2">
+      <c r="K217" s="2">
         <v>43343</v>
       </c>
-      <c r="M217" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L217" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>209</v>
       </c>
@@ -10366,23 +10372,23 @@
       <c r="G218">
         <v>180</v>
       </c>
-      <c r="I218" t="s">
+      <c r="H218" t="s">
         <v>437</v>
       </c>
-      <c r="J218">
-        <v>80</v>
+      <c r="I218">
+        <v>100</v>
+      </c>
+      <c r="J218" t="s">
+        <v>7</v>
       </c>
       <c r="K218" t="s">
-        <v>451</v>
-      </c>
-      <c r="L218" s="5">
-        <v>43312</v>
-      </c>
-      <c r="M218" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="L218" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>209</v>
       </c>
@@ -10404,20 +10410,20 @@
       <c r="G219">
         <v>30</v>
       </c>
-      <c r="I219" t="s">
+      <c r="H219" t="s">
         <v>434</v>
       </c>
-      <c r="J219">
+      <c r="I219">
         <v>100</v>
       </c>
+      <c r="J219" t="s">
+        <v>7</v>
+      </c>
       <c r="K219" t="s">
         <v>7</v>
       </c>
-      <c r="L219" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>209</v>
       </c>
@@ -10439,20 +10445,20 @@
       <c r="G220">
         <v>30</v>
       </c>
-      <c r="I220" t="s">
+      <c r="H220" t="s">
         <v>434</v>
       </c>
-      <c r="J220">
+      <c r="I220">
         <v>100</v>
       </c>
+      <c r="J220" t="s">
+        <v>7</v>
+      </c>
       <c r="K220" t="s">
         <v>7</v>
       </c>
-      <c r="L220" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>209</v>
       </c>
@@ -10474,20 +10480,20 @@
       <c r="G221">
         <v>30</v>
       </c>
-      <c r="I221" t="s">
+      <c r="H221" t="s">
         <v>434</v>
       </c>
-      <c r="J221">
+      <c r="I221">
         <v>100</v>
       </c>
+      <c r="J221" t="s">
+        <v>7</v>
+      </c>
       <c r="K221" t="s">
         <v>7</v>
       </c>
-      <c r="L221" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>209</v>
       </c>
@@ -10509,23 +10515,23 @@
       <c r="G222">
         <v>60</v>
       </c>
-      <c r="I222" t="s">
+      <c r="H222" t="s">
         <v>434</v>
       </c>
-      <c r="J222" s="4">
+      <c r="I222" s="4">
         <v>10</v>
       </c>
-      <c r="K222" s="4" t="s">
+      <c r="J222" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="L222" s="2">
+      <c r="K222" s="2">
         <v>43343</v>
       </c>
-      <c r="M222" s="4" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L222" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>209</v>
       </c>
@@ -10547,23 +10553,23 @@
       <c r="G223">
         <v>60</v>
       </c>
-      <c r="I223" t="s">
+      <c r="H223" t="s">
         <v>434</v>
       </c>
-      <c r="J223" s="4">
+      <c r="I223" s="4">
         <v>10</v>
       </c>
-      <c r="K223" s="4" t="s">
+      <c r="J223" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="L223" s="2">
+      <c r="K223" s="2">
         <v>43343</v>
       </c>
-      <c r="M223" s="4" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L223" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>209</v>
       </c>
@@ -10585,23 +10591,23 @@
       <c r="G224">
         <v>60</v>
       </c>
-      <c r="I224" t="s">
+      <c r="H224" t="s">
         <v>434</v>
       </c>
-      <c r="J224" s="4">
+      <c r="I224" s="4">
         <v>10</v>
       </c>
-      <c r="K224" s="4" t="s">
+      <c r="J224" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="L224" s="2">
+      <c r="K224" s="2">
         <v>43343</v>
       </c>
-      <c r="M224" s="4" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L224" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>209</v>
       </c>
@@ -10623,23 +10629,23 @@
       <c r="G225">
         <v>60</v>
       </c>
-      <c r="I225" t="s">
+      <c r="H225" t="s">
         <v>434</v>
       </c>
-      <c r="J225" s="4">
+      <c r="I225" s="4">
         <v>10</v>
       </c>
-      <c r="K225" s="4" t="s">
+      <c r="J225" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="L225" s="2">
+      <c r="K225" s="2">
         <v>43343</v>
       </c>
-      <c r="M225" s="4" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L225" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>209</v>
       </c>
@@ -10661,23 +10667,23 @@
       <c r="G226">
         <v>60</v>
       </c>
-      <c r="I226" t="s">
+      <c r="H226" t="s">
         <v>434</v>
       </c>
-      <c r="J226" s="4">
+      <c r="I226" s="4">
         <v>10</v>
       </c>
-      <c r="K226" s="4" t="s">
+      <c r="J226" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="L226" s="2">
+      <c r="K226" s="2">
         <v>43343</v>
       </c>
-      <c r="M226" s="4" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L226" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>209</v>
       </c>
@@ -10699,23 +10705,23 @@
       <c r="G227">
         <v>60</v>
       </c>
-      <c r="I227" t="s">
+      <c r="H227" t="s">
         <v>434</v>
       </c>
-      <c r="J227" s="4">
+      <c r="I227" s="4">
         <v>10</v>
       </c>
-      <c r="K227" s="4" t="s">
+      <c r="J227" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="L227" s="2">
+      <c r="K227" s="2">
         <v>43343</v>
       </c>
-      <c r="M227" s="4" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L227" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>209</v>
       </c>
@@ -10737,23 +10743,23 @@
       <c r="G228">
         <v>120</v>
       </c>
-      <c r="I228" t="s">
+      <c r="H228" t="s">
         <v>435</v>
       </c>
-      <c r="J228" s="4">
+      <c r="I228" s="4">
         <v>10</v>
       </c>
-      <c r="K228" s="4" t="s">
+      <c r="J228" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="L228" s="2">
+      <c r="K228" s="2">
         <v>43343</v>
       </c>
-      <c r="M228" s="4" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L228" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>209</v>
       </c>
@@ -10775,23 +10781,23 @@
       <c r="G229">
         <v>120</v>
       </c>
-      <c r="I229" t="s">
+      <c r="H229" t="s">
         <v>435</v>
       </c>
-      <c r="J229" s="4">
+      <c r="I229" s="4">
         <v>10</v>
       </c>
-      <c r="K229" s="4" t="s">
+      <c r="J229" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="L229" s="2">
+      <c r="K229" s="2">
         <v>43343</v>
       </c>
-      <c r="M229" s="4" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L229" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>209</v>
       </c>
@@ -10813,23 +10819,23 @@
       <c r="G230">
         <v>120</v>
       </c>
-      <c r="I230" t="s">
+      <c r="H230" t="s">
         <v>435</v>
       </c>
-      <c r="J230" s="4">
+      <c r="I230" s="4">
         <v>10</v>
       </c>
-      <c r="K230" s="4" t="s">
+      <c r="J230" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="L230" s="2">
+      <c r="K230" s="2">
         <v>43343</v>
       </c>
-      <c r="M230" s="4" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L230" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>209</v>
       </c>
@@ -10851,23 +10857,23 @@
       <c r="G231">
         <v>120</v>
       </c>
-      <c r="I231" t="s">
+      <c r="H231" t="s">
         <v>435</v>
       </c>
-      <c r="J231" s="4">
+      <c r="I231" s="4">
         <v>10</v>
       </c>
-      <c r="K231" s="4" t="s">
+      <c r="J231" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="L231" s="2">
+      <c r="K231" s="2">
         <v>43343</v>
       </c>
-      <c r="M231" s="4" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L231" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>209</v>
       </c>
@@ -10889,23 +10895,23 @@
       <c r="G232">
         <v>150</v>
       </c>
-      <c r="I232" t="s">
+      <c r="H232" t="s">
         <v>437</v>
       </c>
-      <c r="J232">
+      <c r="I232">
         <v>95</v>
       </c>
-      <c r="K232" t="s">
+      <c r="J232" t="s">
         <v>453</v>
       </c>
-      <c r="L232" s="2">
+      <c r="K232" s="2">
         <v>43343</v>
       </c>
-      <c r="M232" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L232" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>209</v>
       </c>
@@ -10927,23 +10933,23 @@
       <c r="G233">
         <v>30</v>
       </c>
-      <c r="I233" t="s">
+      <c r="H233" t="s">
         <v>434</v>
       </c>
-      <c r="J233">
+      <c r="I233">
         <v>95</v>
       </c>
-      <c r="K233" t="s">
+      <c r="J233" t="s">
         <v>453</v>
       </c>
-      <c r="L233" s="2">
+      <c r="K233" s="2">
         <v>43343</v>
       </c>
-      <c r="M233" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L233" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>209</v>
       </c>
@@ -10965,23 +10971,23 @@
       <c r="G234">
         <v>30</v>
       </c>
-      <c r="I234" t="s">
+      <c r="H234" t="s">
         <v>434</v>
       </c>
-      <c r="J234">
+      <c r="I234">
         <v>95</v>
       </c>
-      <c r="K234" t="s">
+      <c r="J234" t="s">
         <v>453</v>
       </c>
-      <c r="L234" s="2">
+      <c r="K234" s="2">
         <v>43343</v>
       </c>
-      <c r="M234" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L234" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>209</v>
       </c>
@@ -11003,23 +11009,23 @@
       <c r="G235">
         <v>240</v>
       </c>
-      <c r="I235" t="s">
+      <c r="H235" t="s">
         <v>437</v>
       </c>
-      <c r="J235">
+      <c r="I235">
         <v>5</v>
       </c>
-      <c r="K235" t="s">
+      <c r="J235" t="s">
         <v>451</v>
       </c>
-      <c r="L235" s="2">
+      <c r="K235" s="2">
         <v>43465</v>
       </c>
-      <c r="M235" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L235" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>209</v>
       </c>
@@ -11041,28 +11047,28 @@
       <c r="G236">
         <v>240</v>
       </c>
-      <c r="I236" t="s">
+      <c r="H236" t="s">
         <v>437</v>
       </c>
-      <c r="J236">
+      <c r="I236">
         <v>5</v>
       </c>
-      <c r="K236" t="s">
+      <c r="J236" t="s">
         <v>451</v>
       </c>
-      <c r="L236" s="2">
+      <c r="K236" s="2">
         <v>43465</v>
       </c>
-      <c r="M236" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L236" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>209</v>
       </c>
       <c r="B237" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C237" t="s">
         <v>389</v>
@@ -11079,28 +11085,28 @@
       <c r="G237">
         <v>30</v>
       </c>
-      <c r="I237" t="s">
+      <c r="H237" t="s">
         <v>434</v>
       </c>
-      <c r="J237">
+      <c r="I237">
         <v>5</v>
       </c>
-      <c r="K237" t="s">
+      <c r="J237" t="s">
         <v>451</v>
       </c>
-      <c r="L237" s="2">
+      <c r="K237" s="2">
         <v>43465</v>
       </c>
-      <c r="M237" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L237" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>209</v>
       </c>
       <c r="B238" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C238" t="s">
         <v>389</v>
@@ -11117,28 +11123,28 @@
       <c r="G238">
         <v>240</v>
       </c>
-      <c r="I238" t="s">
+      <c r="H238" t="s">
         <v>437</v>
       </c>
-      <c r="J238">
+      <c r="I238">
         <v>5</v>
       </c>
-      <c r="K238" t="s">
+      <c r="J238" t="s">
         <v>451</v>
       </c>
-      <c r="L238" s="2">
+      <c r="K238" s="2">
         <v>43465</v>
       </c>
-      <c r="M238" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L238" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>209</v>
       </c>
       <c r="B239" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C239" t="s">
         <v>389</v>
@@ -11155,28 +11161,28 @@
       <c r="G239">
         <v>240</v>
       </c>
-      <c r="I239" t="s">
+      <c r="H239" t="s">
         <v>437</v>
       </c>
-      <c r="J239">
+      <c r="I239">
         <v>5</v>
       </c>
-      <c r="K239" t="s">
+      <c r="J239" t="s">
         <v>451</v>
       </c>
-      <c r="L239" s="2">
+      <c r="K239" s="2">
         <v>43465</v>
       </c>
-      <c r="M239" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L239" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>209</v>
       </c>
       <c r="B240" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C240" t="s">
         <v>389</v>
@@ -11193,28 +11199,28 @@
       <c r="G240">
         <v>240</v>
       </c>
-      <c r="I240" t="s">
+      <c r="H240" t="s">
         <v>437</v>
       </c>
-      <c r="J240">
+      <c r="I240">
         <v>5</v>
       </c>
-      <c r="K240" t="s">
+      <c r="J240" t="s">
         <v>451</v>
       </c>
-      <c r="L240" s="2">
+      <c r="K240" s="2">
         <v>43465</v>
       </c>
-      <c r="M240" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L240" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>209</v>
       </c>
       <c r="B241" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C241" t="s">
         <v>389</v>
@@ -11231,28 +11237,28 @@
       <c r="G241">
         <v>240</v>
       </c>
-      <c r="I241" t="s">
+      <c r="H241" t="s">
         <v>437</v>
       </c>
-      <c r="J241">
+      <c r="I241">
         <v>5</v>
       </c>
-      <c r="K241" t="s">
+      <c r="J241" t="s">
         <v>451</v>
       </c>
-      <c r="L241" s="2">
+      <c r="K241" s="2">
         <v>43465</v>
       </c>
-      <c r="M241" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L241" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>209</v>
       </c>
       <c r="B242" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C242" t="s">
         <v>389</v>
@@ -11269,23 +11275,23 @@
       <c r="G242">
         <v>240</v>
       </c>
-      <c r="I242" t="s">
+      <c r="H242" t="s">
         <v>437</v>
       </c>
-      <c r="J242">
+      <c r="I242">
         <v>5</v>
       </c>
-      <c r="K242" t="s">
+      <c r="J242" t="s">
         <v>451</v>
       </c>
-      <c r="L242" s="2">
+      <c r="K242" s="2">
         <v>43465</v>
       </c>
-      <c r="M242" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L242" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>209</v>
       </c>
@@ -11307,23 +11313,23 @@
       <c r="G243">
         <v>240</v>
       </c>
-      <c r="I243" t="s">
+      <c r="H243" t="s">
         <v>437</v>
       </c>
-      <c r="J243">
+      <c r="I243">
         <v>5</v>
       </c>
-      <c r="K243" t="s">
+      <c r="J243" t="s">
         <v>451</v>
       </c>
-      <c r="L243" s="2">
+      <c r="K243" s="2">
         <v>43465</v>
       </c>
-      <c r="M243" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L243" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>209</v>
       </c>
@@ -11345,23 +11351,23 @@
       <c r="G244">
         <v>240</v>
       </c>
-      <c r="I244" t="s">
+      <c r="H244" t="s">
         <v>437</v>
       </c>
-      <c r="J244">
+      <c r="I244">
         <v>5</v>
       </c>
-      <c r="K244" t="s">
+      <c r="J244" t="s">
         <v>451</v>
       </c>
-      <c r="L244" s="2">
+      <c r="K244" s="2">
         <v>43465</v>
       </c>
-      <c r="M244" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L244" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>209</v>
       </c>
@@ -11383,23 +11389,23 @@
       <c r="G245">
         <v>30</v>
       </c>
-      <c r="I245" t="s">
+      <c r="H245" t="s">
         <v>434</v>
       </c>
-      <c r="J245">
-        <v>90</v>
+      <c r="I245">
+        <v>100</v>
+      </c>
+      <c r="J245" t="s">
+        <v>7</v>
       </c>
       <c r="K245" t="s">
-        <v>451</v>
-      </c>
-      <c r="L245" s="5">
-        <v>43343</v>
-      </c>
-      <c r="M245" s="4" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="L245" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>209</v>
       </c>
@@ -11421,23 +11427,23 @@
       <c r="G246">
         <v>240</v>
       </c>
-      <c r="I246" t="s">
+      <c r="H246" t="s">
         <v>437</v>
       </c>
-      <c r="J246">
-        <v>90</v>
+      <c r="I246">
+        <v>100</v>
+      </c>
+      <c r="J246" t="s">
+        <v>7</v>
       </c>
       <c r="K246" t="s">
-        <v>451</v>
-      </c>
-      <c r="L246" s="5">
-        <v>43343</v>
-      </c>
-      <c r="M246" s="4" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="L246" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>209</v>
       </c>
@@ -11459,23 +11465,23 @@
       <c r="G247">
         <v>240</v>
       </c>
-      <c r="I247" t="s">
+      <c r="H247" t="s">
         <v>437</v>
       </c>
-      <c r="J247">
-        <v>90</v>
+      <c r="I247">
+        <v>100</v>
+      </c>
+      <c r="J247" t="s">
+        <v>7</v>
       </c>
       <c r="K247" t="s">
-        <v>451</v>
-      </c>
-      <c r="L247" s="5">
-        <v>43343</v>
-      </c>
-      <c r="M247" s="4" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="L247" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>209</v>
       </c>
@@ -11497,23 +11503,23 @@
       <c r="G248">
         <v>240</v>
       </c>
-      <c r="I248" t="s">
+      <c r="H248" t="s">
         <v>437</v>
       </c>
-      <c r="J248">
-        <v>90</v>
+      <c r="I248">
+        <v>100</v>
+      </c>
+      <c r="J248" t="s">
+        <v>7</v>
       </c>
       <c r="K248" t="s">
-        <v>451</v>
-      </c>
-      <c r="L248" s="5">
-        <v>43343</v>
-      </c>
-      <c r="M248" s="4" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="L248" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>209</v>
       </c>
@@ -11535,20 +11541,20 @@
       <c r="G249">
         <v>240</v>
       </c>
-      <c r="I249" t="s">
+      <c r="H249" t="s">
         <v>437</v>
       </c>
-      <c r="J249">
+      <c r="I249">
         <v>100</v>
       </c>
+      <c r="J249" t="s">
+        <v>7</v>
+      </c>
       <c r="K249" t="s">
         <v>7</v>
       </c>
-      <c r="L249" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>209</v>
       </c>
@@ -11570,20 +11576,20 @@
       <c r="G250">
         <v>240</v>
       </c>
-      <c r="I250" t="s">
+      <c r="H250" t="s">
         <v>437</v>
       </c>
-      <c r="J250">
+      <c r="I250">
         <v>100</v>
       </c>
+      <c r="J250" t="s">
+        <v>7</v>
+      </c>
       <c r="K250" t="s">
         <v>7</v>
       </c>
-      <c r="L250" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>209</v>
       </c>
@@ -11605,20 +11611,20 @@
       <c r="G251">
         <v>240</v>
       </c>
-      <c r="I251" t="s">
+      <c r="H251" t="s">
         <v>437</v>
       </c>
-      <c r="J251">
+      <c r="I251">
         <v>100</v>
       </c>
+      <c r="J251" t="s">
+        <v>7</v>
+      </c>
       <c r="K251" t="s">
         <v>7</v>
       </c>
-      <c r="L251" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>411</v>
       </c>
@@ -11640,20 +11646,20 @@
       <c r="G252">
         <v>30</v>
       </c>
-      <c r="I252" t="s">
+      <c r="H252" t="s">
         <v>434</v>
       </c>
-      <c r="J252">
+      <c r="I252">
         <v>100</v>
       </c>
+      <c r="J252" t="s">
+        <v>7</v>
+      </c>
       <c r="K252" t="s">
         <v>7</v>
       </c>
-      <c r="L252" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>411</v>
       </c>
@@ -11675,20 +11681,20 @@
       <c r="G253">
         <v>30</v>
       </c>
-      <c r="I253" t="s">
+      <c r="H253" t="s">
         <v>434</v>
       </c>
-      <c r="J253">
+      <c r="I253">
         <v>100</v>
       </c>
+      <c r="J253" t="s">
+        <v>7</v>
+      </c>
       <c r="K253" t="s">
         <v>7</v>
       </c>
-      <c r="L253" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>411</v>
       </c>
@@ -11710,20 +11716,20 @@
       <c r="G254">
         <v>120</v>
       </c>
-      <c r="I254" t="s">
+      <c r="H254" t="s">
         <v>437</v>
       </c>
-      <c r="J254">
+      <c r="I254">
         <v>100</v>
       </c>
+      <c r="J254" t="s">
+        <v>7</v>
+      </c>
       <c r="K254" t="s">
         <v>7</v>
       </c>
-      <c r="L254" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>411</v>
       </c>
@@ -11745,20 +11751,20 @@
       <c r="G255">
         <v>30</v>
       </c>
-      <c r="I255" t="s">
+      <c r="H255" t="s">
         <v>434</v>
       </c>
-      <c r="J255">
+      <c r="I255">
         <v>100</v>
       </c>
+      <c r="J255" t="s">
+        <v>7</v>
+      </c>
       <c r="K255" t="s">
         <v>7</v>
       </c>
-      <c r="L255" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>411</v>
       </c>
@@ -11780,20 +11786,20 @@
       <c r="G256">
         <v>30</v>
       </c>
-      <c r="I256" t="s">
+      <c r="H256" t="s">
         <v>434</v>
       </c>
-      <c r="J256">
+      <c r="I256">
         <v>100</v>
       </c>
+      <c r="J256" t="s">
+        <v>7</v>
+      </c>
       <c r="K256" t="s">
         <v>7</v>
       </c>
-      <c r="L256" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>411</v>
       </c>
@@ -11815,20 +11821,20 @@
       <c r="G257">
         <v>30</v>
       </c>
-      <c r="I257" t="s">
+      <c r="H257" t="s">
         <v>434</v>
       </c>
-      <c r="J257">
+      <c r="I257">
         <v>100</v>
       </c>
+      <c r="J257" t="s">
+        <v>7</v>
+      </c>
       <c r="K257" t="s">
         <v>7</v>
       </c>
-      <c r="L257" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>411</v>
       </c>
@@ -11850,20 +11856,20 @@
       <c r="G258">
         <v>90</v>
       </c>
-      <c r="I258" t="s">
+      <c r="H258" t="s">
         <v>437</v>
       </c>
-      <c r="J258">
+      <c r="I258">
         <v>100</v>
       </c>
+      <c r="J258" t="s">
+        <v>7</v>
+      </c>
       <c r="K258" t="s">
         <v>7</v>
       </c>
-      <c r="L258" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>411</v>
       </c>
@@ -11885,20 +11891,20 @@
       <c r="G259">
         <v>30</v>
       </c>
-      <c r="I259" t="s">
+      <c r="H259" t="s">
         <v>434</v>
       </c>
-      <c r="J259">
+      <c r="I259">
         <v>100</v>
       </c>
+      <c r="J259" t="s">
+        <v>7</v>
+      </c>
       <c r="K259" t="s">
         <v>7</v>
       </c>
-      <c r="L259" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>411</v>
       </c>
@@ -11920,21 +11926,21 @@
       <c r="G260">
         <v>90</v>
       </c>
-      <c r="I260" t="s">
+      <c r="H260" t="s">
         <v>437</v>
       </c>
-      <c r="J260">
+      <c r="I260">
         <v>100</v>
       </c>
+      <c r="J260" t="s">
+        <v>7</v>
+      </c>
       <c r="K260" t="s">
         <v>7</v>
       </c>
-      <c r="L260" t="s">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I260" xr:uid="{F920CE2C-728A-1C45-9F6A-0B2E6D995C2C}"/>
+  <autoFilter ref="A1:H260" xr:uid="{F920CE2C-728A-1C45-9F6A-0B2E6D995C2C}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -11942,10 +11948,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11999,6 +12005,14 @@
         <v>442</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>477</v>
+      </c>
+      <c r="B9" t="s">
+        <v>478</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Latency.xlsx
+++ b/Latency.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kthibault/Documents/GitHub/sandbox/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clunch/sandbox/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A0C6C8AC-E94C-5948-BFBB-88635A85A6D5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B6FE25C7-00D2-5949-A397-BD8283295B8E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="440" windowWidth="35340" windowHeight="17860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33220" yWindow="4360" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wait Times" sheetId="1" r:id="rId1"/>
@@ -11950,13 +11950,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="227.83203125" customWidth="1"/>
   </cols>
   <sheetData>
